--- a/tempDataSum.xlsx
+++ b/tempDataSum.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="47">
   <si>
     <t>Location</t>
   </si>
@@ -123,6 +123,48 @@
   </si>
   <si>
     <t>Chadron Creek (Exit)</t>
+  </si>
+  <si>
+    <t>Monroe Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42°46'2.66"N</t>
+  </si>
+  <si>
+    <t>103°55'39.57"W</t>
+  </si>
+  <si>
+    <t>Soldier Creek (Middle Branch)</t>
+  </si>
+  <si>
+    <t>Out of water</t>
+  </si>
+  <si>
+    <t>Sowbelly Creek (Coffee Park)</t>
+  </si>
+  <si>
+    <t>White River (Andrews)</t>
+  </si>
+  <si>
+    <t>White River (Swinging Bridge)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42°44'4.92"N</t>
+  </si>
+  <si>
+    <t>103°50'25.36"W</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42°41'53.96"N</t>
+  </si>
+  <si>
+    <t>103°34'8.72"W</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42°37'48.58"N</t>
+  </si>
+  <si>
+    <t>103°44'8.36"W</t>
   </si>
 </sst>
 </file>
@@ -440,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K331"/>
+  <dimension ref="A1:K661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J293" sqref="J293:J331"/>
+      <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C577" sqref="C577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,6 +2276,15 @@
       <c r="D56" t="s">
         <v>18</v>
       </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
       <c r="H56" t="s">
         <v>12</v>
       </c>
@@ -2257,6 +2308,15 @@
       <c r="D57" t="s">
         <v>19</v>
       </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
       <c r="H57" t="s">
         <v>12</v>
       </c>
@@ -2280,6 +2340,15 @@
       <c r="D58" t="s">
         <v>20</v>
       </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
       <c r="H58" t="s">
         <v>12</v>
       </c>
@@ -2303,6 +2372,15 @@
       <c r="D59" t="s">
         <v>21</v>
       </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
       <c r="H59" t="s">
         <v>12</v>
       </c>
@@ -11027,6 +11105,8787 @@
       </c>
       <c r="J331">
         <v>-103.01220000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2015</v>
+      </c>
+      <c r="B332" t="s">
+        <v>10</v>
+      </c>
+      <c r="C332" t="s">
+        <v>33</v>
+      </c>
+      <c r="D332" t="s">
+        <v>11</v>
+      </c>
+      <c r="E332">
+        <v>46.7</v>
+      </c>
+      <c r="F332">
+        <v>61.1</v>
+      </c>
+      <c r="G332">
+        <v>67.7</v>
+      </c>
+      <c r="H332" t="s">
+        <v>12</v>
+      </c>
+      <c r="I332" t="s">
+        <v>34</v>
+      </c>
+      <c r="J332" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2015</v>
+      </c>
+      <c r="B333" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333" t="s">
+        <v>33</v>
+      </c>
+      <c r="D333" t="s">
+        <v>13</v>
+      </c>
+      <c r="E333">
+        <v>50.8</v>
+      </c>
+      <c r="F333">
+        <v>60.9</v>
+      </c>
+      <c r="G333">
+        <v>68</v>
+      </c>
+      <c r="H333" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2015</v>
+      </c>
+      <c r="B334" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" t="s">
+        <v>33</v>
+      </c>
+      <c r="D334" t="s">
+        <v>14</v>
+      </c>
+      <c r="E334">
+        <v>50.1</v>
+      </c>
+      <c r="F334">
+        <v>57.8</v>
+      </c>
+      <c r="G334">
+        <v>64.5</v>
+      </c>
+      <c r="H334" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2015</v>
+      </c>
+      <c r="B335" t="s">
+        <v>10</v>
+      </c>
+      <c r="C335" t="s">
+        <v>33</v>
+      </c>
+      <c r="D335" t="s">
+        <v>15</v>
+      </c>
+      <c r="E335">
+        <v>42.9</v>
+      </c>
+      <c r="F335">
+        <v>53.3</v>
+      </c>
+      <c r="G335">
+        <v>59</v>
+      </c>
+      <c r="H335" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>2015</v>
+      </c>
+      <c r="B336" t="s">
+        <v>10</v>
+      </c>
+      <c r="C336" t="s">
+        <v>33</v>
+      </c>
+      <c r="D336" t="s">
+        <v>16</v>
+      </c>
+      <c r="E336">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F336">
+        <v>42.3</v>
+      </c>
+      <c r="G336">
+        <v>51.7</v>
+      </c>
+      <c r="H336" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2015</v>
+      </c>
+      <c r="B337" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" t="s">
+        <v>33</v>
+      </c>
+      <c r="D337" t="s">
+        <v>17</v>
+      </c>
+      <c r="E337">
+        <v>32.640999999999998</v>
+      </c>
+      <c r="F337">
+        <v>38.155725806451862</v>
+      </c>
+      <c r="G337">
+        <v>45.713999999999999</v>
+      </c>
+      <c r="H337" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2016</v>
+      </c>
+      <c r="B338" t="s">
+        <v>10</v>
+      </c>
+      <c r="C338" t="s">
+        <v>33</v>
+      </c>
+      <c r="D338" t="s">
+        <v>18</v>
+      </c>
+      <c r="E338">
+        <v>33.633000000000003</v>
+      </c>
+      <c r="F338">
+        <v>38.149248655914057</v>
+      </c>
+      <c r="G338">
+        <v>43.122</v>
+      </c>
+      <c r="H338" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2016</v>
+      </c>
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" t="s">
+        <v>33</v>
+      </c>
+      <c r="D339" t="s">
+        <v>19</v>
+      </c>
+      <c r="E339">
+        <v>33.188000000000002</v>
+      </c>
+      <c r="F339">
+        <v>40.256784123563222</v>
+      </c>
+      <c r="G339">
+        <v>47.780999999999999</v>
+      </c>
+      <c r="H339" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>2016</v>
+      </c>
+      <c r="B340" t="s">
+        <v>10</v>
+      </c>
+      <c r="C340" t="s">
+        <v>33</v>
+      </c>
+      <c r="D340" t="s">
+        <v>20</v>
+      </c>
+      <c r="E340">
+        <v>32.841000000000001</v>
+      </c>
+      <c r="F340">
+        <v>43.012701276881806</v>
+      </c>
+      <c r="G340">
+        <v>51.500999999999998</v>
+      </c>
+      <c r="H340" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2016</v>
+      </c>
+      <c r="B341" t="s">
+        <v>10</v>
+      </c>
+      <c r="C341" t="s">
+        <v>33</v>
+      </c>
+      <c r="D341" t="s">
+        <v>21</v>
+      </c>
+      <c r="E341">
+        <v>36.939</v>
+      </c>
+      <c r="F341">
+        <v>47.48094791666653</v>
+      </c>
+      <c r="G341">
+        <v>42.109000000000002</v>
+      </c>
+      <c r="H341" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>2016</v>
+      </c>
+      <c r="B342" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" t="s">
+        <v>33</v>
+      </c>
+      <c r="D342" t="s">
+        <v>22</v>
+      </c>
+      <c r="E342">
+        <v>41.924999999999997</v>
+      </c>
+      <c r="F342">
+        <v>51.755487804878001</v>
+      </c>
+      <c r="G342">
+        <v>61.933999999999997</v>
+      </c>
+      <c r="H342" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>2016</v>
+      </c>
+      <c r="B343" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" t="s">
+        <v>33</v>
+      </c>
+      <c r="D343" t="s">
+        <v>26</v>
+      </c>
+      <c r="E343">
+        <v>49.825000000000003</v>
+      </c>
+      <c r="F343">
+        <v>59.752670486111157</v>
+      </c>
+      <c r="G343">
+        <v>67.757000000000005</v>
+      </c>
+      <c r="H343" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2016</v>
+      </c>
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" t="s">
+        <v>33</v>
+      </c>
+      <c r="D344" t="s">
+        <v>11</v>
+      </c>
+      <c r="E344">
+        <v>55.081000000000003</v>
+      </c>
+      <c r="F344">
+        <v>59.955766129032263</v>
+      </c>
+      <c r="G344">
+        <v>63.902999999999999</v>
+      </c>
+      <c r="H344" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2016</v>
+      </c>
+      <c r="B345" t="s">
+        <v>10</v>
+      </c>
+      <c r="C345" t="s">
+        <v>33</v>
+      </c>
+      <c r="D345" t="s">
+        <v>13</v>
+      </c>
+      <c r="E345">
+        <v>54.082000000000001</v>
+      </c>
+      <c r="F345">
+        <v>59.230442876344213</v>
+      </c>
+      <c r="G345">
+        <v>63.475000000000001</v>
+      </c>
+      <c r="H345" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>2016</v>
+      </c>
+      <c r="B346" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" t="s">
+        <v>33</v>
+      </c>
+      <c r="D346" t="s">
+        <v>14</v>
+      </c>
+      <c r="E346">
+        <v>52.686</v>
+      </c>
+      <c r="F346">
+        <v>56.852463590883744</v>
+      </c>
+      <c r="G346">
+        <v>61.031999999999996</v>
+      </c>
+      <c r="H346" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2016</v>
+      </c>
+      <c r="B347" t="s">
+        <v>10</v>
+      </c>
+      <c r="C347" t="s">
+        <v>33</v>
+      </c>
+      <c r="D347" t="s">
+        <v>15</v>
+      </c>
+      <c r="E347">
+        <v>46.076000000000001</v>
+      </c>
+      <c r="F347">
+        <v>51.32992473118275</v>
+      </c>
+      <c r="G347">
+        <v>58.195</v>
+      </c>
+      <c r="H347" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2016</v>
+      </c>
+      <c r="B348" t="s">
+        <v>10</v>
+      </c>
+      <c r="C348" t="s">
+        <v>33</v>
+      </c>
+      <c r="D348" t="s">
+        <v>16</v>
+      </c>
+      <c r="E348">
+        <v>40.344999999999999</v>
+      </c>
+      <c r="F348">
+        <v>46.465532638888668</v>
+      </c>
+      <c r="G348">
+        <v>52.115000000000002</v>
+      </c>
+      <c r="H348" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2016</v>
+      </c>
+      <c r="B349" t="s">
+        <v>10</v>
+      </c>
+      <c r="C349" t="s">
+        <v>33</v>
+      </c>
+      <c r="D349" t="s">
+        <v>17</v>
+      </c>
+      <c r="E349">
+        <v>36.216999999999999</v>
+      </c>
+      <c r="F349">
+        <v>39.556920698924877</v>
+      </c>
+      <c r="G349">
+        <v>43.808</v>
+      </c>
+      <c r="H349" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2017</v>
+      </c>
+      <c r="B350" t="s">
+        <v>10</v>
+      </c>
+      <c r="C350" t="s">
+        <v>33</v>
+      </c>
+      <c r="D350" t="s">
+        <v>18</v>
+      </c>
+      <c r="E350">
+        <v>36.795000000000002</v>
+      </c>
+      <c r="F350">
+        <v>40.676522513440986</v>
+      </c>
+      <c r="G350">
+        <v>44.445</v>
+      </c>
+      <c r="H350" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2017</v>
+      </c>
+      <c r="B351" t="s">
+        <v>10</v>
+      </c>
+      <c r="C351" t="s">
+        <v>33</v>
+      </c>
+      <c r="D351" t="s">
+        <v>19</v>
+      </c>
+      <c r="E351">
+        <v>36.747</v>
+      </c>
+      <c r="F351">
+        <v>41.751043154761902</v>
+      </c>
+      <c r="G351">
+        <v>47.959000000000003</v>
+      </c>
+      <c r="H351" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>2017</v>
+      </c>
+      <c r="B352" t="s">
+        <v>10</v>
+      </c>
+      <c r="C352" t="s">
+        <v>33</v>
+      </c>
+      <c r="D352" t="s">
+        <v>20</v>
+      </c>
+      <c r="E352">
+        <v>38.036999999999999</v>
+      </c>
+      <c r="F352">
+        <v>45.095640120967694</v>
+      </c>
+      <c r="G352">
+        <v>51.895000000000003</v>
+      </c>
+      <c r="H352" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>2017</v>
+      </c>
+      <c r="B353" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353" t="s">
+        <v>33</v>
+      </c>
+      <c r="D353" t="s">
+        <v>21</v>
+      </c>
+      <c r="E353">
+        <v>41.508000000000003</v>
+      </c>
+      <c r="F353">
+        <v>47.949206249999911</v>
+      </c>
+      <c r="G353">
+        <v>55.298999999999999</v>
+      </c>
+      <c r="H353" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2017</v>
+      </c>
+      <c r="B354" t="s">
+        <v>10</v>
+      </c>
+      <c r="C354" t="s">
+        <v>33</v>
+      </c>
+      <c r="D354" t="s">
+        <v>22</v>
+      </c>
+      <c r="E354">
+        <v>45.579000000000001</v>
+      </c>
+      <c r="F354">
+        <v>51.104122311827894</v>
+      </c>
+      <c r="G354">
+        <v>57.16</v>
+      </c>
+      <c r="H354" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2017</v>
+      </c>
+      <c r="B355" t="s">
+        <v>10</v>
+      </c>
+      <c r="C355" t="s">
+        <v>33</v>
+      </c>
+      <c r="D355" t="s">
+        <v>26</v>
+      </c>
+      <c r="E355">
+        <v>51.588999999999999</v>
+      </c>
+      <c r="F355">
+        <v>58.346222897196348</v>
+      </c>
+      <c r="G355">
+        <v>66.984999999999999</v>
+      </c>
+      <c r="H355" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>2017</v>
+      </c>
+      <c r="B356" t="s">
+        <v>10</v>
+      </c>
+      <c r="C356" t="s">
+        <v>33</v>
+      </c>
+      <c r="D356" t="s">
+        <v>11</v>
+      </c>
+      <c r="E356">
+        <v>52.771999999999998</v>
+      </c>
+      <c r="F356">
+        <v>62.82566498655919</v>
+      </c>
+      <c r="G356">
+        <v>69.256</v>
+      </c>
+      <c r="H356" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>2017</v>
+      </c>
+      <c r="B357" t="s">
+        <v>10</v>
+      </c>
+      <c r="C357" t="s">
+        <v>33</v>
+      </c>
+      <c r="D357" t="s">
+        <v>13</v>
+      </c>
+      <c r="E357">
+        <v>55.037999999999997</v>
+      </c>
+      <c r="F357">
+        <v>60.060555443548196</v>
+      </c>
+      <c r="G357">
+        <v>65.658000000000001</v>
+      </c>
+      <c r="H357" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>2017</v>
+      </c>
+      <c r="B358" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" t="s">
+        <v>33</v>
+      </c>
+      <c r="D358" t="s">
+        <v>14</v>
+      </c>
+      <c r="E358">
+        <v>46.795999999999999</v>
+      </c>
+      <c r="F358">
+        <v>55.530427430555591</v>
+      </c>
+      <c r="G358">
+        <v>63.219000000000001</v>
+      </c>
+      <c r="H358" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>2017</v>
+      </c>
+      <c r="B359" t="s">
+        <v>10</v>
+      </c>
+      <c r="C359" t="s">
+        <v>33</v>
+      </c>
+      <c r="D359" t="s">
+        <v>15</v>
+      </c>
+      <c r="E359">
+        <v>37.701999999999998</v>
+      </c>
+      <c r="F359">
+        <v>48.027785954300938</v>
+      </c>
+      <c r="G359">
+        <v>55.341999999999999</v>
+      </c>
+      <c r="H359" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>2017</v>
+      </c>
+      <c r="B360" t="s">
+        <v>10</v>
+      </c>
+      <c r="C360" t="s">
+        <v>33</v>
+      </c>
+      <c r="D360" t="s">
+        <v>16</v>
+      </c>
+      <c r="E360">
+        <v>37.893000000000001</v>
+      </c>
+      <c r="F360">
+        <v>43.175038226299726</v>
+      </c>
+      <c r="G360">
+        <v>48.314999999999998</v>
+      </c>
+      <c r="H360" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>2017</v>
+      </c>
+      <c r="B361" t="s">
+        <v>10</v>
+      </c>
+      <c r="C361" t="s">
+        <v>33</v>
+      </c>
+      <c r="D361" t="s">
+        <v>17</v>
+      </c>
+      <c r="E361" t="s">
+        <v>25</v>
+      </c>
+      <c r="F361" t="s">
+        <v>25</v>
+      </c>
+      <c r="G361" t="s">
+        <v>25</v>
+      </c>
+      <c r="H361" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>2018</v>
+      </c>
+      <c r="B362" t="s">
+        <v>10</v>
+      </c>
+      <c r="C362" t="s">
+        <v>33</v>
+      </c>
+      <c r="D362" t="s">
+        <v>18</v>
+      </c>
+      <c r="E362" t="s">
+        <v>25</v>
+      </c>
+      <c r="F362" t="s">
+        <v>25</v>
+      </c>
+      <c r="G362" t="s">
+        <v>25</v>
+      </c>
+      <c r="H362" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>2018</v>
+      </c>
+      <c r="B363" t="s">
+        <v>10</v>
+      </c>
+      <c r="C363" t="s">
+        <v>33</v>
+      </c>
+      <c r="D363" t="s">
+        <v>19</v>
+      </c>
+      <c r="E363" t="s">
+        <v>25</v>
+      </c>
+      <c r="F363" t="s">
+        <v>25</v>
+      </c>
+      <c r="G363" t="s">
+        <v>25</v>
+      </c>
+      <c r="H363" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>2018</v>
+      </c>
+      <c r="B364" t="s">
+        <v>10</v>
+      </c>
+      <c r="C364" t="s">
+        <v>33</v>
+      </c>
+      <c r="D364" t="s">
+        <v>20</v>
+      </c>
+      <c r="E364" t="s">
+        <v>25</v>
+      </c>
+      <c r="F364" t="s">
+        <v>25</v>
+      </c>
+      <c r="G364" t="s">
+        <v>25</v>
+      </c>
+      <c r="H364" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>2018</v>
+      </c>
+      <c r="B365" t="s">
+        <v>10</v>
+      </c>
+      <c r="C365" t="s">
+        <v>33</v>
+      </c>
+      <c r="D365" t="s">
+        <v>21</v>
+      </c>
+      <c r="E365" t="s">
+        <v>25</v>
+      </c>
+      <c r="F365" t="s">
+        <v>25</v>
+      </c>
+      <c r="G365" t="s">
+        <v>25</v>
+      </c>
+      <c r="H365" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>2018</v>
+      </c>
+      <c r="B366" t="s">
+        <v>10</v>
+      </c>
+      <c r="C366" t="s">
+        <v>33</v>
+      </c>
+      <c r="D366" t="s">
+        <v>22</v>
+      </c>
+      <c r="E366" t="s">
+        <v>25</v>
+      </c>
+      <c r="F366" t="s">
+        <v>25</v>
+      </c>
+      <c r="G366" t="s">
+        <v>25</v>
+      </c>
+      <c r="H366" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>2018</v>
+      </c>
+      <c r="B367" t="s">
+        <v>10</v>
+      </c>
+      <c r="C367" t="s">
+        <v>33</v>
+      </c>
+      <c r="D367" t="s">
+        <v>26</v>
+      </c>
+      <c r="E367" t="s">
+        <v>25</v>
+      </c>
+      <c r="F367" t="s">
+        <v>25</v>
+      </c>
+      <c r="G367" t="s">
+        <v>25</v>
+      </c>
+      <c r="H367" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>2018</v>
+      </c>
+      <c r="B368" t="s">
+        <v>10</v>
+      </c>
+      <c r="C368" t="s">
+        <v>33</v>
+      </c>
+      <c r="D368" t="s">
+        <v>11</v>
+      </c>
+      <c r="E368" t="s">
+        <v>25</v>
+      </c>
+      <c r="F368" t="s">
+        <v>25</v>
+      </c>
+      <c r="G368" t="s">
+        <v>25</v>
+      </c>
+      <c r="H368" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>2018</v>
+      </c>
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" t="s">
+        <v>33</v>
+      </c>
+      <c r="D369" t="s">
+        <v>13</v>
+      </c>
+      <c r="E369" t="s">
+        <v>25</v>
+      </c>
+      <c r="F369" t="s">
+        <v>25</v>
+      </c>
+      <c r="G369" t="s">
+        <v>25</v>
+      </c>
+      <c r="H369" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>2018</v>
+      </c>
+      <c r="B370" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" t="s">
+        <v>33</v>
+      </c>
+      <c r="D370" t="s">
+        <v>14</v>
+      </c>
+      <c r="E370" t="s">
+        <v>25</v>
+      </c>
+      <c r="F370" t="s">
+        <v>25</v>
+      </c>
+      <c r="G370" t="s">
+        <v>25</v>
+      </c>
+      <c r="H370" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2018</v>
+      </c>
+      <c r="B371" t="s">
+        <v>10</v>
+      </c>
+      <c r="C371" t="s">
+        <v>33</v>
+      </c>
+      <c r="D371" t="s">
+        <v>15</v>
+      </c>
+      <c r="E371" t="s">
+        <v>25</v>
+      </c>
+      <c r="F371" t="s">
+        <v>25</v>
+      </c>
+      <c r="G371" t="s">
+        <v>25</v>
+      </c>
+      <c r="H371" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>2018</v>
+      </c>
+      <c r="B372" t="s">
+        <v>10</v>
+      </c>
+      <c r="C372" t="s">
+        <v>33</v>
+      </c>
+      <c r="D372" t="s">
+        <v>16</v>
+      </c>
+      <c r="E372" t="s">
+        <v>25</v>
+      </c>
+      <c r="F372" t="s">
+        <v>25</v>
+      </c>
+      <c r="G372" t="s">
+        <v>25</v>
+      </c>
+      <c r="H372" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2018</v>
+      </c>
+      <c r="B373" t="s">
+        <v>10</v>
+      </c>
+      <c r="C373" t="s">
+        <v>33</v>
+      </c>
+      <c r="D373" t="s">
+        <v>17</v>
+      </c>
+      <c r="E373" t="s">
+        <v>25</v>
+      </c>
+      <c r="F373" t="s">
+        <v>25</v>
+      </c>
+      <c r="G373" t="s">
+        <v>25</v>
+      </c>
+      <c r="H373" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>2019</v>
+      </c>
+      <c r="B374" t="s">
+        <v>10</v>
+      </c>
+      <c r="C374" t="s">
+        <v>33</v>
+      </c>
+      <c r="D374" t="s">
+        <v>18</v>
+      </c>
+      <c r="E374" t="s">
+        <v>25</v>
+      </c>
+      <c r="F374" t="s">
+        <v>25</v>
+      </c>
+      <c r="G374" t="s">
+        <v>25</v>
+      </c>
+      <c r="H374" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>2019</v>
+      </c>
+      <c r="B375" t="s">
+        <v>10</v>
+      </c>
+      <c r="C375" t="s">
+        <v>33</v>
+      </c>
+      <c r="D375" t="s">
+        <v>19</v>
+      </c>
+      <c r="E375" t="s">
+        <v>25</v>
+      </c>
+      <c r="F375" t="s">
+        <v>25</v>
+      </c>
+      <c r="G375" t="s">
+        <v>25</v>
+      </c>
+      <c r="H375" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>2019</v>
+      </c>
+      <c r="B376" t="s">
+        <v>10</v>
+      </c>
+      <c r="C376" t="s">
+        <v>33</v>
+      </c>
+      <c r="D376" t="s">
+        <v>20</v>
+      </c>
+      <c r="E376" t="s">
+        <v>25</v>
+      </c>
+      <c r="F376" t="s">
+        <v>25</v>
+      </c>
+      <c r="G376" t="s">
+        <v>25</v>
+      </c>
+      <c r="H376" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>2019</v>
+      </c>
+      <c r="B377" t="s">
+        <v>10</v>
+      </c>
+      <c r="C377" t="s">
+        <v>33</v>
+      </c>
+      <c r="D377" t="s">
+        <v>21</v>
+      </c>
+      <c r="E377" t="s">
+        <v>25</v>
+      </c>
+      <c r="F377" t="s">
+        <v>25</v>
+      </c>
+      <c r="G377" t="s">
+        <v>25</v>
+      </c>
+      <c r="H377" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>2019</v>
+      </c>
+      <c r="B378" t="s">
+        <v>10</v>
+      </c>
+      <c r="C378" t="s">
+        <v>33</v>
+      </c>
+      <c r="D378" t="s">
+        <v>22</v>
+      </c>
+      <c r="E378" t="s">
+        <v>25</v>
+      </c>
+      <c r="F378" t="s">
+        <v>25</v>
+      </c>
+      <c r="G378" t="s">
+        <v>25</v>
+      </c>
+      <c r="H378" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>2019</v>
+      </c>
+      <c r="B379" t="s">
+        <v>10</v>
+      </c>
+      <c r="C379" t="s">
+        <v>33</v>
+      </c>
+      <c r="D379" t="s">
+        <v>26</v>
+      </c>
+      <c r="E379" t="s">
+        <v>25</v>
+      </c>
+      <c r="F379" t="s">
+        <v>25</v>
+      </c>
+      <c r="G379" t="s">
+        <v>25</v>
+      </c>
+      <c r="H379" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>2019</v>
+      </c>
+      <c r="B380" t="s">
+        <v>10</v>
+      </c>
+      <c r="C380" t="s">
+        <v>33</v>
+      </c>
+      <c r="D380" t="s">
+        <v>11</v>
+      </c>
+      <c r="E380" t="s">
+        <v>25</v>
+      </c>
+      <c r="F380" t="s">
+        <v>25</v>
+      </c>
+      <c r="G380" t="s">
+        <v>25</v>
+      </c>
+      <c r="H380" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>2019</v>
+      </c>
+      <c r="B381" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381" t="s">
+        <v>33</v>
+      </c>
+      <c r="D381" t="s">
+        <v>13</v>
+      </c>
+      <c r="E381" t="s">
+        <v>25</v>
+      </c>
+      <c r="F381" t="s">
+        <v>25</v>
+      </c>
+      <c r="G381" t="s">
+        <v>25</v>
+      </c>
+      <c r="H381" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>2019</v>
+      </c>
+      <c r="B382" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382" t="s">
+        <v>33</v>
+      </c>
+      <c r="D382" t="s">
+        <v>14</v>
+      </c>
+      <c r="E382" t="s">
+        <v>25</v>
+      </c>
+      <c r="F382" t="s">
+        <v>25</v>
+      </c>
+      <c r="G382" t="s">
+        <v>25</v>
+      </c>
+      <c r="H382" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>2019</v>
+      </c>
+      <c r="B383" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383" t="s">
+        <v>33</v>
+      </c>
+      <c r="D383" t="s">
+        <v>15</v>
+      </c>
+      <c r="E383" t="s">
+        <v>25</v>
+      </c>
+      <c r="F383" t="s">
+        <v>25</v>
+      </c>
+      <c r="G383" t="s">
+        <v>25</v>
+      </c>
+      <c r="H383" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>2019</v>
+      </c>
+      <c r="B384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384" t="s">
+        <v>33</v>
+      </c>
+      <c r="D384" t="s">
+        <v>16</v>
+      </c>
+      <c r="E384" t="s">
+        <v>25</v>
+      </c>
+      <c r="F384" t="s">
+        <v>25</v>
+      </c>
+      <c r="G384" t="s">
+        <v>25</v>
+      </c>
+      <c r="H384" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>2019</v>
+      </c>
+      <c r="B385" t="s">
+        <v>10</v>
+      </c>
+      <c r="C385" t="s">
+        <v>33</v>
+      </c>
+      <c r="D385" t="s">
+        <v>17</v>
+      </c>
+      <c r="E385" t="s">
+        <v>25</v>
+      </c>
+      <c r="F385" t="s">
+        <v>25</v>
+      </c>
+      <c r="G385" t="s">
+        <v>25</v>
+      </c>
+      <c r="H385" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>2020</v>
+      </c>
+      <c r="B386" t="s">
+        <v>10</v>
+      </c>
+      <c r="C386" t="s">
+        <v>33</v>
+      </c>
+      <c r="D386" t="s">
+        <v>18</v>
+      </c>
+      <c r="E386" t="s">
+        <v>25</v>
+      </c>
+      <c r="F386" t="s">
+        <v>25</v>
+      </c>
+      <c r="G386" t="s">
+        <v>25</v>
+      </c>
+      <c r="H386" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>2020</v>
+      </c>
+      <c r="B387" t="s">
+        <v>10</v>
+      </c>
+      <c r="C387" t="s">
+        <v>33</v>
+      </c>
+      <c r="D387" t="s">
+        <v>19</v>
+      </c>
+      <c r="E387" t="s">
+        <v>25</v>
+      </c>
+      <c r="F387" t="s">
+        <v>25</v>
+      </c>
+      <c r="G387" t="s">
+        <v>25</v>
+      </c>
+      <c r="H387" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>2020</v>
+      </c>
+      <c r="B388" t="s">
+        <v>10</v>
+      </c>
+      <c r="C388" t="s">
+        <v>33</v>
+      </c>
+      <c r="D388" t="s">
+        <v>20</v>
+      </c>
+      <c r="E388" t="s">
+        <v>25</v>
+      </c>
+      <c r="F388" t="s">
+        <v>25</v>
+      </c>
+      <c r="G388" t="s">
+        <v>25</v>
+      </c>
+      <c r="H388" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>2020</v>
+      </c>
+      <c r="B389" t="s">
+        <v>10</v>
+      </c>
+      <c r="C389" t="s">
+        <v>33</v>
+      </c>
+      <c r="D389" t="s">
+        <v>21</v>
+      </c>
+      <c r="E389" t="s">
+        <v>25</v>
+      </c>
+      <c r="F389" t="s">
+        <v>25</v>
+      </c>
+      <c r="G389" t="s">
+        <v>25</v>
+      </c>
+      <c r="H389" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>2020</v>
+      </c>
+      <c r="B390" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390" t="s">
+        <v>33</v>
+      </c>
+      <c r="D390" t="s">
+        <v>22</v>
+      </c>
+      <c r="E390" t="s">
+        <v>25</v>
+      </c>
+      <c r="F390" t="s">
+        <v>25</v>
+      </c>
+      <c r="G390" t="s">
+        <v>25</v>
+      </c>
+      <c r="H390" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>2020</v>
+      </c>
+      <c r="B391" t="s">
+        <v>10</v>
+      </c>
+      <c r="C391" t="s">
+        <v>33</v>
+      </c>
+      <c r="D391" t="s">
+        <v>26</v>
+      </c>
+      <c r="E391" t="s">
+        <v>25</v>
+      </c>
+      <c r="F391" t="s">
+        <v>25</v>
+      </c>
+      <c r="G391" t="s">
+        <v>25</v>
+      </c>
+      <c r="H391" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>2020</v>
+      </c>
+      <c r="B392" t="s">
+        <v>10</v>
+      </c>
+      <c r="C392" t="s">
+        <v>33</v>
+      </c>
+      <c r="D392" t="s">
+        <v>11</v>
+      </c>
+      <c r="E392" t="s">
+        <v>25</v>
+      </c>
+      <c r="F392" t="s">
+        <v>25</v>
+      </c>
+      <c r="G392" t="s">
+        <v>25</v>
+      </c>
+      <c r="H392" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>2020</v>
+      </c>
+      <c r="B393" t="s">
+        <v>10</v>
+      </c>
+      <c r="C393" t="s">
+        <v>33</v>
+      </c>
+      <c r="D393" t="s">
+        <v>13</v>
+      </c>
+      <c r="E393" t="s">
+        <v>25</v>
+      </c>
+      <c r="F393" t="s">
+        <v>25</v>
+      </c>
+      <c r="G393" t="s">
+        <v>25</v>
+      </c>
+      <c r="H393" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>2020</v>
+      </c>
+      <c r="B394" t="s">
+        <v>10</v>
+      </c>
+      <c r="C394" t="s">
+        <v>33</v>
+      </c>
+      <c r="D394" t="s">
+        <v>14</v>
+      </c>
+      <c r="E394" t="s">
+        <v>25</v>
+      </c>
+      <c r="F394" t="s">
+        <v>25</v>
+      </c>
+      <c r="G394" t="s">
+        <v>25</v>
+      </c>
+      <c r="H394" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>2020</v>
+      </c>
+      <c r="B395" t="s">
+        <v>10</v>
+      </c>
+      <c r="C395" t="s">
+        <v>33</v>
+      </c>
+      <c r="D395" t="s">
+        <v>15</v>
+      </c>
+      <c r="E395" t="s">
+        <v>25</v>
+      </c>
+      <c r="F395" t="s">
+        <v>25</v>
+      </c>
+      <c r="G395" t="s">
+        <v>25</v>
+      </c>
+      <c r="H395" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>2020</v>
+      </c>
+      <c r="B396" t="s">
+        <v>10</v>
+      </c>
+      <c r="C396" t="s">
+        <v>33</v>
+      </c>
+      <c r="D396" t="s">
+        <v>16</v>
+      </c>
+      <c r="E396" t="s">
+        <v>25</v>
+      </c>
+      <c r="F396" t="s">
+        <v>25</v>
+      </c>
+      <c r="G396" t="s">
+        <v>25</v>
+      </c>
+      <c r="H396" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>2020</v>
+      </c>
+      <c r="B397" t="s">
+        <v>10</v>
+      </c>
+      <c r="C397" t="s">
+        <v>33</v>
+      </c>
+      <c r="D397" t="s">
+        <v>17</v>
+      </c>
+      <c r="E397" t="s">
+        <v>25</v>
+      </c>
+      <c r="F397" t="s">
+        <v>25</v>
+      </c>
+      <c r="G397" t="s">
+        <v>25</v>
+      </c>
+      <c r="H397" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>2015</v>
+      </c>
+      <c r="B398" t="s">
+        <v>10</v>
+      </c>
+      <c r="C398" t="s">
+        <v>36</v>
+      </c>
+      <c r="D398" t="s">
+        <v>11</v>
+      </c>
+      <c r="E398" t="s">
+        <v>25</v>
+      </c>
+      <c r="F398" t="s">
+        <v>25</v>
+      </c>
+      <c r="G398" t="s">
+        <v>25</v>
+      </c>
+      <c r="H398" t="s">
+        <v>12</v>
+      </c>
+      <c r="I398" t="s">
+        <v>43</v>
+      </c>
+      <c r="J398" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>2015</v>
+      </c>
+      <c r="B399" t="s">
+        <v>10</v>
+      </c>
+      <c r="C399" t="s">
+        <v>36</v>
+      </c>
+      <c r="D399" t="s">
+        <v>13</v>
+      </c>
+      <c r="E399" t="s">
+        <v>25</v>
+      </c>
+      <c r="F399" t="s">
+        <v>25</v>
+      </c>
+      <c r="G399" t="s">
+        <v>25</v>
+      </c>
+      <c r="H399" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>2015</v>
+      </c>
+      <c r="B400" t="s">
+        <v>10</v>
+      </c>
+      <c r="C400" t="s">
+        <v>36</v>
+      </c>
+      <c r="D400" t="s">
+        <v>14</v>
+      </c>
+      <c r="E400" t="s">
+        <v>25</v>
+      </c>
+      <c r="F400" t="s">
+        <v>25</v>
+      </c>
+      <c r="G400" t="s">
+        <v>25</v>
+      </c>
+      <c r="H400" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>2015</v>
+      </c>
+      <c r="B401" t="s">
+        <v>10</v>
+      </c>
+      <c r="C401" t="s">
+        <v>36</v>
+      </c>
+      <c r="D401" t="s">
+        <v>15</v>
+      </c>
+      <c r="E401" t="s">
+        <v>25</v>
+      </c>
+      <c r="F401" t="s">
+        <v>25</v>
+      </c>
+      <c r="G401" t="s">
+        <v>25</v>
+      </c>
+      <c r="H401" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>2015</v>
+      </c>
+      <c r="B402" t="s">
+        <v>10</v>
+      </c>
+      <c r="C402" t="s">
+        <v>36</v>
+      </c>
+      <c r="D402" t="s">
+        <v>16</v>
+      </c>
+      <c r="E402" t="s">
+        <v>25</v>
+      </c>
+      <c r="F402" t="s">
+        <v>25</v>
+      </c>
+      <c r="G402" t="s">
+        <v>25</v>
+      </c>
+      <c r="H402" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>2015</v>
+      </c>
+      <c r="B403" t="s">
+        <v>10</v>
+      </c>
+      <c r="C403" t="s">
+        <v>36</v>
+      </c>
+      <c r="D403" t="s">
+        <v>17</v>
+      </c>
+      <c r="E403" t="s">
+        <v>25</v>
+      </c>
+      <c r="F403" t="s">
+        <v>25</v>
+      </c>
+      <c r="G403" t="s">
+        <v>25</v>
+      </c>
+      <c r="H403" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>2016</v>
+      </c>
+      <c r="B404" t="s">
+        <v>10</v>
+      </c>
+      <c r="C404" t="s">
+        <v>36</v>
+      </c>
+      <c r="D404" t="s">
+        <v>18</v>
+      </c>
+      <c r="E404" t="s">
+        <v>25</v>
+      </c>
+      <c r="F404" t="s">
+        <v>25</v>
+      </c>
+      <c r="G404" t="s">
+        <v>25</v>
+      </c>
+      <c r="H404" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>2016</v>
+      </c>
+      <c r="B405" t="s">
+        <v>10</v>
+      </c>
+      <c r="C405" t="s">
+        <v>36</v>
+      </c>
+      <c r="D405" t="s">
+        <v>19</v>
+      </c>
+      <c r="E405" t="s">
+        <v>25</v>
+      </c>
+      <c r="F405" t="s">
+        <v>25</v>
+      </c>
+      <c r="G405" t="s">
+        <v>25</v>
+      </c>
+      <c r="H405" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2016</v>
+      </c>
+      <c r="B406" t="s">
+        <v>10</v>
+      </c>
+      <c r="C406" t="s">
+        <v>36</v>
+      </c>
+      <c r="D406" t="s">
+        <v>20</v>
+      </c>
+      <c r="E406" t="s">
+        <v>25</v>
+      </c>
+      <c r="F406" t="s">
+        <v>25</v>
+      </c>
+      <c r="G406" t="s">
+        <v>25</v>
+      </c>
+      <c r="H406" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>2016</v>
+      </c>
+      <c r="B407" t="s">
+        <v>10</v>
+      </c>
+      <c r="C407" t="s">
+        <v>36</v>
+      </c>
+      <c r="D407" t="s">
+        <v>21</v>
+      </c>
+      <c r="E407" t="s">
+        <v>25</v>
+      </c>
+      <c r="F407" t="s">
+        <v>25</v>
+      </c>
+      <c r="G407" t="s">
+        <v>25</v>
+      </c>
+      <c r="H407" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>2016</v>
+      </c>
+      <c r="B408" t="s">
+        <v>10</v>
+      </c>
+      <c r="C408" t="s">
+        <v>36</v>
+      </c>
+      <c r="D408" t="s">
+        <v>22</v>
+      </c>
+      <c r="E408" t="s">
+        <v>25</v>
+      </c>
+      <c r="F408" t="s">
+        <v>25</v>
+      </c>
+      <c r="G408" t="s">
+        <v>25</v>
+      </c>
+      <c r="H408" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>2016</v>
+      </c>
+      <c r="B409" t="s">
+        <v>10</v>
+      </c>
+      <c r="C409" t="s">
+        <v>36</v>
+      </c>
+      <c r="D409" t="s">
+        <v>26</v>
+      </c>
+      <c r="E409">
+        <v>51.017000000000003</v>
+      </c>
+      <c r="F409">
+        <v>60.987451736111275</v>
+      </c>
+      <c r="G409">
+        <v>68.784999999999997</v>
+      </c>
+      <c r="H409" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>2016</v>
+      </c>
+      <c r="B410" t="s">
+        <v>10</v>
+      </c>
+      <c r="C410" t="s">
+        <v>36</v>
+      </c>
+      <c r="D410" t="s">
+        <v>11</v>
+      </c>
+      <c r="E410">
+        <v>54.125999999999998</v>
+      </c>
+      <c r="F410">
+        <v>62.219437836021534</v>
+      </c>
+      <c r="G410">
+        <v>70.114999999999995</v>
+      </c>
+      <c r="H410" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>2016</v>
+      </c>
+      <c r="B411" t="s">
+        <v>10</v>
+      </c>
+      <c r="C411" t="s">
+        <v>36</v>
+      </c>
+      <c r="D411" t="s">
+        <v>13</v>
+      </c>
+      <c r="E411">
+        <v>51.457999999999998</v>
+      </c>
+      <c r="F411">
+        <v>60.306232526881722</v>
+      </c>
+      <c r="G411">
+        <v>68.784999999999997</v>
+      </c>
+      <c r="H411" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>2016</v>
+      </c>
+      <c r="B412" t="s">
+        <v>10</v>
+      </c>
+      <c r="C412" t="s">
+        <v>36</v>
+      </c>
+      <c r="D412" t="s">
+        <v>14</v>
+      </c>
+      <c r="E412">
+        <v>48.628</v>
+      </c>
+      <c r="F412">
+        <v>56.594909577314127</v>
+      </c>
+      <c r="G412">
+        <v>64.247</v>
+      </c>
+      <c r="H412" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>2016</v>
+      </c>
+      <c r="B413" t="s">
+        <v>10</v>
+      </c>
+      <c r="C413" t="s">
+        <v>36</v>
+      </c>
+      <c r="D413" t="s">
+        <v>15</v>
+      </c>
+      <c r="E413" t="s">
+        <v>25</v>
+      </c>
+      <c r="F413" t="s">
+        <v>25</v>
+      </c>
+      <c r="G413" t="s">
+        <v>25</v>
+      </c>
+      <c r="H413" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>2016</v>
+      </c>
+      <c r="B414" t="s">
+        <v>10</v>
+      </c>
+      <c r="C414" t="s">
+        <v>36</v>
+      </c>
+      <c r="D414" t="s">
+        <v>16</v>
+      </c>
+      <c r="E414" t="s">
+        <v>25</v>
+      </c>
+      <c r="F414" t="s">
+        <v>25</v>
+      </c>
+      <c r="G414" t="s">
+        <v>25</v>
+      </c>
+      <c r="H414" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>2016</v>
+      </c>
+      <c r="B415" t="s">
+        <v>10</v>
+      </c>
+      <c r="C415" t="s">
+        <v>36</v>
+      </c>
+      <c r="D415" t="s">
+        <v>17</v>
+      </c>
+      <c r="E415" t="s">
+        <v>25</v>
+      </c>
+      <c r="F415" t="s">
+        <v>25</v>
+      </c>
+      <c r="G415" t="s">
+        <v>25</v>
+      </c>
+      <c r="H415" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>2017</v>
+      </c>
+      <c r="B416" t="s">
+        <v>10</v>
+      </c>
+      <c r="C416" t="s">
+        <v>36</v>
+      </c>
+      <c r="D416" t="s">
+        <v>18</v>
+      </c>
+      <c r="E416">
+        <v>32.042999999999999</v>
+      </c>
+      <c r="F416">
+        <v>38.794148857526885</v>
+      </c>
+      <c r="G416">
+        <v>45.399000000000001</v>
+      </c>
+      <c r="H416" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>2017</v>
+      </c>
+      <c r="B417" t="s">
+        <v>10</v>
+      </c>
+      <c r="C417" t="s">
+        <v>36</v>
+      </c>
+      <c r="D417" t="s">
+        <v>19</v>
+      </c>
+      <c r="E417">
+        <v>32.042999999999999</v>
+      </c>
+      <c r="F417">
+        <v>42.327510416666698</v>
+      </c>
+      <c r="G417">
+        <v>51.764000000000003</v>
+      </c>
+      <c r="H417" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>2017</v>
+      </c>
+      <c r="B418" t="s">
+        <v>10</v>
+      </c>
+      <c r="C418" t="s">
+        <v>36</v>
+      </c>
+      <c r="D418" t="s">
+        <v>20</v>
+      </c>
+      <c r="E418">
+        <v>37.56</v>
+      </c>
+      <c r="F418">
+        <v>46.850992943548306</v>
+      </c>
+      <c r="G418">
+        <v>58.066000000000003</v>
+      </c>
+      <c r="H418" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>2017</v>
+      </c>
+      <c r="B419" t="s">
+        <v>10</v>
+      </c>
+      <c r="C419" t="s">
+        <v>36</v>
+      </c>
+      <c r="D419" t="s">
+        <v>21</v>
+      </c>
+      <c r="E419">
+        <v>40.298000000000002</v>
+      </c>
+      <c r="F419">
+        <v>50.505410416666663</v>
+      </c>
+      <c r="G419">
+        <v>62.232999999999997</v>
+      </c>
+      <c r="H419" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>2017</v>
+      </c>
+      <c r="B420" t="s">
+        <v>10</v>
+      </c>
+      <c r="C420" t="s">
+        <v>36</v>
+      </c>
+      <c r="D420" t="s">
+        <v>22</v>
+      </c>
+      <c r="E420">
+        <v>44.218000000000004</v>
+      </c>
+      <c r="F420">
+        <v>53.998186491935435</v>
+      </c>
+      <c r="G420">
+        <v>66.984999999999999</v>
+      </c>
+      <c r="H420" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>2017</v>
+      </c>
+      <c r="B421" t="s">
+        <v>10</v>
+      </c>
+      <c r="C421" t="s">
+        <v>36</v>
+      </c>
+      <c r="D421" t="s">
+        <v>26</v>
+      </c>
+      <c r="E421">
+        <v>52.335000000000001</v>
+      </c>
+      <c r="F421">
+        <v>59.42426547842404</v>
+      </c>
+      <c r="G421">
+        <v>67.456000000000003</v>
+      </c>
+      <c r="H421" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>2017</v>
+      </c>
+      <c r="B422" t="s">
+        <v>10</v>
+      </c>
+      <c r="C422" t="s">
+        <v>36</v>
+      </c>
+      <c r="D422" t="s">
+        <v>11</v>
+      </c>
+      <c r="E422">
+        <v>53.298000000000002</v>
+      </c>
+      <c r="F422">
+        <v>62.156570900537432</v>
+      </c>
+      <c r="G422">
+        <v>68.483999999999995</v>
+      </c>
+      <c r="H422" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>2017</v>
+      </c>
+      <c r="B423" t="s">
+        <v>10</v>
+      </c>
+      <c r="C423" t="s">
+        <v>36</v>
+      </c>
+      <c r="D423" t="s">
+        <v>13</v>
+      </c>
+      <c r="E423">
+        <v>53.209000000000003</v>
+      </c>
+      <c r="F423">
+        <v>59.788115927419177</v>
+      </c>
+      <c r="G423">
+        <v>66.728999999999999</v>
+      </c>
+      <c r="H423" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>2017</v>
+      </c>
+      <c r="B424" t="s">
+        <v>10</v>
+      </c>
+      <c r="C424" t="s">
+        <v>36</v>
+      </c>
+      <c r="D424" t="s">
+        <v>14</v>
+      </c>
+      <c r="E424">
+        <v>47.198999999999998</v>
+      </c>
+      <c r="F424">
+        <v>55.897244791666544</v>
+      </c>
+      <c r="G424">
+        <v>65.188000000000002</v>
+      </c>
+      <c r="H424" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>2017</v>
+      </c>
+      <c r="B425" t="s">
+        <v>10</v>
+      </c>
+      <c r="C425" t="s">
+        <v>36</v>
+      </c>
+      <c r="D425" t="s">
+        <v>15</v>
+      </c>
+      <c r="E425">
+        <v>37.512999999999998</v>
+      </c>
+      <c r="F425">
+        <v>48.886253360215022</v>
+      </c>
+      <c r="G425">
+        <v>56.555999999999997</v>
+      </c>
+      <c r="H425" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>2017</v>
+      </c>
+      <c r="B426" t="s">
+        <v>10</v>
+      </c>
+      <c r="C426" t="s">
+        <v>36</v>
+      </c>
+      <c r="D426" t="s">
+        <v>16</v>
+      </c>
+      <c r="E426">
+        <v>39.124000000000002</v>
+      </c>
+      <c r="F426">
+        <v>45.108489749430532</v>
+      </c>
+      <c r="G426">
+        <v>51.677999999999997</v>
+      </c>
+      <c r="H426" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>2017</v>
+      </c>
+      <c r="B427" t="s">
+        <v>10</v>
+      </c>
+      <c r="C427" t="s">
+        <v>36</v>
+      </c>
+      <c r="D427" t="s">
+        <v>17</v>
+      </c>
+      <c r="E427" t="s">
+        <v>25</v>
+      </c>
+      <c r="F427" t="s">
+        <v>25</v>
+      </c>
+      <c r="G427" t="s">
+        <v>25</v>
+      </c>
+      <c r="H427" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>2018</v>
+      </c>
+      <c r="B428" t="s">
+        <v>10</v>
+      </c>
+      <c r="C428" t="s">
+        <v>36</v>
+      </c>
+      <c r="D428" t="s">
+        <v>18</v>
+      </c>
+      <c r="E428" t="s">
+        <v>25</v>
+      </c>
+      <c r="F428" t="s">
+        <v>25</v>
+      </c>
+      <c r="G428" t="s">
+        <v>25</v>
+      </c>
+      <c r="H428" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>2018</v>
+      </c>
+      <c r="B429" t="s">
+        <v>10</v>
+      </c>
+      <c r="C429" t="s">
+        <v>36</v>
+      </c>
+      <c r="D429" t="s">
+        <v>19</v>
+      </c>
+      <c r="E429" t="s">
+        <v>25</v>
+      </c>
+      <c r="F429" t="s">
+        <v>25</v>
+      </c>
+      <c r="G429" t="s">
+        <v>25</v>
+      </c>
+      <c r="H429" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>2018</v>
+      </c>
+      <c r="B430" t="s">
+        <v>10</v>
+      </c>
+      <c r="C430" t="s">
+        <v>36</v>
+      </c>
+      <c r="D430" t="s">
+        <v>20</v>
+      </c>
+      <c r="E430" t="s">
+        <v>25</v>
+      </c>
+      <c r="F430" t="s">
+        <v>25</v>
+      </c>
+      <c r="G430" t="s">
+        <v>25</v>
+      </c>
+      <c r="H430" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>2018</v>
+      </c>
+      <c r="B431" t="s">
+        <v>10</v>
+      </c>
+      <c r="C431" t="s">
+        <v>36</v>
+      </c>
+      <c r="D431" t="s">
+        <v>21</v>
+      </c>
+      <c r="E431" t="s">
+        <v>25</v>
+      </c>
+      <c r="F431" t="s">
+        <v>25</v>
+      </c>
+      <c r="G431" t="s">
+        <v>25</v>
+      </c>
+      <c r="H431" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>2018</v>
+      </c>
+      <c r="B432" t="s">
+        <v>10</v>
+      </c>
+      <c r="C432" t="s">
+        <v>36</v>
+      </c>
+      <c r="D432" t="s">
+        <v>22</v>
+      </c>
+      <c r="E432" t="s">
+        <v>25</v>
+      </c>
+      <c r="F432" t="s">
+        <v>25</v>
+      </c>
+      <c r="G432" t="s">
+        <v>25</v>
+      </c>
+      <c r="H432" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>2018</v>
+      </c>
+      <c r="B433" t="s">
+        <v>10</v>
+      </c>
+      <c r="C433" t="s">
+        <v>36</v>
+      </c>
+      <c r="D433" t="s">
+        <v>26</v>
+      </c>
+      <c r="E433" t="s">
+        <v>25</v>
+      </c>
+      <c r="F433" t="s">
+        <v>25</v>
+      </c>
+      <c r="G433" t="s">
+        <v>25</v>
+      </c>
+      <c r="H433" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>2018</v>
+      </c>
+      <c r="B434" t="s">
+        <v>10</v>
+      </c>
+      <c r="C434" t="s">
+        <v>36</v>
+      </c>
+      <c r="D434" t="s">
+        <v>11</v>
+      </c>
+      <c r="E434" t="s">
+        <v>25</v>
+      </c>
+      <c r="F434" t="s">
+        <v>25</v>
+      </c>
+      <c r="G434" t="s">
+        <v>25</v>
+      </c>
+      <c r="H434" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>2018</v>
+      </c>
+      <c r="B435" t="s">
+        <v>10</v>
+      </c>
+      <c r="C435" t="s">
+        <v>36</v>
+      </c>
+      <c r="D435" t="s">
+        <v>13</v>
+      </c>
+      <c r="E435" t="s">
+        <v>25</v>
+      </c>
+      <c r="F435" t="s">
+        <v>25</v>
+      </c>
+      <c r="G435" t="s">
+        <v>25</v>
+      </c>
+      <c r="H435" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>2018</v>
+      </c>
+      <c r="B436" t="s">
+        <v>10</v>
+      </c>
+      <c r="C436" t="s">
+        <v>36</v>
+      </c>
+      <c r="D436" t="s">
+        <v>14</v>
+      </c>
+      <c r="E436" t="s">
+        <v>25</v>
+      </c>
+      <c r="F436" t="s">
+        <v>25</v>
+      </c>
+      <c r="G436" t="s">
+        <v>25</v>
+      </c>
+      <c r="H436" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>2018</v>
+      </c>
+      <c r="B437" t="s">
+        <v>10</v>
+      </c>
+      <c r="C437" t="s">
+        <v>36</v>
+      </c>
+      <c r="D437" t="s">
+        <v>15</v>
+      </c>
+      <c r="E437" t="s">
+        <v>25</v>
+      </c>
+      <c r="F437" t="s">
+        <v>25</v>
+      </c>
+      <c r="G437" t="s">
+        <v>25</v>
+      </c>
+      <c r="H437" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>2018</v>
+      </c>
+      <c r="B438" t="s">
+        <v>10</v>
+      </c>
+      <c r="C438" t="s">
+        <v>36</v>
+      </c>
+      <c r="D438" t="s">
+        <v>16</v>
+      </c>
+      <c r="E438" t="s">
+        <v>25</v>
+      </c>
+      <c r="F438" t="s">
+        <v>25</v>
+      </c>
+      <c r="G438" t="s">
+        <v>25</v>
+      </c>
+      <c r="H438" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>2018</v>
+      </c>
+      <c r="B439" t="s">
+        <v>10</v>
+      </c>
+      <c r="C439" t="s">
+        <v>36</v>
+      </c>
+      <c r="D439" t="s">
+        <v>17</v>
+      </c>
+      <c r="E439" t="s">
+        <v>25</v>
+      </c>
+      <c r="F439" t="s">
+        <v>25</v>
+      </c>
+      <c r="G439" t="s">
+        <v>25</v>
+      </c>
+      <c r="H439" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>2019</v>
+      </c>
+      <c r="B440" t="s">
+        <v>10</v>
+      </c>
+      <c r="C440" t="s">
+        <v>36</v>
+      </c>
+      <c r="D440" t="s">
+        <v>18</v>
+      </c>
+      <c r="E440" t="s">
+        <v>25</v>
+      </c>
+      <c r="F440" t="s">
+        <v>25</v>
+      </c>
+      <c r="G440" t="s">
+        <v>25</v>
+      </c>
+      <c r="H440" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>2019</v>
+      </c>
+      <c r="B441" t="s">
+        <v>10</v>
+      </c>
+      <c r="C441" t="s">
+        <v>36</v>
+      </c>
+      <c r="D441" t="s">
+        <v>19</v>
+      </c>
+      <c r="E441" t="s">
+        <v>25</v>
+      </c>
+      <c r="F441" t="s">
+        <v>25</v>
+      </c>
+      <c r="G441" t="s">
+        <v>25</v>
+      </c>
+      <c r="H441" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>2019</v>
+      </c>
+      <c r="B442" t="s">
+        <v>10</v>
+      </c>
+      <c r="C442" t="s">
+        <v>36</v>
+      </c>
+      <c r="D442" t="s">
+        <v>20</v>
+      </c>
+      <c r="E442" t="s">
+        <v>25</v>
+      </c>
+      <c r="F442" t="s">
+        <v>25</v>
+      </c>
+      <c r="G442" t="s">
+        <v>25</v>
+      </c>
+      <c r="H442" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>2019</v>
+      </c>
+      <c r="B443" t="s">
+        <v>10</v>
+      </c>
+      <c r="C443" t="s">
+        <v>36</v>
+      </c>
+      <c r="D443" t="s">
+        <v>21</v>
+      </c>
+      <c r="E443" t="s">
+        <v>25</v>
+      </c>
+      <c r="F443" t="s">
+        <v>25</v>
+      </c>
+      <c r="G443" t="s">
+        <v>25</v>
+      </c>
+      <c r="H443" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>2019</v>
+      </c>
+      <c r="B444" t="s">
+        <v>10</v>
+      </c>
+      <c r="C444" t="s">
+        <v>36</v>
+      </c>
+      <c r="D444" t="s">
+        <v>22</v>
+      </c>
+      <c r="E444" t="s">
+        <v>25</v>
+      </c>
+      <c r="F444" t="s">
+        <v>25</v>
+      </c>
+      <c r="G444" t="s">
+        <v>25</v>
+      </c>
+      <c r="H444" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>2019</v>
+      </c>
+      <c r="B445" t="s">
+        <v>10</v>
+      </c>
+      <c r="C445" t="s">
+        <v>36</v>
+      </c>
+      <c r="D445" t="s">
+        <v>26</v>
+      </c>
+      <c r="E445" t="s">
+        <v>25</v>
+      </c>
+      <c r="F445" t="s">
+        <v>25</v>
+      </c>
+      <c r="G445" t="s">
+        <v>25</v>
+      </c>
+      <c r="H445" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>2019</v>
+      </c>
+      <c r="B446" t="s">
+        <v>10</v>
+      </c>
+      <c r="C446" t="s">
+        <v>36</v>
+      </c>
+      <c r="D446" t="s">
+        <v>11</v>
+      </c>
+      <c r="E446" t="s">
+        <v>25</v>
+      </c>
+      <c r="F446" t="s">
+        <v>25</v>
+      </c>
+      <c r="G446" t="s">
+        <v>25</v>
+      </c>
+      <c r="H446" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>2019</v>
+      </c>
+      <c r="B447" t="s">
+        <v>10</v>
+      </c>
+      <c r="C447" t="s">
+        <v>36</v>
+      </c>
+      <c r="D447" t="s">
+        <v>13</v>
+      </c>
+      <c r="E447" t="s">
+        <v>25</v>
+      </c>
+      <c r="F447" t="s">
+        <v>25</v>
+      </c>
+      <c r="G447" t="s">
+        <v>25</v>
+      </c>
+      <c r="H447" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>2019</v>
+      </c>
+      <c r="B448" t="s">
+        <v>10</v>
+      </c>
+      <c r="C448" t="s">
+        <v>36</v>
+      </c>
+      <c r="D448" t="s">
+        <v>14</v>
+      </c>
+      <c r="E448" t="s">
+        <v>25</v>
+      </c>
+      <c r="F448" t="s">
+        <v>25</v>
+      </c>
+      <c r="G448" t="s">
+        <v>25</v>
+      </c>
+      <c r="H448" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>2019</v>
+      </c>
+      <c r="B449" t="s">
+        <v>10</v>
+      </c>
+      <c r="C449" t="s">
+        <v>36</v>
+      </c>
+      <c r="D449" t="s">
+        <v>15</v>
+      </c>
+      <c r="E449" t="s">
+        <v>25</v>
+      </c>
+      <c r="F449" t="s">
+        <v>25</v>
+      </c>
+      <c r="G449" t="s">
+        <v>25</v>
+      </c>
+      <c r="H449" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>2019</v>
+      </c>
+      <c r="B450" t="s">
+        <v>10</v>
+      </c>
+      <c r="C450" t="s">
+        <v>36</v>
+      </c>
+      <c r="D450" t="s">
+        <v>16</v>
+      </c>
+      <c r="E450" t="s">
+        <v>25</v>
+      </c>
+      <c r="F450" t="s">
+        <v>25</v>
+      </c>
+      <c r="G450" t="s">
+        <v>25</v>
+      </c>
+      <c r="H450" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>2019</v>
+      </c>
+      <c r="B451" t="s">
+        <v>10</v>
+      </c>
+      <c r="C451" t="s">
+        <v>36</v>
+      </c>
+      <c r="D451" t="s">
+        <v>17</v>
+      </c>
+      <c r="E451" t="s">
+        <v>25</v>
+      </c>
+      <c r="F451" t="s">
+        <v>25</v>
+      </c>
+      <c r="G451" t="s">
+        <v>25</v>
+      </c>
+      <c r="H451" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>2020</v>
+      </c>
+      <c r="B452" t="s">
+        <v>10</v>
+      </c>
+      <c r="C452" t="s">
+        <v>36</v>
+      </c>
+      <c r="D452" t="s">
+        <v>18</v>
+      </c>
+      <c r="E452" t="s">
+        <v>25</v>
+      </c>
+      <c r="F452" t="s">
+        <v>25</v>
+      </c>
+      <c r="G452" t="s">
+        <v>25</v>
+      </c>
+      <c r="H452" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>2020</v>
+      </c>
+      <c r="B453" t="s">
+        <v>10</v>
+      </c>
+      <c r="C453" t="s">
+        <v>36</v>
+      </c>
+      <c r="D453" t="s">
+        <v>19</v>
+      </c>
+      <c r="E453" t="s">
+        <v>25</v>
+      </c>
+      <c r="F453" t="s">
+        <v>25</v>
+      </c>
+      <c r="G453" t="s">
+        <v>25</v>
+      </c>
+      <c r="H453" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>2020</v>
+      </c>
+      <c r="B454" t="s">
+        <v>10</v>
+      </c>
+      <c r="C454" t="s">
+        <v>36</v>
+      </c>
+      <c r="D454" t="s">
+        <v>20</v>
+      </c>
+      <c r="E454" t="s">
+        <v>25</v>
+      </c>
+      <c r="F454" t="s">
+        <v>25</v>
+      </c>
+      <c r="G454" t="s">
+        <v>25</v>
+      </c>
+      <c r="H454" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>2020</v>
+      </c>
+      <c r="B455" t="s">
+        <v>10</v>
+      </c>
+      <c r="C455" t="s">
+        <v>36</v>
+      </c>
+      <c r="D455" t="s">
+        <v>21</v>
+      </c>
+      <c r="E455" t="s">
+        <v>25</v>
+      </c>
+      <c r="F455" t="s">
+        <v>25</v>
+      </c>
+      <c r="G455" t="s">
+        <v>25</v>
+      </c>
+      <c r="H455" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>2020</v>
+      </c>
+      <c r="B456" t="s">
+        <v>10</v>
+      </c>
+      <c r="C456" t="s">
+        <v>36</v>
+      </c>
+      <c r="D456" t="s">
+        <v>22</v>
+      </c>
+      <c r="E456" t="s">
+        <v>25</v>
+      </c>
+      <c r="F456" t="s">
+        <v>25</v>
+      </c>
+      <c r="G456" t="s">
+        <v>25</v>
+      </c>
+      <c r="H456" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>2020</v>
+      </c>
+      <c r="B457" t="s">
+        <v>10</v>
+      </c>
+      <c r="C457" t="s">
+        <v>36</v>
+      </c>
+      <c r="D457" t="s">
+        <v>26</v>
+      </c>
+      <c r="E457" t="s">
+        <v>25</v>
+      </c>
+      <c r="F457" t="s">
+        <v>25</v>
+      </c>
+      <c r="G457" t="s">
+        <v>25</v>
+      </c>
+      <c r="H457" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>2020</v>
+      </c>
+      <c r="B458" t="s">
+        <v>10</v>
+      </c>
+      <c r="C458" t="s">
+        <v>36</v>
+      </c>
+      <c r="D458" t="s">
+        <v>11</v>
+      </c>
+      <c r="E458" t="s">
+        <v>25</v>
+      </c>
+      <c r="F458" t="s">
+        <v>25</v>
+      </c>
+      <c r="G458" t="s">
+        <v>25</v>
+      </c>
+      <c r="H458" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>2020</v>
+      </c>
+      <c r="B459" t="s">
+        <v>10</v>
+      </c>
+      <c r="C459" t="s">
+        <v>36</v>
+      </c>
+      <c r="D459" t="s">
+        <v>13</v>
+      </c>
+      <c r="E459" t="s">
+        <v>25</v>
+      </c>
+      <c r="F459" t="s">
+        <v>25</v>
+      </c>
+      <c r="G459" t="s">
+        <v>25</v>
+      </c>
+      <c r="H459" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>2020</v>
+      </c>
+      <c r="B460" t="s">
+        <v>10</v>
+      </c>
+      <c r="C460" t="s">
+        <v>36</v>
+      </c>
+      <c r="D460" t="s">
+        <v>14</v>
+      </c>
+      <c r="E460" t="s">
+        <v>25</v>
+      </c>
+      <c r="F460" t="s">
+        <v>25</v>
+      </c>
+      <c r="G460" t="s">
+        <v>25</v>
+      </c>
+      <c r="H460" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>2020</v>
+      </c>
+      <c r="B461" t="s">
+        <v>10</v>
+      </c>
+      <c r="C461" t="s">
+        <v>36</v>
+      </c>
+      <c r="D461" t="s">
+        <v>15</v>
+      </c>
+      <c r="E461" t="s">
+        <v>25</v>
+      </c>
+      <c r="F461" t="s">
+        <v>25</v>
+      </c>
+      <c r="G461" t="s">
+        <v>25</v>
+      </c>
+      <c r="H461" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>2020</v>
+      </c>
+      <c r="B462" t="s">
+        <v>10</v>
+      </c>
+      <c r="C462" t="s">
+        <v>36</v>
+      </c>
+      <c r="D462" t="s">
+        <v>16</v>
+      </c>
+      <c r="E462" t="s">
+        <v>25</v>
+      </c>
+      <c r="F462" t="s">
+        <v>25</v>
+      </c>
+      <c r="G462" t="s">
+        <v>25</v>
+      </c>
+      <c r="H462" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>2020</v>
+      </c>
+      <c r="B463" t="s">
+        <v>10</v>
+      </c>
+      <c r="C463" t="s">
+        <v>36</v>
+      </c>
+      <c r="D463" t="s">
+        <v>17</v>
+      </c>
+      <c r="E463" t="s">
+        <v>25</v>
+      </c>
+      <c r="F463" t="s">
+        <v>25</v>
+      </c>
+      <c r="G463" t="s">
+        <v>25</v>
+      </c>
+      <c r="H463" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>2015</v>
+      </c>
+      <c r="B464" t="s">
+        <v>10</v>
+      </c>
+      <c r="C464" t="s">
+        <v>38</v>
+      </c>
+      <c r="D464" t="s">
+        <v>11</v>
+      </c>
+      <c r="E464">
+        <v>48</v>
+      </c>
+      <c r="F464">
+        <v>62.8</v>
+      </c>
+      <c r="G464">
+        <v>71.7</v>
+      </c>
+      <c r="H464" t="s">
+        <v>12</v>
+      </c>
+      <c r="I464" t="s">
+        <v>41</v>
+      </c>
+      <c r="J464" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>2015</v>
+      </c>
+      <c r="B465" t="s">
+        <v>10</v>
+      </c>
+      <c r="C465" t="s">
+        <v>38</v>
+      </c>
+      <c r="D465" t="s">
+        <v>13</v>
+      </c>
+      <c r="E465">
+        <v>53.6</v>
+      </c>
+      <c r="F465">
+        <v>62.6</v>
+      </c>
+      <c r="G465">
+        <v>71.7</v>
+      </c>
+      <c r="H465" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>2015</v>
+      </c>
+      <c r="B466" t="s">
+        <v>10</v>
+      </c>
+      <c r="C466" t="s">
+        <v>38</v>
+      </c>
+      <c r="D466" t="s">
+        <v>14</v>
+      </c>
+      <c r="E466">
+        <v>53.8</v>
+      </c>
+      <c r="F466">
+        <v>59.5</v>
+      </c>
+      <c r="G466">
+        <v>68</v>
+      </c>
+      <c r="H466" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>2015</v>
+      </c>
+      <c r="B467" t="s">
+        <v>10</v>
+      </c>
+      <c r="C467" t="s">
+        <v>38</v>
+      </c>
+      <c r="D467" t="s">
+        <v>15</v>
+      </c>
+      <c r="E467">
+        <v>48.2</v>
+      </c>
+      <c r="F467">
+        <v>54.3</v>
+      </c>
+      <c r="G467">
+        <v>61.6</v>
+      </c>
+      <c r="H467" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>2015</v>
+      </c>
+      <c r="B468" t="s">
+        <v>10</v>
+      </c>
+      <c r="C468" t="s">
+        <v>38</v>
+      </c>
+      <c r="D468" t="s">
+        <v>16</v>
+      </c>
+      <c r="E468">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F468">
+        <v>46</v>
+      </c>
+      <c r="G468">
+        <v>55</v>
+      </c>
+      <c r="H468" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>2015</v>
+      </c>
+      <c r="B469" t="s">
+        <v>10</v>
+      </c>
+      <c r="C469" t="s">
+        <v>38</v>
+      </c>
+      <c r="D469" t="s">
+        <v>17</v>
+      </c>
+      <c r="E469">
+        <v>36.168999999999997</v>
+      </c>
+      <c r="F469">
+        <v>43.130855174731337</v>
+      </c>
+      <c r="G469">
+        <v>49.204000000000001</v>
+      </c>
+      <c r="H469" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>2016</v>
+      </c>
+      <c r="B470" t="s">
+        <v>10</v>
+      </c>
+      <c r="C470" t="s">
+        <v>38</v>
+      </c>
+      <c r="D470" t="s">
+        <v>18</v>
+      </c>
+      <c r="E470">
+        <v>37.942</v>
+      </c>
+      <c r="F470">
+        <v>42.146172715053801</v>
+      </c>
+      <c r="G470">
+        <v>46.973999999999997</v>
+      </c>
+      <c r="H470" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>2016</v>
+      </c>
+      <c r="B471" t="s">
+        <v>10</v>
+      </c>
+      <c r="C471" t="s">
+        <v>38</v>
+      </c>
+      <c r="D471" t="s">
+        <v>19</v>
+      </c>
+      <c r="E471">
+        <v>39.313000000000002</v>
+      </c>
+      <c r="F471">
+        <v>43.785975933907714</v>
+      </c>
+      <c r="G471">
+        <v>50.134999999999998</v>
+      </c>
+      <c r="H471" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>2016</v>
+      </c>
+      <c r="B472" t="s">
+        <v>10</v>
+      </c>
+      <c r="C472" t="s">
+        <v>38</v>
+      </c>
+      <c r="D472" t="s">
+        <v>20</v>
+      </c>
+      <c r="E472">
+        <v>39.783000000000001</v>
+      </c>
+      <c r="F472">
+        <v>46.510923051075245</v>
+      </c>
+      <c r="G472">
+        <v>54.387</v>
+      </c>
+      <c r="H472" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>2016</v>
+      </c>
+      <c r="B473" t="s">
+        <v>10</v>
+      </c>
+      <c r="C473" t="s">
+        <v>38</v>
+      </c>
+      <c r="D473" t="s">
+        <v>21</v>
+      </c>
+      <c r="E473">
+        <v>42.616</v>
+      </c>
+      <c r="F473">
+        <v>50.101822916666791</v>
+      </c>
+      <c r="G473">
+        <v>60.433</v>
+      </c>
+      <c r="H473" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>2016</v>
+      </c>
+      <c r="B474" t="s">
+        <v>10</v>
+      </c>
+      <c r="C474" t="s">
+        <v>38</v>
+      </c>
+      <c r="D474" t="s">
+        <v>22</v>
+      </c>
+      <c r="E474">
+        <v>44.945999999999998</v>
+      </c>
+      <c r="F474">
+        <v>53.785343788187376</v>
+      </c>
+      <c r="G474">
+        <v>62.747999999999998</v>
+      </c>
+      <c r="H474" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>2016</v>
+      </c>
+      <c r="B475" t="s">
+        <v>10</v>
+      </c>
+      <c r="C475" t="s">
+        <v>38</v>
+      </c>
+      <c r="D475" t="s">
+        <v>26</v>
+      </c>
+      <c r="E475" t="s">
+        <v>25</v>
+      </c>
+      <c r="F475" t="s">
+        <v>25</v>
+      </c>
+      <c r="G475" t="s">
+        <v>25</v>
+      </c>
+      <c r="H475" t="s">
+        <v>12</v>
+      </c>
+      <c r="K475" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>2016</v>
+      </c>
+      <c r="B476" t="s">
+        <v>10</v>
+      </c>
+      <c r="C476" t="s">
+        <v>38</v>
+      </c>
+      <c r="D476" t="s">
+        <v>11</v>
+      </c>
+      <c r="E476" t="s">
+        <v>25</v>
+      </c>
+      <c r="F476" t="s">
+        <v>25</v>
+      </c>
+      <c r="G476" t="s">
+        <v>25</v>
+      </c>
+      <c r="H476" t="s">
+        <v>12</v>
+      </c>
+      <c r="K476" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>2016</v>
+      </c>
+      <c r="B477" t="s">
+        <v>10</v>
+      </c>
+      <c r="C477" t="s">
+        <v>38</v>
+      </c>
+      <c r="D477" t="s">
+        <v>13</v>
+      </c>
+      <c r="E477" t="s">
+        <v>25</v>
+      </c>
+      <c r="F477" t="s">
+        <v>25</v>
+      </c>
+      <c r="G477" t="s">
+        <v>25</v>
+      </c>
+      <c r="H477" t="s">
+        <v>12</v>
+      </c>
+      <c r="K477" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>2016</v>
+      </c>
+      <c r="B478" t="s">
+        <v>10</v>
+      </c>
+      <c r="C478" t="s">
+        <v>38</v>
+      </c>
+      <c r="D478" t="s">
+        <v>14</v>
+      </c>
+      <c r="E478" t="s">
+        <v>25</v>
+      </c>
+      <c r="F478" t="s">
+        <v>25</v>
+      </c>
+      <c r="G478" t="s">
+        <v>25</v>
+      </c>
+      <c r="H478" t="s">
+        <v>12</v>
+      </c>
+      <c r="K478" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>2016</v>
+      </c>
+      <c r="B479" t="s">
+        <v>10</v>
+      </c>
+      <c r="C479" t="s">
+        <v>38</v>
+      </c>
+      <c r="D479" t="s">
+        <v>15</v>
+      </c>
+      <c r="E479">
+        <v>44.719000000000001</v>
+      </c>
+      <c r="F479">
+        <v>51.163653225806314</v>
+      </c>
+      <c r="G479">
+        <v>59.915999999999997</v>
+      </c>
+      <c r="H479" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>2016</v>
+      </c>
+      <c r="B480" t="s">
+        <v>10</v>
+      </c>
+      <c r="C480" t="s">
+        <v>38</v>
+      </c>
+      <c r="D480" t="s">
+        <v>16</v>
+      </c>
+      <c r="E480">
+        <v>36.265999999999998</v>
+      </c>
+      <c r="F480">
+        <v>45.406206597222159</v>
+      </c>
+      <c r="G480">
+        <v>52.947000000000003</v>
+      </c>
+      <c r="H480" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>2016</v>
+      </c>
+      <c r="B481" t="s">
+        <v>10</v>
+      </c>
+      <c r="C481" t="s">
+        <v>38</v>
+      </c>
+      <c r="D481" t="s">
+        <v>17</v>
+      </c>
+      <c r="E481">
+        <v>31.992999999999999</v>
+      </c>
+      <c r="F481">
+        <v>37.548707325269092</v>
+      </c>
+      <c r="G481">
+        <v>43.396000000000001</v>
+      </c>
+      <c r="H481" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>2017</v>
+      </c>
+      <c r="B482" t="s">
+        <v>10</v>
+      </c>
+      <c r="C482" t="s">
+        <v>38</v>
+      </c>
+      <c r="D482" t="s">
+        <v>18</v>
+      </c>
+      <c r="E482">
+        <v>35.540999999999997</v>
+      </c>
+      <c r="F482">
+        <v>40.734180779570025</v>
+      </c>
+      <c r="G482">
+        <v>44.719000000000001</v>
+      </c>
+      <c r="H482" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>2017</v>
+      </c>
+      <c r="B483" t="s">
+        <v>10</v>
+      </c>
+      <c r="C483" t="s">
+        <v>38</v>
+      </c>
+      <c r="D483" t="s">
+        <v>19</v>
+      </c>
+      <c r="E483">
+        <v>37.988999999999997</v>
+      </c>
+      <c r="F483">
+        <v>43.723437127976261</v>
+      </c>
+      <c r="G483">
+        <v>49.116</v>
+      </c>
+      <c r="H483" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>2017</v>
+      </c>
+      <c r="B484" t="s">
+        <v>10</v>
+      </c>
+      <c r="C484" t="s">
+        <v>38</v>
+      </c>
+      <c r="D484" t="s">
+        <v>20</v>
+      </c>
+      <c r="E484">
+        <v>40.671999999999997</v>
+      </c>
+      <c r="F484">
+        <v>47.384449596774218</v>
+      </c>
+      <c r="G484">
+        <v>53.472000000000001</v>
+      </c>
+      <c r="H484" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>2017</v>
+      </c>
+      <c r="B485" t="s">
+        <v>10</v>
+      </c>
+      <c r="C485" t="s">
+        <v>38</v>
+      </c>
+      <c r="D485" t="s">
+        <v>21</v>
+      </c>
+      <c r="E485">
+        <v>45.399000000000001</v>
+      </c>
+      <c r="F485">
+        <v>50.76554513888901</v>
+      </c>
+      <c r="G485">
+        <v>57.463000000000001</v>
+      </c>
+      <c r="H485" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>2017</v>
+      </c>
+      <c r="B486" t="s">
+        <v>10</v>
+      </c>
+      <c r="C486" t="s">
+        <v>38</v>
+      </c>
+      <c r="D486" t="s">
+        <v>22</v>
+      </c>
+      <c r="E486">
+        <v>47.466999999999999</v>
+      </c>
+      <c r="F486">
+        <v>53.69750571236559</v>
+      </c>
+      <c r="G486">
+        <v>60.173999999999999</v>
+      </c>
+      <c r="H486" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>2017</v>
+      </c>
+      <c r="B487" t="s">
+        <v>10</v>
+      </c>
+      <c r="C487" t="s">
+        <v>38</v>
+      </c>
+      <c r="D487" t="s">
+        <v>26</v>
+      </c>
+      <c r="E487">
+        <v>53.209000000000003</v>
+      </c>
+      <c r="F487">
+        <v>59.489247191011358</v>
+      </c>
+      <c r="G487">
+        <v>67.713999999999999</v>
+      </c>
+      <c r="H487" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>2017</v>
+      </c>
+      <c r="B488" t="s">
+        <v>10</v>
+      </c>
+      <c r="C488" t="s">
+        <v>38</v>
+      </c>
+      <c r="D488" t="s">
+        <v>11</v>
+      </c>
+      <c r="E488">
+        <v>55.386000000000003</v>
+      </c>
+      <c r="F488">
+        <v>62.429678427419326</v>
+      </c>
+      <c r="G488">
+        <v>66.813999999999993</v>
+      </c>
+      <c r="H488" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>2017</v>
+      </c>
+      <c r="B489" t="s">
+        <v>10</v>
+      </c>
+      <c r="C489" t="s">
+        <v>38</v>
+      </c>
+      <c r="D489" t="s">
+        <v>13</v>
+      </c>
+      <c r="E489">
+        <v>57.030999999999999</v>
+      </c>
+      <c r="F489">
+        <v>60.201236559139687</v>
+      </c>
+      <c r="G489">
+        <v>64.287999999999997</v>
+      </c>
+      <c r="H489" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>2017</v>
+      </c>
+      <c r="B490" t="s">
+        <v>10</v>
+      </c>
+      <c r="C490" t="s">
+        <v>38</v>
+      </c>
+      <c r="D490" t="s">
+        <v>14</v>
+      </c>
+      <c r="E490">
+        <v>51.237000000000002</v>
+      </c>
+      <c r="F490">
+        <v>56.821755555555349</v>
+      </c>
+      <c r="G490">
+        <v>62.104999999999997</v>
+      </c>
+      <c r="H490" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>2017</v>
+      </c>
+      <c r="B491" t="s">
+        <v>10</v>
+      </c>
+      <c r="C491" t="s">
+        <v>38</v>
+      </c>
+      <c r="D491" t="s">
+        <v>15</v>
+      </c>
+      <c r="E491">
+        <v>44.036999999999999</v>
+      </c>
+      <c r="F491">
+        <v>50.919209005376324</v>
+      </c>
+      <c r="G491">
+        <v>56.079000000000001</v>
+      </c>
+      <c r="H491" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>2017</v>
+      </c>
+      <c r="B492" t="s">
+        <v>10</v>
+      </c>
+      <c r="C492" t="s">
+        <v>38</v>
+      </c>
+      <c r="D492" t="s">
+        <v>16</v>
+      </c>
+      <c r="E492">
+        <v>43.579000000000001</v>
+      </c>
+      <c r="F492">
+        <v>46.9062822273074</v>
+      </c>
+      <c r="G492">
+        <v>49.692</v>
+      </c>
+      <c r="H492" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>2017</v>
+      </c>
+      <c r="B493" t="s">
+        <v>10</v>
+      </c>
+      <c r="C493" t="s">
+        <v>38</v>
+      </c>
+      <c r="D493" t="s">
+        <v>17</v>
+      </c>
+      <c r="E493" t="s">
+        <v>25</v>
+      </c>
+      <c r="F493" t="s">
+        <v>25</v>
+      </c>
+      <c r="G493" t="s">
+        <v>25</v>
+      </c>
+      <c r="H493" t="s">
+        <v>12</v>
+      </c>
+      <c r="K493" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>2018</v>
+      </c>
+      <c r="B494" t="s">
+        <v>10</v>
+      </c>
+      <c r="C494" t="s">
+        <v>38</v>
+      </c>
+      <c r="D494" t="s">
+        <v>18</v>
+      </c>
+      <c r="E494" t="s">
+        <v>25</v>
+      </c>
+      <c r="F494" t="s">
+        <v>25</v>
+      </c>
+      <c r="G494" t="s">
+        <v>25</v>
+      </c>
+      <c r="H494" t="s">
+        <v>12</v>
+      </c>
+      <c r="K494" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>2018</v>
+      </c>
+      <c r="B495" t="s">
+        <v>10</v>
+      </c>
+      <c r="C495" t="s">
+        <v>38</v>
+      </c>
+      <c r="D495" t="s">
+        <v>19</v>
+      </c>
+      <c r="E495" t="s">
+        <v>25</v>
+      </c>
+      <c r="F495" t="s">
+        <v>25</v>
+      </c>
+      <c r="G495" t="s">
+        <v>25</v>
+      </c>
+      <c r="H495" t="s">
+        <v>12</v>
+      </c>
+      <c r="K495" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>2018</v>
+      </c>
+      <c r="B496" t="s">
+        <v>10</v>
+      </c>
+      <c r="C496" t="s">
+        <v>38</v>
+      </c>
+      <c r="D496" t="s">
+        <v>20</v>
+      </c>
+      <c r="E496" t="s">
+        <v>25</v>
+      </c>
+      <c r="F496" t="s">
+        <v>25</v>
+      </c>
+      <c r="G496" t="s">
+        <v>25</v>
+      </c>
+      <c r="H496" t="s">
+        <v>12</v>
+      </c>
+      <c r="K496" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>2018</v>
+      </c>
+      <c r="B497" t="s">
+        <v>10</v>
+      </c>
+      <c r="C497" t="s">
+        <v>38</v>
+      </c>
+      <c r="D497" t="s">
+        <v>21</v>
+      </c>
+      <c r="E497" t="s">
+        <v>25</v>
+      </c>
+      <c r="F497" t="s">
+        <v>25</v>
+      </c>
+      <c r="G497" t="s">
+        <v>25</v>
+      </c>
+      <c r="H497" t="s">
+        <v>12</v>
+      </c>
+      <c r="K497" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>2018</v>
+      </c>
+      <c r="B498" t="s">
+        <v>10</v>
+      </c>
+      <c r="C498" t="s">
+        <v>38</v>
+      </c>
+      <c r="D498" t="s">
+        <v>22</v>
+      </c>
+      <c r="E498" t="s">
+        <v>25</v>
+      </c>
+      <c r="F498" t="s">
+        <v>25</v>
+      </c>
+      <c r="G498" t="s">
+        <v>25</v>
+      </c>
+      <c r="H498" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>2018</v>
+      </c>
+      <c r="B499" t="s">
+        <v>10</v>
+      </c>
+      <c r="C499" t="s">
+        <v>38</v>
+      </c>
+      <c r="D499" t="s">
+        <v>26</v>
+      </c>
+      <c r="E499" t="s">
+        <v>25</v>
+      </c>
+      <c r="F499" t="s">
+        <v>25</v>
+      </c>
+      <c r="G499" t="s">
+        <v>25</v>
+      </c>
+      <c r="H499" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>2018</v>
+      </c>
+      <c r="B500" t="s">
+        <v>10</v>
+      </c>
+      <c r="C500" t="s">
+        <v>38</v>
+      </c>
+      <c r="D500" t="s">
+        <v>11</v>
+      </c>
+      <c r="E500" t="s">
+        <v>25</v>
+      </c>
+      <c r="F500" t="s">
+        <v>25</v>
+      </c>
+      <c r="G500" t="s">
+        <v>25</v>
+      </c>
+      <c r="H500" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>2018</v>
+      </c>
+      <c r="B501" t="s">
+        <v>10</v>
+      </c>
+      <c r="C501" t="s">
+        <v>38</v>
+      </c>
+      <c r="D501" t="s">
+        <v>13</v>
+      </c>
+      <c r="E501" t="s">
+        <v>25</v>
+      </c>
+      <c r="F501" t="s">
+        <v>25</v>
+      </c>
+      <c r="G501" t="s">
+        <v>25</v>
+      </c>
+      <c r="H501" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>2018</v>
+      </c>
+      <c r="B502" t="s">
+        <v>10</v>
+      </c>
+      <c r="C502" t="s">
+        <v>38</v>
+      </c>
+      <c r="D502" t="s">
+        <v>14</v>
+      </c>
+      <c r="E502" t="s">
+        <v>25</v>
+      </c>
+      <c r="F502" t="s">
+        <v>25</v>
+      </c>
+      <c r="G502" t="s">
+        <v>25</v>
+      </c>
+      <c r="H502" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>2018</v>
+      </c>
+      <c r="B503" t="s">
+        <v>10</v>
+      </c>
+      <c r="C503" t="s">
+        <v>38</v>
+      </c>
+      <c r="D503" t="s">
+        <v>15</v>
+      </c>
+      <c r="E503" t="s">
+        <v>25</v>
+      </c>
+      <c r="F503" t="s">
+        <v>25</v>
+      </c>
+      <c r="G503" t="s">
+        <v>25</v>
+      </c>
+      <c r="H503" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>2018</v>
+      </c>
+      <c r="B504" t="s">
+        <v>10</v>
+      </c>
+      <c r="C504" t="s">
+        <v>38</v>
+      </c>
+      <c r="D504" t="s">
+        <v>16</v>
+      </c>
+      <c r="E504" t="s">
+        <v>25</v>
+      </c>
+      <c r="F504" t="s">
+        <v>25</v>
+      </c>
+      <c r="G504" t="s">
+        <v>25</v>
+      </c>
+      <c r="H504" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>2018</v>
+      </c>
+      <c r="B505" t="s">
+        <v>10</v>
+      </c>
+      <c r="C505" t="s">
+        <v>38</v>
+      </c>
+      <c r="D505" t="s">
+        <v>17</v>
+      </c>
+      <c r="E505" t="s">
+        <v>25</v>
+      </c>
+      <c r="F505" t="s">
+        <v>25</v>
+      </c>
+      <c r="G505" t="s">
+        <v>25</v>
+      </c>
+      <c r="H505" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>2019</v>
+      </c>
+      <c r="B506" t="s">
+        <v>10</v>
+      </c>
+      <c r="C506" t="s">
+        <v>38</v>
+      </c>
+      <c r="D506" t="s">
+        <v>18</v>
+      </c>
+      <c r="E506" t="s">
+        <v>25</v>
+      </c>
+      <c r="F506" t="s">
+        <v>25</v>
+      </c>
+      <c r="G506" t="s">
+        <v>25</v>
+      </c>
+      <c r="H506" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>2019</v>
+      </c>
+      <c r="B507" t="s">
+        <v>10</v>
+      </c>
+      <c r="C507" t="s">
+        <v>38</v>
+      </c>
+      <c r="D507" t="s">
+        <v>19</v>
+      </c>
+      <c r="E507" t="s">
+        <v>25</v>
+      </c>
+      <c r="F507" t="s">
+        <v>25</v>
+      </c>
+      <c r="G507" t="s">
+        <v>25</v>
+      </c>
+      <c r="H507" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>2019</v>
+      </c>
+      <c r="B508" t="s">
+        <v>10</v>
+      </c>
+      <c r="C508" t="s">
+        <v>38</v>
+      </c>
+      <c r="D508" t="s">
+        <v>20</v>
+      </c>
+      <c r="E508" t="s">
+        <v>25</v>
+      </c>
+      <c r="F508" t="s">
+        <v>25</v>
+      </c>
+      <c r="G508" t="s">
+        <v>25</v>
+      </c>
+      <c r="H508" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>2019</v>
+      </c>
+      <c r="B509" t="s">
+        <v>10</v>
+      </c>
+      <c r="C509" t="s">
+        <v>38</v>
+      </c>
+      <c r="D509" t="s">
+        <v>21</v>
+      </c>
+      <c r="E509" t="s">
+        <v>25</v>
+      </c>
+      <c r="F509" t="s">
+        <v>25</v>
+      </c>
+      <c r="G509" t="s">
+        <v>25</v>
+      </c>
+      <c r="H509" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>2019</v>
+      </c>
+      <c r="B510" t="s">
+        <v>10</v>
+      </c>
+      <c r="C510" t="s">
+        <v>38</v>
+      </c>
+      <c r="D510" t="s">
+        <v>22</v>
+      </c>
+      <c r="E510" t="s">
+        <v>25</v>
+      </c>
+      <c r="F510" t="s">
+        <v>25</v>
+      </c>
+      <c r="G510" t="s">
+        <v>25</v>
+      </c>
+      <c r="H510" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>2019</v>
+      </c>
+      <c r="B511" t="s">
+        <v>10</v>
+      </c>
+      <c r="C511" t="s">
+        <v>38</v>
+      </c>
+      <c r="D511" t="s">
+        <v>26</v>
+      </c>
+      <c r="E511" t="s">
+        <v>25</v>
+      </c>
+      <c r="F511" t="s">
+        <v>25</v>
+      </c>
+      <c r="G511" t="s">
+        <v>25</v>
+      </c>
+      <c r="H511" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>2019</v>
+      </c>
+      <c r="B512" t="s">
+        <v>10</v>
+      </c>
+      <c r="C512" t="s">
+        <v>38</v>
+      </c>
+      <c r="D512" t="s">
+        <v>11</v>
+      </c>
+      <c r="E512" t="s">
+        <v>25</v>
+      </c>
+      <c r="F512" t="s">
+        <v>25</v>
+      </c>
+      <c r="G512" t="s">
+        <v>25</v>
+      </c>
+      <c r="H512" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>2019</v>
+      </c>
+      <c r="B513" t="s">
+        <v>10</v>
+      </c>
+      <c r="C513" t="s">
+        <v>38</v>
+      </c>
+      <c r="D513" t="s">
+        <v>13</v>
+      </c>
+      <c r="E513" t="s">
+        <v>25</v>
+      </c>
+      <c r="F513" t="s">
+        <v>25</v>
+      </c>
+      <c r="G513" t="s">
+        <v>25</v>
+      </c>
+      <c r="H513" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>2019</v>
+      </c>
+      <c r="B514" t="s">
+        <v>10</v>
+      </c>
+      <c r="C514" t="s">
+        <v>38</v>
+      </c>
+      <c r="D514" t="s">
+        <v>14</v>
+      </c>
+      <c r="E514" t="s">
+        <v>25</v>
+      </c>
+      <c r="F514" t="s">
+        <v>25</v>
+      </c>
+      <c r="G514" t="s">
+        <v>25</v>
+      </c>
+      <c r="H514" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>2019</v>
+      </c>
+      <c r="B515" t="s">
+        <v>10</v>
+      </c>
+      <c r="C515" t="s">
+        <v>38</v>
+      </c>
+      <c r="D515" t="s">
+        <v>15</v>
+      </c>
+      <c r="E515" t="s">
+        <v>25</v>
+      </c>
+      <c r="F515" t="s">
+        <v>25</v>
+      </c>
+      <c r="G515" t="s">
+        <v>25</v>
+      </c>
+      <c r="H515" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>2019</v>
+      </c>
+      <c r="B516" t="s">
+        <v>10</v>
+      </c>
+      <c r="C516" t="s">
+        <v>38</v>
+      </c>
+      <c r="D516" t="s">
+        <v>16</v>
+      </c>
+      <c r="E516" t="s">
+        <v>25</v>
+      </c>
+      <c r="F516" t="s">
+        <v>25</v>
+      </c>
+      <c r="G516" t="s">
+        <v>25</v>
+      </c>
+      <c r="H516" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>2019</v>
+      </c>
+      <c r="B517" t="s">
+        <v>10</v>
+      </c>
+      <c r="C517" t="s">
+        <v>38</v>
+      </c>
+      <c r="D517" t="s">
+        <v>17</v>
+      </c>
+      <c r="E517" t="s">
+        <v>25</v>
+      </c>
+      <c r="F517" t="s">
+        <v>25</v>
+      </c>
+      <c r="G517" t="s">
+        <v>25</v>
+      </c>
+      <c r="H517" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>2020</v>
+      </c>
+      <c r="B518" t="s">
+        <v>10</v>
+      </c>
+      <c r="C518" t="s">
+        <v>38</v>
+      </c>
+      <c r="D518" t="s">
+        <v>18</v>
+      </c>
+      <c r="E518" t="s">
+        <v>25</v>
+      </c>
+      <c r="F518" t="s">
+        <v>25</v>
+      </c>
+      <c r="G518" t="s">
+        <v>25</v>
+      </c>
+      <c r="H518" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>2020</v>
+      </c>
+      <c r="B519" t="s">
+        <v>10</v>
+      </c>
+      <c r="C519" t="s">
+        <v>38</v>
+      </c>
+      <c r="D519" t="s">
+        <v>19</v>
+      </c>
+      <c r="E519" t="s">
+        <v>25</v>
+      </c>
+      <c r="F519" t="s">
+        <v>25</v>
+      </c>
+      <c r="G519" t="s">
+        <v>25</v>
+      </c>
+      <c r="H519" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>2020</v>
+      </c>
+      <c r="B520" t="s">
+        <v>10</v>
+      </c>
+      <c r="C520" t="s">
+        <v>38</v>
+      </c>
+      <c r="D520" t="s">
+        <v>20</v>
+      </c>
+      <c r="E520" t="s">
+        <v>25</v>
+      </c>
+      <c r="F520" t="s">
+        <v>25</v>
+      </c>
+      <c r="G520" t="s">
+        <v>25</v>
+      </c>
+      <c r="H520" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>2020</v>
+      </c>
+      <c r="B521" t="s">
+        <v>10</v>
+      </c>
+      <c r="C521" t="s">
+        <v>38</v>
+      </c>
+      <c r="D521" t="s">
+        <v>21</v>
+      </c>
+      <c r="E521" t="s">
+        <v>25</v>
+      </c>
+      <c r="F521" t="s">
+        <v>25</v>
+      </c>
+      <c r="G521" t="s">
+        <v>25</v>
+      </c>
+      <c r="H521" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>2020</v>
+      </c>
+      <c r="B522" t="s">
+        <v>10</v>
+      </c>
+      <c r="C522" t="s">
+        <v>38</v>
+      </c>
+      <c r="D522" t="s">
+        <v>22</v>
+      </c>
+      <c r="E522" t="s">
+        <v>25</v>
+      </c>
+      <c r="F522" t="s">
+        <v>25</v>
+      </c>
+      <c r="G522" t="s">
+        <v>25</v>
+      </c>
+      <c r="H522" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>2020</v>
+      </c>
+      <c r="B523" t="s">
+        <v>10</v>
+      </c>
+      <c r="C523" t="s">
+        <v>38</v>
+      </c>
+      <c r="D523" t="s">
+        <v>26</v>
+      </c>
+      <c r="E523" t="s">
+        <v>25</v>
+      </c>
+      <c r="F523" t="s">
+        <v>25</v>
+      </c>
+      <c r="G523" t="s">
+        <v>25</v>
+      </c>
+      <c r="H523" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>2020</v>
+      </c>
+      <c r="B524" t="s">
+        <v>10</v>
+      </c>
+      <c r="C524" t="s">
+        <v>38</v>
+      </c>
+      <c r="D524" t="s">
+        <v>11</v>
+      </c>
+      <c r="E524" t="s">
+        <v>25</v>
+      </c>
+      <c r="F524" t="s">
+        <v>25</v>
+      </c>
+      <c r="G524" t="s">
+        <v>25</v>
+      </c>
+      <c r="H524" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>2020</v>
+      </c>
+      <c r="B525" t="s">
+        <v>10</v>
+      </c>
+      <c r="C525" t="s">
+        <v>38</v>
+      </c>
+      <c r="D525" t="s">
+        <v>13</v>
+      </c>
+      <c r="E525" t="s">
+        <v>25</v>
+      </c>
+      <c r="F525" t="s">
+        <v>25</v>
+      </c>
+      <c r="G525" t="s">
+        <v>25</v>
+      </c>
+      <c r="H525" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>2020</v>
+      </c>
+      <c r="B526" t="s">
+        <v>10</v>
+      </c>
+      <c r="C526" t="s">
+        <v>38</v>
+      </c>
+      <c r="D526" t="s">
+        <v>14</v>
+      </c>
+      <c r="E526" t="s">
+        <v>25</v>
+      </c>
+      <c r="F526" t="s">
+        <v>25</v>
+      </c>
+      <c r="G526" t="s">
+        <v>25</v>
+      </c>
+      <c r="H526" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>2020</v>
+      </c>
+      <c r="B527" t="s">
+        <v>10</v>
+      </c>
+      <c r="C527" t="s">
+        <v>38</v>
+      </c>
+      <c r="D527" t="s">
+        <v>15</v>
+      </c>
+      <c r="E527" t="s">
+        <v>25</v>
+      </c>
+      <c r="F527" t="s">
+        <v>25</v>
+      </c>
+      <c r="G527" t="s">
+        <v>25</v>
+      </c>
+      <c r="H527" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>2020</v>
+      </c>
+      <c r="B528" t="s">
+        <v>10</v>
+      </c>
+      <c r="C528" t="s">
+        <v>38</v>
+      </c>
+      <c r="D528" t="s">
+        <v>16</v>
+      </c>
+      <c r="E528" t="s">
+        <v>25</v>
+      </c>
+      <c r="F528" t="s">
+        <v>25</v>
+      </c>
+      <c r="G528" t="s">
+        <v>25</v>
+      </c>
+      <c r="H528" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>2020</v>
+      </c>
+      <c r="B529" t="s">
+        <v>10</v>
+      </c>
+      <c r="C529" t="s">
+        <v>38</v>
+      </c>
+      <c r="D529" t="s">
+        <v>17</v>
+      </c>
+      <c r="E529" t="s">
+        <v>25</v>
+      </c>
+      <c r="F529" t="s">
+        <v>25</v>
+      </c>
+      <c r="G529" t="s">
+        <v>25</v>
+      </c>
+      <c r="H529" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>2015</v>
+      </c>
+      <c r="B530" t="s">
+        <v>10</v>
+      </c>
+      <c r="C530" t="s">
+        <v>39</v>
+      </c>
+      <c r="D530" t="s">
+        <v>11</v>
+      </c>
+      <c r="E530" t="s">
+        <v>25</v>
+      </c>
+      <c r="F530" t="s">
+        <v>25</v>
+      </c>
+      <c r="G530" t="s">
+        <v>25</v>
+      </c>
+      <c r="H530" t="s">
+        <v>12</v>
+      </c>
+      <c r="I530" t="s">
+        <v>45</v>
+      </c>
+      <c r="J530" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>2015</v>
+      </c>
+      <c r="B531" t="s">
+        <v>10</v>
+      </c>
+      <c r="C531" t="s">
+        <v>39</v>
+      </c>
+      <c r="D531" t="s">
+        <v>13</v>
+      </c>
+      <c r="E531" t="s">
+        <v>25</v>
+      </c>
+      <c r="F531" t="s">
+        <v>25</v>
+      </c>
+      <c r="G531" t="s">
+        <v>25</v>
+      </c>
+      <c r="H531" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>2015</v>
+      </c>
+      <c r="B532" t="s">
+        <v>10</v>
+      </c>
+      <c r="C532" t="s">
+        <v>39</v>
+      </c>
+      <c r="D532" t="s">
+        <v>14</v>
+      </c>
+      <c r="E532" t="s">
+        <v>25</v>
+      </c>
+      <c r="F532" t="s">
+        <v>25</v>
+      </c>
+      <c r="G532" t="s">
+        <v>25</v>
+      </c>
+      <c r="H532" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>2015</v>
+      </c>
+      <c r="B533" t="s">
+        <v>10</v>
+      </c>
+      <c r="C533" t="s">
+        <v>39</v>
+      </c>
+      <c r="D533" t="s">
+        <v>15</v>
+      </c>
+      <c r="E533" t="s">
+        <v>25</v>
+      </c>
+      <c r="F533" t="s">
+        <v>25</v>
+      </c>
+      <c r="G533" t="s">
+        <v>25</v>
+      </c>
+      <c r="H533" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>2015</v>
+      </c>
+      <c r="B534" t="s">
+        <v>10</v>
+      </c>
+      <c r="C534" t="s">
+        <v>39</v>
+      </c>
+      <c r="D534" t="s">
+        <v>16</v>
+      </c>
+      <c r="E534" t="s">
+        <v>25</v>
+      </c>
+      <c r="F534" t="s">
+        <v>25</v>
+      </c>
+      <c r="G534" t="s">
+        <v>25</v>
+      </c>
+      <c r="H534" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>2015</v>
+      </c>
+      <c r="B535" t="s">
+        <v>10</v>
+      </c>
+      <c r="C535" t="s">
+        <v>39</v>
+      </c>
+      <c r="D535" t="s">
+        <v>17</v>
+      </c>
+      <c r="E535" t="s">
+        <v>25</v>
+      </c>
+      <c r="F535" t="s">
+        <v>25</v>
+      </c>
+      <c r="G535" t="s">
+        <v>25</v>
+      </c>
+      <c r="H535" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>2016</v>
+      </c>
+      <c r="B536" t="s">
+        <v>10</v>
+      </c>
+      <c r="C536" t="s">
+        <v>39</v>
+      </c>
+      <c r="D536" t="s">
+        <v>18</v>
+      </c>
+      <c r="E536" t="s">
+        <v>25</v>
+      </c>
+      <c r="F536" t="s">
+        <v>25</v>
+      </c>
+      <c r="G536" t="s">
+        <v>25</v>
+      </c>
+      <c r="H536" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>2016</v>
+      </c>
+      <c r="B537" t="s">
+        <v>10</v>
+      </c>
+      <c r="C537" t="s">
+        <v>39</v>
+      </c>
+      <c r="D537" t="s">
+        <v>19</v>
+      </c>
+      <c r="E537" t="s">
+        <v>25</v>
+      </c>
+      <c r="F537" t="s">
+        <v>25</v>
+      </c>
+      <c r="G537" t="s">
+        <v>25</v>
+      </c>
+      <c r="H537" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>2016</v>
+      </c>
+      <c r="B538" t="s">
+        <v>10</v>
+      </c>
+      <c r="C538" t="s">
+        <v>39</v>
+      </c>
+      <c r="D538" t="s">
+        <v>20</v>
+      </c>
+      <c r="E538" t="s">
+        <v>25</v>
+      </c>
+      <c r="F538" t="s">
+        <v>25</v>
+      </c>
+      <c r="G538" t="s">
+        <v>25</v>
+      </c>
+      <c r="H538" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>2016</v>
+      </c>
+      <c r="B539" t="s">
+        <v>10</v>
+      </c>
+      <c r="C539" t="s">
+        <v>39</v>
+      </c>
+      <c r="D539" t="s">
+        <v>21</v>
+      </c>
+      <c r="E539" t="s">
+        <v>25</v>
+      </c>
+      <c r="F539" t="s">
+        <v>25</v>
+      </c>
+      <c r="G539" t="s">
+        <v>25</v>
+      </c>
+      <c r="H539" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>2016</v>
+      </c>
+      <c r="B540" t="s">
+        <v>10</v>
+      </c>
+      <c r="C540" t="s">
+        <v>39</v>
+      </c>
+      <c r="D540" t="s">
+        <v>22</v>
+      </c>
+      <c r="E540" t="s">
+        <v>25</v>
+      </c>
+      <c r="F540" t="s">
+        <v>25</v>
+      </c>
+      <c r="G540" t="s">
+        <v>25</v>
+      </c>
+      <c r="H540" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>2016</v>
+      </c>
+      <c r="B541" t="s">
+        <v>10</v>
+      </c>
+      <c r="C541" t="s">
+        <v>39</v>
+      </c>
+      <c r="D541" t="s">
+        <v>26</v>
+      </c>
+      <c r="E541">
+        <v>54.908999999999999</v>
+      </c>
+      <c r="F541">
+        <v>63.554916666666479</v>
+      </c>
+      <c r="G541">
+        <v>68.956000000000003</v>
+      </c>
+      <c r="H541" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>2016</v>
+      </c>
+      <c r="B542" t="s">
+        <v>10</v>
+      </c>
+      <c r="C542" t="s">
+        <v>39</v>
+      </c>
+      <c r="D542" t="s">
+        <v>11</v>
+      </c>
+      <c r="E542">
+        <v>56.988</v>
+      </c>
+      <c r="F542">
+        <v>64.170309139785005</v>
+      </c>
+      <c r="G542">
+        <v>70.072000000000003</v>
+      </c>
+      <c r="H542" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>2016</v>
+      </c>
+      <c r="B543" t="s">
+        <v>10</v>
+      </c>
+      <c r="C543" t="s">
+        <v>39</v>
+      </c>
+      <c r="D543" t="s">
+        <v>13</v>
+      </c>
+      <c r="E543">
+        <v>55.386000000000003</v>
+      </c>
+      <c r="F543">
+        <v>62.518836613442261</v>
+      </c>
+      <c r="G543">
+        <v>68.998999999999995</v>
+      </c>
+      <c r="H543" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>2016</v>
+      </c>
+      <c r="B544" t="s">
+        <v>10</v>
+      </c>
+      <c r="C544" t="s">
+        <v>39</v>
+      </c>
+      <c r="D544" t="s">
+        <v>14</v>
+      </c>
+      <c r="E544" t="s">
+        <v>25</v>
+      </c>
+      <c r="F544" t="s">
+        <v>25</v>
+      </c>
+      <c r="G544" t="s">
+        <v>25</v>
+      </c>
+      <c r="H544" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>2016</v>
+      </c>
+      <c r="B545" t="s">
+        <v>10</v>
+      </c>
+      <c r="C545" t="s">
+        <v>39</v>
+      </c>
+      <c r="D545" t="s">
+        <v>15</v>
+      </c>
+      <c r="E545">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="F545">
+        <v>51.706134072580639</v>
+      </c>
+      <c r="G545">
+        <v>60.473999999999997</v>
+      </c>
+      <c r="H545" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>2016</v>
+      </c>
+      <c r="B546" t="s">
+        <v>10</v>
+      </c>
+      <c r="C546" t="s">
+        <v>39</v>
+      </c>
+      <c r="D546" t="s">
+        <v>16</v>
+      </c>
+      <c r="E546">
+        <v>37.56</v>
+      </c>
+      <c r="F546">
+        <v>45.540439236111048</v>
+      </c>
+      <c r="G546">
+        <v>52.947000000000003</v>
+      </c>
+      <c r="H546" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>2016</v>
+      </c>
+      <c r="B547" t="s">
+        <v>10</v>
+      </c>
+      <c r="C547" t="s">
+        <v>39</v>
+      </c>
+      <c r="D547" t="s">
+        <v>17</v>
+      </c>
+      <c r="E547">
+        <v>34.615000000000002</v>
+      </c>
+      <c r="F547">
+        <v>38.762289314516181</v>
+      </c>
+      <c r="G547">
+        <v>43.716000000000001</v>
+      </c>
+      <c r="H547" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>2017</v>
+      </c>
+      <c r="B548" t="s">
+        <v>10</v>
+      </c>
+      <c r="C548" t="s">
+        <v>39</v>
+      </c>
+      <c r="D548" t="s">
+        <v>18</v>
+      </c>
+      <c r="E548">
+        <v>35.637999999999998</v>
+      </c>
+      <c r="F548">
+        <v>40.536104166666703</v>
+      </c>
+      <c r="G548">
+        <v>44.856000000000002</v>
+      </c>
+      <c r="H548" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>2017</v>
+      </c>
+      <c r="B549" t="s">
+        <v>10</v>
+      </c>
+      <c r="C549" t="s">
+        <v>39</v>
+      </c>
+      <c r="D549" t="s">
+        <v>19</v>
+      </c>
+      <c r="E549">
+        <v>37.701999999999998</v>
+      </c>
+      <c r="F549">
+        <v>43.811132440476158</v>
+      </c>
+      <c r="G549">
+        <v>51.237000000000002</v>
+      </c>
+      <c r="H549" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>2017</v>
+      </c>
+      <c r="B550" t="s">
+        <v>10</v>
+      </c>
+      <c r="C550" t="s">
+        <v>39</v>
+      </c>
+      <c r="D550" t="s">
+        <v>20</v>
+      </c>
+      <c r="E550">
+        <v>38.984000000000002</v>
+      </c>
+      <c r="F550">
+        <v>48.369677755376252</v>
+      </c>
+      <c r="G550">
+        <v>56.901000000000003</v>
+      </c>
+      <c r="H550" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>2017</v>
+      </c>
+      <c r="B551" t="s">
+        <v>10</v>
+      </c>
+      <c r="C551" t="s">
+        <v>39</v>
+      </c>
+      <c r="D551" t="s">
+        <v>21</v>
+      </c>
+      <c r="E551">
+        <v>43.670999999999999</v>
+      </c>
+      <c r="F551">
+        <v>52.058817708333358</v>
+      </c>
+      <c r="G551">
+        <v>61.247999999999998</v>
+      </c>
+      <c r="H551" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>2017</v>
+      </c>
+      <c r="B552" t="s">
+        <v>10</v>
+      </c>
+      <c r="C552" t="s">
+        <v>39</v>
+      </c>
+      <c r="D552" t="s">
+        <v>22</v>
+      </c>
+      <c r="E552">
+        <v>46.165999999999997</v>
+      </c>
+      <c r="F552">
+        <v>55.837831989247341</v>
+      </c>
+      <c r="G552">
+        <v>67.284999999999997</v>
+      </c>
+      <c r="H552" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>2017</v>
+      </c>
+      <c r="B553" t="s">
+        <v>10</v>
+      </c>
+      <c r="C553" t="s">
+        <v>39</v>
+      </c>
+      <c r="D553" t="s">
+        <v>26</v>
+      </c>
+      <c r="E553">
+        <v>53.121000000000002</v>
+      </c>
+      <c r="F553">
+        <v>61.90996334586454</v>
+      </c>
+      <c r="G553">
+        <v>72.869</v>
+      </c>
+      <c r="H553" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>2017</v>
+      </c>
+      <c r="B554" t="s">
+        <v>10</v>
+      </c>
+      <c r="C554" t="s">
+        <v>39</v>
+      </c>
+      <c r="D554" t="s">
+        <v>11</v>
+      </c>
+      <c r="E554">
+        <v>51.37</v>
+      </c>
+      <c r="F554">
+        <v>65.425348454301158</v>
+      </c>
+      <c r="G554">
+        <v>75.551000000000002</v>
+      </c>
+      <c r="H554" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>2017</v>
+      </c>
+      <c r="B555" t="s">
+        <v>10</v>
+      </c>
+      <c r="C555" t="s">
+        <v>39</v>
+      </c>
+      <c r="D555" t="s">
+        <v>13</v>
+      </c>
+      <c r="E555">
+        <v>58.712000000000003</v>
+      </c>
+      <c r="F555">
+        <v>63.178679435483744</v>
+      </c>
+      <c r="G555">
+        <v>68.185000000000002</v>
+      </c>
+      <c r="H555" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>2017</v>
+      </c>
+      <c r="B556" t="s">
+        <v>10</v>
+      </c>
+      <c r="C556" t="s">
+        <v>39</v>
+      </c>
+      <c r="D556" t="s">
+        <v>14</v>
+      </c>
+      <c r="E556">
+        <v>51.325000000000003</v>
+      </c>
+      <c r="F556">
+        <v>58.000521180555616</v>
+      </c>
+      <c r="G556">
+        <v>64.802999999999997</v>
+      </c>
+      <c r="H556" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>2017</v>
+      </c>
+      <c r="B557" t="s">
+        <v>10</v>
+      </c>
+      <c r="C557" t="s">
+        <v>39</v>
+      </c>
+      <c r="D557" t="s">
+        <v>15</v>
+      </c>
+      <c r="E557">
+        <v>40.344999999999999</v>
+      </c>
+      <c r="F557">
+        <v>50.050244623655864</v>
+      </c>
+      <c r="G557">
+        <v>57.636000000000003</v>
+      </c>
+      <c r="H557" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>2017</v>
+      </c>
+      <c r="B558" t="s">
+        <v>10</v>
+      </c>
+      <c r="C558" t="s">
+        <v>39</v>
+      </c>
+      <c r="D558" t="s">
+        <v>16</v>
+      </c>
+      <c r="E558">
+        <v>41.042999999999999</v>
+      </c>
+      <c r="F558">
+        <v>45.746798185941081</v>
+      </c>
+      <c r="G558">
+        <v>49.87</v>
+      </c>
+      <c r="H558" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>2017</v>
+      </c>
+      <c r="B559" t="s">
+        <v>10</v>
+      </c>
+      <c r="C559" t="s">
+        <v>39</v>
+      </c>
+      <c r="D559" t="s">
+        <v>17</v>
+      </c>
+      <c r="E559" t="s">
+        <v>25</v>
+      </c>
+      <c r="F559" t="s">
+        <v>25</v>
+      </c>
+      <c r="G559" t="s">
+        <v>25</v>
+      </c>
+      <c r="H559" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>2018</v>
+      </c>
+      <c r="B560" t="s">
+        <v>10</v>
+      </c>
+      <c r="C560" t="s">
+        <v>39</v>
+      </c>
+      <c r="D560" t="s">
+        <v>18</v>
+      </c>
+      <c r="E560" t="s">
+        <v>25</v>
+      </c>
+      <c r="F560" t="s">
+        <v>25</v>
+      </c>
+      <c r="G560" t="s">
+        <v>25</v>
+      </c>
+      <c r="H560" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>2018</v>
+      </c>
+      <c r="B561" t="s">
+        <v>10</v>
+      </c>
+      <c r="C561" t="s">
+        <v>39</v>
+      </c>
+      <c r="D561" t="s">
+        <v>19</v>
+      </c>
+      <c r="E561" t="s">
+        <v>25</v>
+      </c>
+      <c r="F561" t="s">
+        <v>25</v>
+      </c>
+      <c r="G561" t="s">
+        <v>25</v>
+      </c>
+      <c r="H561" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>2018</v>
+      </c>
+      <c r="B562" t="s">
+        <v>10</v>
+      </c>
+      <c r="C562" t="s">
+        <v>39</v>
+      </c>
+      <c r="D562" t="s">
+        <v>20</v>
+      </c>
+      <c r="E562" t="s">
+        <v>25</v>
+      </c>
+      <c r="F562" t="s">
+        <v>25</v>
+      </c>
+      <c r="G562" t="s">
+        <v>25</v>
+      </c>
+      <c r="H562" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>2018</v>
+      </c>
+      <c r="B563" t="s">
+        <v>10</v>
+      </c>
+      <c r="C563" t="s">
+        <v>39</v>
+      </c>
+      <c r="D563" t="s">
+        <v>21</v>
+      </c>
+      <c r="E563" t="s">
+        <v>25</v>
+      </c>
+      <c r="F563" t="s">
+        <v>25</v>
+      </c>
+      <c r="G563" t="s">
+        <v>25</v>
+      </c>
+      <c r="H563" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>2018</v>
+      </c>
+      <c r="B564" t="s">
+        <v>10</v>
+      </c>
+      <c r="C564" t="s">
+        <v>39</v>
+      </c>
+      <c r="D564" t="s">
+        <v>22</v>
+      </c>
+      <c r="E564" t="s">
+        <v>25</v>
+      </c>
+      <c r="F564" t="s">
+        <v>25</v>
+      </c>
+      <c r="G564" t="s">
+        <v>25</v>
+      </c>
+      <c r="H564" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>2018</v>
+      </c>
+      <c r="B565" t="s">
+        <v>10</v>
+      </c>
+      <c r="C565" t="s">
+        <v>39</v>
+      </c>
+      <c r="D565" t="s">
+        <v>26</v>
+      </c>
+      <c r="E565" t="s">
+        <v>25</v>
+      </c>
+      <c r="F565" t="s">
+        <v>25</v>
+      </c>
+      <c r="G565" t="s">
+        <v>25</v>
+      </c>
+      <c r="H565" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>2018</v>
+      </c>
+      <c r="B566" t="s">
+        <v>10</v>
+      </c>
+      <c r="C566" t="s">
+        <v>39</v>
+      </c>
+      <c r="D566" t="s">
+        <v>11</v>
+      </c>
+      <c r="E566" t="s">
+        <v>25</v>
+      </c>
+      <c r="F566" t="s">
+        <v>25</v>
+      </c>
+      <c r="G566" t="s">
+        <v>25</v>
+      </c>
+      <c r="H566" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>2018</v>
+      </c>
+      <c r="B567" t="s">
+        <v>10</v>
+      </c>
+      <c r="C567" t="s">
+        <v>39</v>
+      </c>
+      <c r="D567" t="s">
+        <v>13</v>
+      </c>
+      <c r="E567" t="s">
+        <v>25</v>
+      </c>
+      <c r="F567" t="s">
+        <v>25</v>
+      </c>
+      <c r="G567" t="s">
+        <v>25</v>
+      </c>
+      <c r="H567" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>2018</v>
+      </c>
+      <c r="B568" t="s">
+        <v>10</v>
+      </c>
+      <c r="C568" t="s">
+        <v>39</v>
+      </c>
+      <c r="D568" t="s">
+        <v>14</v>
+      </c>
+      <c r="E568" t="s">
+        <v>25</v>
+      </c>
+      <c r="F568" t="s">
+        <v>25</v>
+      </c>
+      <c r="G568" t="s">
+        <v>25</v>
+      </c>
+      <c r="H568" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>2018</v>
+      </c>
+      <c r="B569" t="s">
+        <v>10</v>
+      </c>
+      <c r="C569" t="s">
+        <v>39</v>
+      </c>
+      <c r="D569" t="s">
+        <v>15</v>
+      </c>
+      <c r="E569" t="s">
+        <v>25</v>
+      </c>
+      <c r="F569" t="s">
+        <v>25</v>
+      </c>
+      <c r="G569" t="s">
+        <v>25</v>
+      </c>
+      <c r="H569" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>2018</v>
+      </c>
+      <c r="B570" t="s">
+        <v>10</v>
+      </c>
+      <c r="C570" t="s">
+        <v>39</v>
+      </c>
+      <c r="D570" t="s">
+        <v>16</v>
+      </c>
+      <c r="E570" t="s">
+        <v>25</v>
+      </c>
+      <c r="F570" t="s">
+        <v>25</v>
+      </c>
+      <c r="G570" t="s">
+        <v>25</v>
+      </c>
+      <c r="H570" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>2018</v>
+      </c>
+      <c r="B571" t="s">
+        <v>10</v>
+      </c>
+      <c r="C571" t="s">
+        <v>39</v>
+      </c>
+      <c r="D571" t="s">
+        <v>17</v>
+      </c>
+      <c r="E571" t="s">
+        <v>25</v>
+      </c>
+      <c r="F571" t="s">
+        <v>25</v>
+      </c>
+      <c r="G571" t="s">
+        <v>25</v>
+      </c>
+      <c r="H571" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>2019</v>
+      </c>
+      <c r="B572" t="s">
+        <v>10</v>
+      </c>
+      <c r="C572" t="s">
+        <v>39</v>
+      </c>
+      <c r="D572" t="s">
+        <v>18</v>
+      </c>
+      <c r="E572" t="s">
+        <v>25</v>
+      </c>
+      <c r="F572" t="s">
+        <v>25</v>
+      </c>
+      <c r="G572" t="s">
+        <v>25</v>
+      </c>
+      <c r="H572" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>2019</v>
+      </c>
+      <c r="B573" t="s">
+        <v>10</v>
+      </c>
+      <c r="C573" t="s">
+        <v>39</v>
+      </c>
+      <c r="D573" t="s">
+        <v>19</v>
+      </c>
+      <c r="E573" t="s">
+        <v>25</v>
+      </c>
+      <c r="F573" t="s">
+        <v>25</v>
+      </c>
+      <c r="G573" t="s">
+        <v>25</v>
+      </c>
+      <c r="H573" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>2019</v>
+      </c>
+      <c r="B574" t="s">
+        <v>10</v>
+      </c>
+      <c r="C574" t="s">
+        <v>39</v>
+      </c>
+      <c r="D574" t="s">
+        <v>20</v>
+      </c>
+      <c r="E574" t="s">
+        <v>25</v>
+      </c>
+      <c r="F574" t="s">
+        <v>25</v>
+      </c>
+      <c r="G574" t="s">
+        <v>25</v>
+      </c>
+      <c r="H574" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>2019</v>
+      </c>
+      <c r="B575" t="s">
+        <v>10</v>
+      </c>
+      <c r="C575" t="s">
+        <v>39</v>
+      </c>
+      <c r="D575" t="s">
+        <v>21</v>
+      </c>
+      <c r="E575" t="s">
+        <v>25</v>
+      </c>
+      <c r="F575" t="s">
+        <v>25</v>
+      </c>
+      <c r="G575" t="s">
+        <v>25</v>
+      </c>
+      <c r="H575" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>2019</v>
+      </c>
+      <c r="B576" t="s">
+        <v>10</v>
+      </c>
+      <c r="C576" t="s">
+        <v>39</v>
+      </c>
+      <c r="D576" t="s">
+        <v>22</v>
+      </c>
+      <c r="E576" t="s">
+        <v>25</v>
+      </c>
+      <c r="F576" t="s">
+        <v>25</v>
+      </c>
+      <c r="G576" t="s">
+        <v>25</v>
+      </c>
+      <c r="H576" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>2019</v>
+      </c>
+      <c r="B577" t="s">
+        <v>10</v>
+      </c>
+      <c r="C577" t="s">
+        <v>39</v>
+      </c>
+      <c r="D577" t="s">
+        <v>26</v>
+      </c>
+      <c r="E577" t="s">
+        <v>25</v>
+      </c>
+      <c r="F577" t="s">
+        <v>25</v>
+      </c>
+      <c r="G577" t="s">
+        <v>25</v>
+      </c>
+      <c r="H577" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>2019</v>
+      </c>
+      <c r="B578" t="s">
+        <v>10</v>
+      </c>
+      <c r="C578" t="s">
+        <v>39</v>
+      </c>
+      <c r="D578" t="s">
+        <v>11</v>
+      </c>
+      <c r="E578" t="s">
+        <v>25</v>
+      </c>
+      <c r="F578" t="s">
+        <v>25</v>
+      </c>
+      <c r="G578" t="s">
+        <v>25</v>
+      </c>
+      <c r="H578" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>2019</v>
+      </c>
+      <c r="B579" t="s">
+        <v>10</v>
+      </c>
+      <c r="C579" t="s">
+        <v>39</v>
+      </c>
+      <c r="D579" t="s">
+        <v>13</v>
+      </c>
+      <c r="E579" t="s">
+        <v>25</v>
+      </c>
+      <c r="F579" t="s">
+        <v>25</v>
+      </c>
+      <c r="G579" t="s">
+        <v>25</v>
+      </c>
+      <c r="H579" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>2019</v>
+      </c>
+      <c r="B580" t="s">
+        <v>10</v>
+      </c>
+      <c r="C580" t="s">
+        <v>39</v>
+      </c>
+      <c r="D580" t="s">
+        <v>14</v>
+      </c>
+      <c r="E580" t="s">
+        <v>25</v>
+      </c>
+      <c r="F580" t="s">
+        <v>25</v>
+      </c>
+      <c r="G580" t="s">
+        <v>25</v>
+      </c>
+      <c r="H580" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>2019</v>
+      </c>
+      <c r="B581" t="s">
+        <v>10</v>
+      </c>
+      <c r="C581" t="s">
+        <v>39</v>
+      </c>
+      <c r="D581" t="s">
+        <v>15</v>
+      </c>
+      <c r="E581" t="s">
+        <v>25</v>
+      </c>
+      <c r="F581" t="s">
+        <v>25</v>
+      </c>
+      <c r="G581" t="s">
+        <v>25</v>
+      </c>
+      <c r="H581" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>2019</v>
+      </c>
+      <c r="B582" t="s">
+        <v>10</v>
+      </c>
+      <c r="C582" t="s">
+        <v>39</v>
+      </c>
+      <c r="D582" t="s">
+        <v>16</v>
+      </c>
+      <c r="E582" t="s">
+        <v>25</v>
+      </c>
+      <c r="F582" t="s">
+        <v>25</v>
+      </c>
+      <c r="G582" t="s">
+        <v>25</v>
+      </c>
+      <c r="H582" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>2019</v>
+      </c>
+      <c r="B583" t="s">
+        <v>10</v>
+      </c>
+      <c r="C583" t="s">
+        <v>39</v>
+      </c>
+      <c r="D583" t="s">
+        <v>17</v>
+      </c>
+      <c r="E583" t="s">
+        <v>25</v>
+      </c>
+      <c r="F583" t="s">
+        <v>25</v>
+      </c>
+      <c r="G583" t="s">
+        <v>25</v>
+      </c>
+      <c r="H583" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>2020</v>
+      </c>
+      <c r="B584" t="s">
+        <v>10</v>
+      </c>
+      <c r="C584" t="s">
+        <v>39</v>
+      </c>
+      <c r="D584" t="s">
+        <v>18</v>
+      </c>
+      <c r="E584" t="s">
+        <v>25</v>
+      </c>
+      <c r="F584" t="s">
+        <v>25</v>
+      </c>
+      <c r="G584" t="s">
+        <v>25</v>
+      </c>
+      <c r="H584" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>2020</v>
+      </c>
+      <c r="B585" t="s">
+        <v>10</v>
+      </c>
+      <c r="C585" t="s">
+        <v>39</v>
+      </c>
+      <c r="D585" t="s">
+        <v>19</v>
+      </c>
+      <c r="E585" t="s">
+        <v>25</v>
+      </c>
+      <c r="F585" t="s">
+        <v>25</v>
+      </c>
+      <c r="G585" t="s">
+        <v>25</v>
+      </c>
+      <c r="H585" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>2020</v>
+      </c>
+      <c r="B586" t="s">
+        <v>10</v>
+      </c>
+      <c r="C586" t="s">
+        <v>39</v>
+      </c>
+      <c r="D586" t="s">
+        <v>20</v>
+      </c>
+      <c r="E586" t="s">
+        <v>25</v>
+      </c>
+      <c r="F586" t="s">
+        <v>25</v>
+      </c>
+      <c r="G586" t="s">
+        <v>25</v>
+      </c>
+      <c r="H586" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>2020</v>
+      </c>
+      <c r="B587" t="s">
+        <v>10</v>
+      </c>
+      <c r="C587" t="s">
+        <v>39</v>
+      </c>
+      <c r="D587" t="s">
+        <v>21</v>
+      </c>
+      <c r="E587" t="s">
+        <v>25</v>
+      </c>
+      <c r="F587" t="s">
+        <v>25</v>
+      </c>
+      <c r="G587" t="s">
+        <v>25</v>
+      </c>
+      <c r="H587" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>2020</v>
+      </c>
+      <c r="B588" t="s">
+        <v>10</v>
+      </c>
+      <c r="C588" t="s">
+        <v>39</v>
+      </c>
+      <c r="D588" t="s">
+        <v>22</v>
+      </c>
+      <c r="E588" t="s">
+        <v>25</v>
+      </c>
+      <c r="F588" t="s">
+        <v>25</v>
+      </c>
+      <c r="G588" t="s">
+        <v>25</v>
+      </c>
+      <c r="H588" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>2020</v>
+      </c>
+      <c r="B589" t="s">
+        <v>10</v>
+      </c>
+      <c r="C589" t="s">
+        <v>39</v>
+      </c>
+      <c r="D589" t="s">
+        <v>26</v>
+      </c>
+      <c r="E589" t="s">
+        <v>25</v>
+      </c>
+      <c r="F589" t="s">
+        <v>25</v>
+      </c>
+      <c r="G589" t="s">
+        <v>25</v>
+      </c>
+      <c r="H589" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>2020</v>
+      </c>
+      <c r="B590" t="s">
+        <v>10</v>
+      </c>
+      <c r="C590" t="s">
+        <v>39</v>
+      </c>
+      <c r="D590" t="s">
+        <v>11</v>
+      </c>
+      <c r="E590" t="s">
+        <v>25</v>
+      </c>
+      <c r="F590" t="s">
+        <v>25</v>
+      </c>
+      <c r="G590" t="s">
+        <v>25</v>
+      </c>
+      <c r="H590" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>2020</v>
+      </c>
+      <c r="B591" t="s">
+        <v>10</v>
+      </c>
+      <c r="C591" t="s">
+        <v>39</v>
+      </c>
+      <c r="D591" t="s">
+        <v>13</v>
+      </c>
+      <c r="E591" t="s">
+        <v>25</v>
+      </c>
+      <c r="F591" t="s">
+        <v>25</v>
+      </c>
+      <c r="G591" t="s">
+        <v>25</v>
+      </c>
+      <c r="H591" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>2020</v>
+      </c>
+      <c r="B592" t="s">
+        <v>10</v>
+      </c>
+      <c r="C592" t="s">
+        <v>39</v>
+      </c>
+      <c r="D592" t="s">
+        <v>14</v>
+      </c>
+      <c r="E592" t="s">
+        <v>25</v>
+      </c>
+      <c r="F592" t="s">
+        <v>25</v>
+      </c>
+      <c r="G592" t="s">
+        <v>25</v>
+      </c>
+      <c r="H592" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>2020</v>
+      </c>
+      <c r="B593" t="s">
+        <v>10</v>
+      </c>
+      <c r="C593" t="s">
+        <v>39</v>
+      </c>
+      <c r="D593" t="s">
+        <v>15</v>
+      </c>
+      <c r="E593" t="s">
+        <v>25</v>
+      </c>
+      <c r="F593" t="s">
+        <v>25</v>
+      </c>
+      <c r="G593" t="s">
+        <v>25</v>
+      </c>
+      <c r="H593" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>2020</v>
+      </c>
+      <c r="B594" t="s">
+        <v>10</v>
+      </c>
+      <c r="C594" t="s">
+        <v>39</v>
+      </c>
+      <c r="D594" t="s">
+        <v>16</v>
+      </c>
+      <c r="E594" t="s">
+        <v>25</v>
+      </c>
+      <c r="F594" t="s">
+        <v>25</v>
+      </c>
+      <c r="G594" t="s">
+        <v>25</v>
+      </c>
+      <c r="H594" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>2020</v>
+      </c>
+      <c r="B595" t="s">
+        <v>10</v>
+      </c>
+      <c r="C595" t="s">
+        <v>39</v>
+      </c>
+      <c r="D595" t="s">
+        <v>17</v>
+      </c>
+      <c r="E595" t="s">
+        <v>25</v>
+      </c>
+      <c r="F595" t="s">
+        <v>25</v>
+      </c>
+      <c r="G595" t="s">
+        <v>25</v>
+      </c>
+      <c r="H595" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>2015</v>
+      </c>
+      <c r="B596" t="s">
+        <v>10</v>
+      </c>
+      <c r="C596" t="s">
+        <v>40</v>
+      </c>
+      <c r="D596" t="s">
+        <v>11</v>
+      </c>
+      <c r="E596">
+        <v>61.226999999999997</v>
+      </c>
+      <c r="F596">
+        <v>69.920001893939386</v>
+      </c>
+      <c r="G596">
+        <v>78.8</v>
+      </c>
+      <c r="H596" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>2015</v>
+      </c>
+      <c r="B597" t="s">
+        <v>10</v>
+      </c>
+      <c r="C597" t="s">
+        <v>40</v>
+      </c>
+      <c r="D597" t="s">
+        <v>13</v>
+      </c>
+      <c r="E597">
+        <v>41.625</v>
+      </c>
+      <c r="F597">
+        <v>65.633170698924644</v>
+      </c>
+      <c r="G597">
+        <v>89.938000000000002</v>
+      </c>
+      <c r="H597" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>2015</v>
+      </c>
+      <c r="B598" t="s">
+        <v>10</v>
+      </c>
+      <c r="C598" t="s">
+        <v>40</v>
+      </c>
+      <c r="D598" t="s">
+        <v>14</v>
+      </c>
+      <c r="E598">
+        <v>44.378999999999998</v>
+      </c>
+      <c r="F598">
+        <v>59.759166666666637</v>
+      </c>
+      <c r="G598">
+        <v>80.206000000000003</v>
+      </c>
+      <c r="H598" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>2015</v>
+      </c>
+      <c r="B599" t="s">
+        <v>10</v>
+      </c>
+      <c r="C599" t="s">
+        <v>40</v>
+      </c>
+      <c r="D599" t="s">
+        <v>15</v>
+      </c>
+      <c r="E599">
+        <v>29.995000000000001</v>
+      </c>
+      <c r="F599">
+        <v>50.802626344085986</v>
+      </c>
+      <c r="G599">
+        <v>72.372</v>
+      </c>
+      <c r="H599" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>2015</v>
+      </c>
+      <c r="B600" t="s">
+        <v>10</v>
+      </c>
+      <c r="C600" t="s">
+        <v>40</v>
+      </c>
+      <c r="D600" t="s">
+        <v>16</v>
+      </c>
+      <c r="E600" t="s">
+        <v>25</v>
+      </c>
+      <c r="F600" t="s">
+        <v>25</v>
+      </c>
+      <c r="G600" t="s">
+        <v>25</v>
+      </c>
+      <c r="H600" t="s">
+        <v>12</v>
+      </c>
+      <c r="K600" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>2015</v>
+      </c>
+      <c r="B601" t="s">
+        <v>10</v>
+      </c>
+      <c r="C601" t="s">
+        <v>40</v>
+      </c>
+      <c r="D601" t="s">
+        <v>17</v>
+      </c>
+      <c r="E601">
+        <v>22.33</v>
+      </c>
+      <c r="F601">
+        <v>33.713752808988737</v>
+      </c>
+      <c r="G601">
+        <v>54.494999999999997</v>
+      </c>
+      <c r="H601" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>2016</v>
+      </c>
+      <c r="B602" t="s">
+        <v>10</v>
+      </c>
+      <c r="C602" t="s">
+        <v>40</v>
+      </c>
+      <c r="D602" t="s">
+        <v>18</v>
+      </c>
+      <c r="E602" t="s">
+        <v>25</v>
+      </c>
+      <c r="F602" t="s">
+        <v>25</v>
+      </c>
+      <c r="G602" t="s">
+        <v>25</v>
+      </c>
+      <c r="H602" t="s">
+        <v>12</v>
+      </c>
+      <c r="K602" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>2016</v>
+      </c>
+      <c r="B603" t="s">
+        <v>10</v>
+      </c>
+      <c r="C603" t="s">
+        <v>40</v>
+      </c>
+      <c r="D603" t="s">
+        <v>19</v>
+      </c>
+      <c r="E603" t="s">
+        <v>25</v>
+      </c>
+      <c r="F603" t="s">
+        <v>25</v>
+      </c>
+      <c r="G603" t="s">
+        <v>25</v>
+      </c>
+      <c r="H603" t="s">
+        <v>12</v>
+      </c>
+      <c r="K603" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>2016</v>
+      </c>
+      <c r="B604" t="s">
+        <v>10</v>
+      </c>
+      <c r="C604" t="s">
+        <v>40</v>
+      </c>
+      <c r="D604" t="s">
+        <v>20</v>
+      </c>
+      <c r="E604" t="s">
+        <v>25</v>
+      </c>
+      <c r="F604" t="s">
+        <v>25</v>
+      </c>
+      <c r="G604" t="s">
+        <v>25</v>
+      </c>
+      <c r="H604" t="s">
+        <v>12</v>
+      </c>
+      <c r="K604" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>2016</v>
+      </c>
+      <c r="B605" t="s">
+        <v>10</v>
+      </c>
+      <c r="C605" t="s">
+        <v>40</v>
+      </c>
+      <c r="D605" t="s">
+        <v>21</v>
+      </c>
+      <c r="E605" t="s">
+        <v>25</v>
+      </c>
+      <c r="F605" t="s">
+        <v>25</v>
+      </c>
+      <c r="G605" t="s">
+        <v>25</v>
+      </c>
+      <c r="H605" t="s">
+        <v>12</v>
+      </c>
+      <c r="K605" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>2016</v>
+      </c>
+      <c r="B606" t="s">
+        <v>10</v>
+      </c>
+      <c r="C606" t="s">
+        <v>40</v>
+      </c>
+      <c r="D606" t="s">
+        <v>22</v>
+      </c>
+      <c r="E606" t="s">
+        <v>25</v>
+      </c>
+      <c r="F606" t="s">
+        <v>25</v>
+      </c>
+      <c r="G606" t="s">
+        <v>25</v>
+      </c>
+      <c r="H606" t="s">
+        <v>12</v>
+      </c>
+      <c r="K606" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>2016</v>
+      </c>
+      <c r="B607" t="s">
+        <v>10</v>
+      </c>
+      <c r="C607" t="s">
+        <v>40</v>
+      </c>
+      <c r="D607" t="s">
+        <v>26</v>
+      </c>
+      <c r="E607">
+        <v>54.82</v>
+      </c>
+      <c r="F607">
+        <v>69.964460416666796</v>
+      </c>
+      <c r="G607">
+        <v>80.361000000000004</v>
+      </c>
+      <c r="H607" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>2016</v>
+      </c>
+      <c r="B608" t="s">
+        <v>10</v>
+      </c>
+      <c r="C608" t="s">
+        <v>40</v>
+      </c>
+      <c r="D608" t="s">
+        <v>11</v>
+      </c>
+      <c r="E608">
+        <v>60.473999999999997</v>
+      </c>
+      <c r="F608">
+        <v>71.555741935483979</v>
+      </c>
+      <c r="G608">
+        <v>81.997</v>
+      </c>
+      <c r="H608" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>2016</v>
+      </c>
+      <c r="B609" t="s">
+        <v>10</v>
+      </c>
+      <c r="C609" t="s">
+        <v>40</v>
+      </c>
+      <c r="D609" t="s">
+        <v>13</v>
+      </c>
+      <c r="E609" t="s">
+        <v>25</v>
+      </c>
+      <c r="F609" t="s">
+        <v>25</v>
+      </c>
+      <c r="G609" t="s">
+        <v>25</v>
+      </c>
+      <c r="H609" t="s">
+        <v>12</v>
+      </c>
+      <c r="K609" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>2016</v>
+      </c>
+      <c r="B610" t="s">
+        <v>10</v>
+      </c>
+      <c r="C610" t="s">
+        <v>40</v>
+      </c>
+      <c r="D610" t="s">
+        <v>14</v>
+      </c>
+      <c r="E610">
+        <v>52.728999999999999</v>
+      </c>
+      <c r="F610">
+        <v>61.351195721925208</v>
+      </c>
+      <c r="G610">
+        <v>70.372</v>
+      </c>
+      <c r="H610" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>2016</v>
+      </c>
+      <c r="B611" t="s">
+        <v>10</v>
+      </c>
+      <c r="C611" t="s">
+        <v>40</v>
+      </c>
+      <c r="D611" t="s">
+        <v>15</v>
+      </c>
+      <c r="E611">
+        <v>45.171999999999997</v>
+      </c>
+      <c r="F611">
+        <v>52.04657795698931</v>
+      </c>
+      <c r="G611">
+        <v>64.247</v>
+      </c>
+      <c r="H611" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>2016</v>
+      </c>
+      <c r="B612" t="s">
+        <v>10</v>
+      </c>
+      <c r="C612" t="s">
+        <v>40</v>
+      </c>
+      <c r="D612" t="s">
+        <v>16</v>
+      </c>
+      <c r="E612">
+        <v>32.99</v>
+      </c>
+      <c r="F612">
+        <v>43.370690972222405</v>
+      </c>
+      <c r="G612">
+        <v>52.290999999999997</v>
+      </c>
+      <c r="H612" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>2016</v>
+      </c>
+      <c r="B613" t="s">
+        <v>10</v>
+      </c>
+      <c r="C613" t="s">
+        <v>40</v>
+      </c>
+      <c r="D613" t="s">
+        <v>17</v>
+      </c>
+      <c r="E613">
+        <v>31.942</v>
+      </c>
+      <c r="F613">
+        <v>33.204565188172417</v>
+      </c>
+      <c r="G613">
+        <v>38.652999999999999</v>
+      </c>
+      <c r="H613" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>2017</v>
+      </c>
+      <c r="B614" t="s">
+        <v>10</v>
+      </c>
+      <c r="C614" t="s">
+        <v>40</v>
+      </c>
+      <c r="D614" t="s">
+        <v>18</v>
+      </c>
+      <c r="E614">
+        <v>31.942</v>
+      </c>
+      <c r="F614">
+        <v>34.905383064516244</v>
+      </c>
+      <c r="G614">
+        <v>41.23</v>
+      </c>
+      <c r="H614" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>2017</v>
+      </c>
+      <c r="B615" t="s">
+        <v>10</v>
+      </c>
+      <c r="C615" t="s">
+        <v>40</v>
+      </c>
+      <c r="D615" t="s">
+        <v>19</v>
+      </c>
+      <c r="E615">
+        <v>31.992999999999999</v>
+      </c>
+      <c r="F615">
+        <v>39.431244419642816</v>
+      </c>
+      <c r="G615">
+        <v>50.488</v>
+      </c>
+      <c r="H615" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>2017</v>
+      </c>
+      <c r="B616" t="s">
+        <v>10</v>
+      </c>
+      <c r="C616" t="s">
+        <v>40</v>
+      </c>
+      <c r="D616" t="s">
+        <v>20</v>
+      </c>
+      <c r="E616">
+        <v>34.81</v>
+      </c>
+      <c r="F616">
+        <v>46.338270161290325</v>
+      </c>
+      <c r="G616">
+        <v>56.857999999999997</v>
+      </c>
+      <c r="H616" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>2017</v>
+      </c>
+      <c r="B617" t="s">
+        <v>10</v>
+      </c>
+      <c r="C617" t="s">
+        <v>40</v>
+      </c>
+      <c r="D617" t="s">
+        <v>21</v>
+      </c>
+      <c r="E617">
+        <v>42.247</v>
+      </c>
+      <c r="F617">
+        <v>52.071369097222316</v>
+      </c>
+      <c r="G617">
+        <v>62.962000000000003</v>
+      </c>
+      <c r="H617" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>2017</v>
+      </c>
+      <c r="B618" t="s">
+        <v>10</v>
+      </c>
+      <c r="C618" t="s">
+        <v>40</v>
+      </c>
+      <c r="D618" t="s">
+        <v>22</v>
+      </c>
+      <c r="E618">
+        <v>46.301000000000002</v>
+      </c>
+      <c r="F618">
+        <v>56.782197580645253</v>
+      </c>
+      <c r="G618">
+        <v>68.697999999999993</v>
+      </c>
+      <c r="H618" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>2017</v>
+      </c>
+      <c r="B619" t="s">
+        <v>10</v>
+      </c>
+      <c r="C619" t="s">
+        <v>40</v>
+      </c>
+      <c r="D619" t="s">
+        <v>26</v>
+      </c>
+      <c r="E619" t="s">
+        <v>25</v>
+      </c>
+      <c r="F619" t="s">
+        <v>25</v>
+      </c>
+      <c r="G619" t="s">
+        <v>25</v>
+      </c>
+      <c r="H619" t="s">
+        <v>12</v>
+      </c>
+      <c r="K619" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>2017</v>
+      </c>
+      <c r="B620" t="s">
+        <v>10</v>
+      </c>
+      <c r="C620" t="s">
+        <v>40</v>
+      </c>
+      <c r="D620" t="s">
+        <v>11</v>
+      </c>
+      <c r="E620" t="s">
+        <v>25</v>
+      </c>
+      <c r="F620" t="s">
+        <v>25</v>
+      </c>
+      <c r="G620" t="s">
+        <v>25</v>
+      </c>
+      <c r="H620" t="s">
+        <v>12</v>
+      </c>
+      <c r="K620" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>2017</v>
+      </c>
+      <c r="B621" t="s">
+        <v>10</v>
+      </c>
+      <c r="C621" t="s">
+        <v>40</v>
+      </c>
+      <c r="D621" t="s">
+        <v>13</v>
+      </c>
+      <c r="E621" t="s">
+        <v>25</v>
+      </c>
+      <c r="F621" t="s">
+        <v>25</v>
+      </c>
+      <c r="G621" t="s">
+        <v>25</v>
+      </c>
+      <c r="H621" t="s">
+        <v>12</v>
+      </c>
+      <c r="K621" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>2017</v>
+      </c>
+      <c r="B622" t="s">
+        <v>10</v>
+      </c>
+      <c r="C622" t="s">
+        <v>40</v>
+      </c>
+      <c r="D622" t="s">
+        <v>14</v>
+      </c>
+      <c r="E622" t="s">
+        <v>25</v>
+      </c>
+      <c r="F622" t="s">
+        <v>25</v>
+      </c>
+      <c r="G622" t="s">
+        <v>25</v>
+      </c>
+      <c r="H622" t="s">
+        <v>12</v>
+      </c>
+      <c r="K622" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>2017</v>
+      </c>
+      <c r="B623" t="s">
+        <v>10</v>
+      </c>
+      <c r="C623" t="s">
+        <v>40</v>
+      </c>
+      <c r="D623" t="s">
+        <v>15</v>
+      </c>
+      <c r="E623" t="s">
+        <v>25</v>
+      </c>
+      <c r="F623" t="s">
+        <v>25</v>
+      </c>
+      <c r="G623" t="s">
+        <v>25</v>
+      </c>
+      <c r="H623" t="s">
+        <v>12</v>
+      </c>
+      <c r="K623" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>2017</v>
+      </c>
+      <c r="B624" t="s">
+        <v>10</v>
+      </c>
+      <c r="C624" t="s">
+        <v>40</v>
+      </c>
+      <c r="D624" t="s">
+        <v>16</v>
+      </c>
+      <c r="E624" t="s">
+        <v>25</v>
+      </c>
+      <c r="F624" t="s">
+        <v>25</v>
+      </c>
+      <c r="G624" t="s">
+        <v>25</v>
+      </c>
+      <c r="H624" t="s">
+        <v>12</v>
+      </c>
+      <c r="K624" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>2017</v>
+      </c>
+      <c r="B625" t="s">
+        <v>10</v>
+      </c>
+      <c r="C625" t="s">
+        <v>40</v>
+      </c>
+      <c r="D625" t="s">
+        <v>17</v>
+      </c>
+      <c r="E625" t="s">
+        <v>25</v>
+      </c>
+      <c r="F625" t="s">
+        <v>25</v>
+      </c>
+      <c r="G625" t="s">
+        <v>25</v>
+      </c>
+      <c r="H625" t="s">
+        <v>12</v>
+      </c>
+      <c r="K625" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>2018</v>
+      </c>
+      <c r="B626" t="s">
+        <v>10</v>
+      </c>
+      <c r="C626" t="s">
+        <v>40</v>
+      </c>
+      <c r="D626" t="s">
+        <v>18</v>
+      </c>
+      <c r="E626" t="s">
+        <v>25</v>
+      </c>
+      <c r="F626" t="s">
+        <v>25</v>
+      </c>
+      <c r="G626" t="s">
+        <v>25</v>
+      </c>
+      <c r="H626" t="s">
+        <v>12</v>
+      </c>
+      <c r="K626" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>2018</v>
+      </c>
+      <c r="B627" t="s">
+        <v>10</v>
+      </c>
+      <c r="C627" t="s">
+        <v>40</v>
+      </c>
+      <c r="D627" t="s">
+        <v>19</v>
+      </c>
+      <c r="E627" t="s">
+        <v>25</v>
+      </c>
+      <c r="F627" t="s">
+        <v>25</v>
+      </c>
+      <c r="G627" t="s">
+        <v>25</v>
+      </c>
+      <c r="H627" t="s">
+        <v>12</v>
+      </c>
+      <c r="K627" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>2018</v>
+      </c>
+      <c r="B628" t="s">
+        <v>10</v>
+      </c>
+      <c r="C628" t="s">
+        <v>40</v>
+      </c>
+      <c r="D628" t="s">
+        <v>20</v>
+      </c>
+      <c r="E628" t="s">
+        <v>25</v>
+      </c>
+      <c r="F628" t="s">
+        <v>25</v>
+      </c>
+      <c r="G628" t="s">
+        <v>25</v>
+      </c>
+      <c r="H628" t="s">
+        <v>12</v>
+      </c>
+      <c r="K628" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>2018</v>
+      </c>
+      <c r="B629" t="s">
+        <v>10</v>
+      </c>
+      <c r="C629" t="s">
+        <v>40</v>
+      </c>
+      <c r="D629" t="s">
+        <v>21</v>
+      </c>
+      <c r="E629" t="s">
+        <v>25</v>
+      </c>
+      <c r="F629" t="s">
+        <v>25</v>
+      </c>
+      <c r="G629" t="s">
+        <v>25</v>
+      </c>
+      <c r="H629" t="s">
+        <v>12</v>
+      </c>
+      <c r="K629" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>2018</v>
+      </c>
+      <c r="B630" t="s">
+        <v>10</v>
+      </c>
+      <c r="C630" t="s">
+        <v>40</v>
+      </c>
+      <c r="D630" t="s">
+        <v>22</v>
+      </c>
+      <c r="E630" t="s">
+        <v>25</v>
+      </c>
+      <c r="F630" t="s">
+        <v>25</v>
+      </c>
+      <c r="G630" t="s">
+        <v>25</v>
+      </c>
+      <c r="H630" t="s">
+        <v>12</v>
+      </c>
+      <c r="K630" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>2018</v>
+      </c>
+      <c r="B631" t="s">
+        <v>10</v>
+      </c>
+      <c r="C631" t="s">
+        <v>40</v>
+      </c>
+      <c r="D631" t="s">
+        <v>26</v>
+      </c>
+      <c r="E631" t="s">
+        <v>25</v>
+      </c>
+      <c r="F631" t="s">
+        <v>25</v>
+      </c>
+      <c r="G631" t="s">
+        <v>25</v>
+      </c>
+      <c r="H631" t="s">
+        <v>12</v>
+      </c>
+      <c r="K631" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>2018</v>
+      </c>
+      <c r="B632" t="s">
+        <v>10</v>
+      </c>
+      <c r="C632" t="s">
+        <v>40</v>
+      </c>
+      <c r="D632" t="s">
+        <v>11</v>
+      </c>
+      <c r="E632" t="s">
+        <v>25</v>
+      </c>
+      <c r="F632" t="s">
+        <v>25</v>
+      </c>
+      <c r="G632" t="s">
+        <v>25</v>
+      </c>
+      <c r="H632" t="s">
+        <v>12</v>
+      </c>
+      <c r="K632" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>2018</v>
+      </c>
+      <c r="B633" t="s">
+        <v>10</v>
+      </c>
+      <c r="C633" t="s">
+        <v>40</v>
+      </c>
+      <c r="D633" t="s">
+        <v>13</v>
+      </c>
+      <c r="E633" t="s">
+        <v>25</v>
+      </c>
+      <c r="F633" t="s">
+        <v>25</v>
+      </c>
+      <c r="G633" t="s">
+        <v>25</v>
+      </c>
+      <c r="H633" t="s">
+        <v>12</v>
+      </c>
+      <c r="K633" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>2018</v>
+      </c>
+      <c r="B634" t="s">
+        <v>10</v>
+      </c>
+      <c r="C634" t="s">
+        <v>40</v>
+      </c>
+      <c r="D634" t="s">
+        <v>14</v>
+      </c>
+      <c r="E634" t="s">
+        <v>25</v>
+      </c>
+      <c r="F634" t="s">
+        <v>25</v>
+      </c>
+      <c r="G634" t="s">
+        <v>25</v>
+      </c>
+      <c r="H634" t="s">
+        <v>12</v>
+      </c>
+      <c r="K634" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>2018</v>
+      </c>
+      <c r="B635" t="s">
+        <v>10</v>
+      </c>
+      <c r="C635" t="s">
+        <v>40</v>
+      </c>
+      <c r="D635" t="s">
+        <v>15</v>
+      </c>
+      <c r="E635" t="s">
+        <v>25</v>
+      </c>
+      <c r="F635" t="s">
+        <v>25</v>
+      </c>
+      <c r="G635" t="s">
+        <v>25</v>
+      </c>
+      <c r="H635" t="s">
+        <v>12</v>
+      </c>
+      <c r="K635" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>2018</v>
+      </c>
+      <c r="B636" t="s">
+        <v>10</v>
+      </c>
+      <c r="C636" t="s">
+        <v>40</v>
+      </c>
+      <c r="D636" t="s">
+        <v>16</v>
+      </c>
+      <c r="E636" t="s">
+        <v>25</v>
+      </c>
+      <c r="F636" t="s">
+        <v>25</v>
+      </c>
+      <c r="G636" t="s">
+        <v>25</v>
+      </c>
+      <c r="H636" t="s">
+        <v>12</v>
+      </c>
+      <c r="K636" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>2018</v>
+      </c>
+      <c r="B637" t="s">
+        <v>10</v>
+      </c>
+      <c r="C637" t="s">
+        <v>40</v>
+      </c>
+      <c r="D637" t="s">
+        <v>17</v>
+      </c>
+      <c r="E637" t="s">
+        <v>25</v>
+      </c>
+      <c r="F637" t="s">
+        <v>25</v>
+      </c>
+      <c r="G637" t="s">
+        <v>25</v>
+      </c>
+      <c r="H637" t="s">
+        <v>12</v>
+      </c>
+      <c r="K637" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>2019</v>
+      </c>
+      <c r="B638" t="s">
+        <v>10</v>
+      </c>
+      <c r="C638" t="s">
+        <v>40</v>
+      </c>
+      <c r="D638" t="s">
+        <v>18</v>
+      </c>
+      <c r="E638" t="s">
+        <v>25</v>
+      </c>
+      <c r="F638" t="s">
+        <v>25</v>
+      </c>
+      <c r="G638" t="s">
+        <v>25</v>
+      </c>
+      <c r="H638" t="s">
+        <v>12</v>
+      </c>
+      <c r="K638" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>2019</v>
+      </c>
+      <c r="B639" t="s">
+        <v>10</v>
+      </c>
+      <c r="C639" t="s">
+        <v>40</v>
+      </c>
+      <c r="D639" t="s">
+        <v>19</v>
+      </c>
+      <c r="E639" t="s">
+        <v>25</v>
+      </c>
+      <c r="F639" t="s">
+        <v>25</v>
+      </c>
+      <c r="G639" t="s">
+        <v>25</v>
+      </c>
+      <c r="H639" t="s">
+        <v>12</v>
+      </c>
+      <c r="K639" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>2019</v>
+      </c>
+      <c r="B640" t="s">
+        <v>10</v>
+      </c>
+      <c r="C640" t="s">
+        <v>40</v>
+      </c>
+      <c r="D640" t="s">
+        <v>20</v>
+      </c>
+      <c r="E640" t="s">
+        <v>25</v>
+      </c>
+      <c r="F640" t="s">
+        <v>25</v>
+      </c>
+      <c r="G640" t="s">
+        <v>25</v>
+      </c>
+      <c r="H640" t="s">
+        <v>12</v>
+      </c>
+      <c r="K640" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>2019</v>
+      </c>
+      <c r="B641" t="s">
+        <v>10</v>
+      </c>
+      <c r="C641" t="s">
+        <v>40</v>
+      </c>
+      <c r="D641" t="s">
+        <v>21</v>
+      </c>
+      <c r="E641" t="s">
+        <v>25</v>
+      </c>
+      <c r="F641" t="s">
+        <v>25</v>
+      </c>
+      <c r="G641" t="s">
+        <v>25</v>
+      </c>
+      <c r="H641" t="s">
+        <v>12</v>
+      </c>
+      <c r="K641" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>2019</v>
+      </c>
+      <c r="B642" t="s">
+        <v>10</v>
+      </c>
+      <c r="C642" t="s">
+        <v>40</v>
+      </c>
+      <c r="D642" t="s">
+        <v>22</v>
+      </c>
+      <c r="E642" t="s">
+        <v>25</v>
+      </c>
+      <c r="F642" t="s">
+        <v>25</v>
+      </c>
+      <c r="G642" t="s">
+        <v>25</v>
+      </c>
+      <c r="H642" t="s">
+        <v>12</v>
+      </c>
+      <c r="K642" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>2019</v>
+      </c>
+      <c r="B643" t="s">
+        <v>10</v>
+      </c>
+      <c r="C643" t="s">
+        <v>40</v>
+      </c>
+      <c r="D643" t="s">
+        <v>26</v>
+      </c>
+      <c r="E643" t="s">
+        <v>25</v>
+      </c>
+      <c r="F643" t="s">
+        <v>25</v>
+      </c>
+      <c r="G643" t="s">
+        <v>25</v>
+      </c>
+      <c r="H643" t="s">
+        <v>12</v>
+      </c>
+      <c r="K643" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>2019</v>
+      </c>
+      <c r="B644" t="s">
+        <v>10</v>
+      </c>
+      <c r="C644" t="s">
+        <v>40</v>
+      </c>
+      <c r="D644" t="s">
+        <v>11</v>
+      </c>
+      <c r="E644" t="s">
+        <v>25</v>
+      </c>
+      <c r="F644" t="s">
+        <v>25</v>
+      </c>
+      <c r="G644" t="s">
+        <v>25</v>
+      </c>
+      <c r="H644" t="s">
+        <v>12</v>
+      </c>
+      <c r="K644" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>2019</v>
+      </c>
+      <c r="B645" t="s">
+        <v>10</v>
+      </c>
+      <c r="C645" t="s">
+        <v>40</v>
+      </c>
+      <c r="D645" t="s">
+        <v>13</v>
+      </c>
+      <c r="E645" t="s">
+        <v>25</v>
+      </c>
+      <c r="F645" t="s">
+        <v>25</v>
+      </c>
+      <c r="G645" t="s">
+        <v>25</v>
+      </c>
+      <c r="H645" t="s">
+        <v>12</v>
+      </c>
+      <c r="K645" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>2019</v>
+      </c>
+      <c r="B646" t="s">
+        <v>10</v>
+      </c>
+      <c r="C646" t="s">
+        <v>40</v>
+      </c>
+      <c r="D646" t="s">
+        <v>14</v>
+      </c>
+      <c r="E646" t="s">
+        <v>25</v>
+      </c>
+      <c r="F646" t="s">
+        <v>25</v>
+      </c>
+      <c r="G646" t="s">
+        <v>25</v>
+      </c>
+      <c r="H646" t="s">
+        <v>12</v>
+      </c>
+      <c r="K646" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>2019</v>
+      </c>
+      <c r="B647" t="s">
+        <v>10</v>
+      </c>
+      <c r="C647" t="s">
+        <v>40</v>
+      </c>
+      <c r="D647" t="s">
+        <v>15</v>
+      </c>
+      <c r="E647" t="s">
+        <v>25</v>
+      </c>
+      <c r="F647" t="s">
+        <v>25</v>
+      </c>
+      <c r="G647" t="s">
+        <v>25</v>
+      </c>
+      <c r="H647" t="s">
+        <v>12</v>
+      </c>
+      <c r="K647" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>2019</v>
+      </c>
+      <c r="B648" t="s">
+        <v>10</v>
+      </c>
+      <c r="C648" t="s">
+        <v>40</v>
+      </c>
+      <c r="D648" t="s">
+        <v>16</v>
+      </c>
+      <c r="E648" t="s">
+        <v>25</v>
+      </c>
+      <c r="F648" t="s">
+        <v>25</v>
+      </c>
+      <c r="G648" t="s">
+        <v>25</v>
+      </c>
+      <c r="H648" t="s">
+        <v>12</v>
+      </c>
+      <c r="K648" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>2019</v>
+      </c>
+      <c r="B649" t="s">
+        <v>10</v>
+      </c>
+      <c r="C649" t="s">
+        <v>40</v>
+      </c>
+      <c r="D649" t="s">
+        <v>17</v>
+      </c>
+      <c r="E649" t="s">
+        <v>25</v>
+      </c>
+      <c r="F649" t="s">
+        <v>25</v>
+      </c>
+      <c r="G649" t="s">
+        <v>25</v>
+      </c>
+      <c r="H649" t="s">
+        <v>12</v>
+      </c>
+      <c r="K649" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>2020</v>
+      </c>
+      <c r="B650" t="s">
+        <v>10</v>
+      </c>
+      <c r="C650" t="s">
+        <v>40</v>
+      </c>
+      <c r="D650" t="s">
+        <v>18</v>
+      </c>
+      <c r="E650" t="s">
+        <v>25</v>
+      </c>
+      <c r="F650" t="s">
+        <v>25</v>
+      </c>
+      <c r="G650" t="s">
+        <v>25</v>
+      </c>
+      <c r="H650" t="s">
+        <v>12</v>
+      </c>
+      <c r="K650" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>2020</v>
+      </c>
+      <c r="B651" t="s">
+        <v>10</v>
+      </c>
+      <c r="C651" t="s">
+        <v>40</v>
+      </c>
+      <c r="D651" t="s">
+        <v>19</v>
+      </c>
+      <c r="E651" t="s">
+        <v>25</v>
+      </c>
+      <c r="F651" t="s">
+        <v>25</v>
+      </c>
+      <c r="G651" t="s">
+        <v>25</v>
+      </c>
+      <c r="H651" t="s">
+        <v>12</v>
+      </c>
+      <c r="K651" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>2020</v>
+      </c>
+      <c r="B652" t="s">
+        <v>10</v>
+      </c>
+      <c r="C652" t="s">
+        <v>40</v>
+      </c>
+      <c r="D652" t="s">
+        <v>20</v>
+      </c>
+      <c r="E652" t="s">
+        <v>25</v>
+      </c>
+      <c r="F652" t="s">
+        <v>25</v>
+      </c>
+      <c r="G652" t="s">
+        <v>25</v>
+      </c>
+      <c r="H652" t="s">
+        <v>12</v>
+      </c>
+      <c r="K652" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>2020</v>
+      </c>
+      <c r="B653" t="s">
+        <v>10</v>
+      </c>
+      <c r="C653" t="s">
+        <v>40</v>
+      </c>
+      <c r="D653" t="s">
+        <v>21</v>
+      </c>
+      <c r="E653" t="s">
+        <v>25</v>
+      </c>
+      <c r="F653" t="s">
+        <v>25</v>
+      </c>
+      <c r="G653" t="s">
+        <v>25</v>
+      </c>
+      <c r="H653" t="s">
+        <v>12</v>
+      </c>
+      <c r="K653" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>2020</v>
+      </c>
+      <c r="B654" t="s">
+        <v>10</v>
+      </c>
+      <c r="C654" t="s">
+        <v>40</v>
+      </c>
+      <c r="D654" t="s">
+        <v>22</v>
+      </c>
+      <c r="E654" t="s">
+        <v>25</v>
+      </c>
+      <c r="F654" t="s">
+        <v>25</v>
+      </c>
+      <c r="G654" t="s">
+        <v>25</v>
+      </c>
+      <c r="H654" t="s">
+        <v>12</v>
+      </c>
+      <c r="K654" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>2020</v>
+      </c>
+      <c r="B655" t="s">
+        <v>10</v>
+      </c>
+      <c r="C655" t="s">
+        <v>40</v>
+      </c>
+      <c r="D655" t="s">
+        <v>26</v>
+      </c>
+      <c r="E655" t="s">
+        <v>25</v>
+      </c>
+      <c r="F655" t="s">
+        <v>25</v>
+      </c>
+      <c r="G655" t="s">
+        <v>25</v>
+      </c>
+      <c r="H655" t="s">
+        <v>12</v>
+      </c>
+      <c r="K655" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>2020</v>
+      </c>
+      <c r="B656" t="s">
+        <v>10</v>
+      </c>
+      <c r="C656" t="s">
+        <v>40</v>
+      </c>
+      <c r="D656" t="s">
+        <v>11</v>
+      </c>
+      <c r="E656" t="s">
+        <v>25</v>
+      </c>
+      <c r="F656" t="s">
+        <v>25</v>
+      </c>
+      <c r="G656" t="s">
+        <v>25</v>
+      </c>
+      <c r="H656" t="s">
+        <v>12</v>
+      </c>
+      <c r="K656" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>2020</v>
+      </c>
+      <c r="B657" t="s">
+        <v>10</v>
+      </c>
+      <c r="C657" t="s">
+        <v>40</v>
+      </c>
+      <c r="D657" t="s">
+        <v>13</v>
+      </c>
+      <c r="E657" t="s">
+        <v>25</v>
+      </c>
+      <c r="F657" t="s">
+        <v>25</v>
+      </c>
+      <c r="G657" t="s">
+        <v>25</v>
+      </c>
+      <c r="H657" t="s">
+        <v>12</v>
+      </c>
+      <c r="K657" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>2020</v>
+      </c>
+      <c r="B658" t="s">
+        <v>10</v>
+      </c>
+      <c r="C658" t="s">
+        <v>40</v>
+      </c>
+      <c r="D658" t="s">
+        <v>14</v>
+      </c>
+      <c r="E658" t="s">
+        <v>25</v>
+      </c>
+      <c r="F658" t="s">
+        <v>25</v>
+      </c>
+      <c r="G658" t="s">
+        <v>25</v>
+      </c>
+      <c r="H658" t="s">
+        <v>12</v>
+      </c>
+      <c r="K658" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>2020</v>
+      </c>
+      <c r="B659" t="s">
+        <v>10</v>
+      </c>
+      <c r="C659" t="s">
+        <v>40</v>
+      </c>
+      <c r="D659" t="s">
+        <v>15</v>
+      </c>
+      <c r="E659" t="s">
+        <v>25</v>
+      </c>
+      <c r="F659" t="s">
+        <v>25</v>
+      </c>
+      <c r="G659" t="s">
+        <v>25</v>
+      </c>
+      <c r="H659" t="s">
+        <v>12</v>
+      </c>
+      <c r="K659" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>2020</v>
+      </c>
+      <c r="B660" t="s">
+        <v>10</v>
+      </c>
+      <c r="C660" t="s">
+        <v>40</v>
+      </c>
+      <c r="D660" t="s">
+        <v>16</v>
+      </c>
+      <c r="E660" t="s">
+        <v>25</v>
+      </c>
+      <c r="F660" t="s">
+        <v>25</v>
+      </c>
+      <c r="G660" t="s">
+        <v>25</v>
+      </c>
+      <c r="H660" t="s">
+        <v>12</v>
+      </c>
+      <c r="K660" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>2020</v>
+      </c>
+      <c r="B661" t="s">
+        <v>10</v>
+      </c>
+      <c r="C661" t="s">
+        <v>40</v>
+      </c>
+      <c r="D661" t="s">
+        <v>17</v>
+      </c>
+      <c r="E661" t="s">
+        <v>25</v>
+      </c>
+      <c r="F661" t="s">
+        <v>25</v>
+      </c>
+      <c r="G661" t="s">
+        <v>25</v>
+      </c>
+      <c r="H661" t="s">
+        <v>12</v>
+      </c>
+      <c r="K661" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tempDataSum.xlsx
+++ b/tempDataSum.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5074" uniqueCount="51">
   <si>
     <t>Location</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>103°44'8.36"W</t>
+  </si>
+  <si>
+    <t>Bordeaux Creek (Cliffs)</t>
+  </si>
+  <si>
+    <t>Warmwater</t>
+  </si>
+  <si>
+    <t>Bordeaux Creek (North)</t>
+  </si>
+  <si>
+    <t>Larabee Creek (1)</t>
   </si>
 </sst>
 </file>
@@ -482,11 +494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K661"/>
+  <dimension ref="A1:K859"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C577" sqref="C577"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A786" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E797" sqref="E797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +507,7 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -19888,6 +19900,4560 @@
         <v>30</v>
       </c>
     </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>2015</v>
+      </c>
+      <c r="B662" t="s">
+        <v>10</v>
+      </c>
+      <c r="C662" t="s">
+        <v>47</v>
+      </c>
+      <c r="D662" t="s">
+        <v>11</v>
+      </c>
+      <c r="E662" t="s">
+        <v>25</v>
+      </c>
+      <c r="F662" t="s">
+        <v>25</v>
+      </c>
+      <c r="G662" t="s">
+        <v>25</v>
+      </c>
+      <c r="H662" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>2015</v>
+      </c>
+      <c r="B663" t="s">
+        <v>10</v>
+      </c>
+      <c r="C663" t="s">
+        <v>47</v>
+      </c>
+      <c r="D663" t="s">
+        <v>13</v>
+      </c>
+      <c r="E663" t="s">
+        <v>25</v>
+      </c>
+      <c r="F663" t="s">
+        <v>25</v>
+      </c>
+      <c r="G663" t="s">
+        <v>25</v>
+      </c>
+      <c r="H663" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>2015</v>
+      </c>
+      <c r="B664" t="s">
+        <v>10</v>
+      </c>
+      <c r="C664" t="s">
+        <v>47</v>
+      </c>
+      <c r="D664" t="s">
+        <v>14</v>
+      </c>
+      <c r="E664" t="s">
+        <v>25</v>
+      </c>
+      <c r="F664" t="s">
+        <v>25</v>
+      </c>
+      <c r="G664" t="s">
+        <v>25</v>
+      </c>
+      <c r="H664" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>2015</v>
+      </c>
+      <c r="B665" t="s">
+        <v>10</v>
+      </c>
+      <c r="C665" t="s">
+        <v>47</v>
+      </c>
+      <c r="D665" t="s">
+        <v>15</v>
+      </c>
+      <c r="E665" t="s">
+        <v>25</v>
+      </c>
+      <c r="F665" t="s">
+        <v>25</v>
+      </c>
+      <c r="G665" t="s">
+        <v>25</v>
+      </c>
+      <c r="H665" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>2015</v>
+      </c>
+      <c r="B666" t="s">
+        <v>10</v>
+      </c>
+      <c r="C666" t="s">
+        <v>47</v>
+      </c>
+      <c r="D666" t="s">
+        <v>16</v>
+      </c>
+      <c r="E666" t="s">
+        <v>25</v>
+      </c>
+      <c r="F666" t="s">
+        <v>25</v>
+      </c>
+      <c r="G666" t="s">
+        <v>25</v>
+      </c>
+      <c r="H666" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>2015</v>
+      </c>
+      <c r="B667" t="s">
+        <v>10</v>
+      </c>
+      <c r="C667" t="s">
+        <v>47</v>
+      </c>
+      <c r="D667" t="s">
+        <v>17</v>
+      </c>
+      <c r="E667" t="s">
+        <v>25</v>
+      </c>
+      <c r="F667" t="s">
+        <v>25</v>
+      </c>
+      <c r="G667" t="s">
+        <v>25</v>
+      </c>
+      <c r="H667" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>2016</v>
+      </c>
+      <c r="B668" t="s">
+        <v>10</v>
+      </c>
+      <c r="C668" t="s">
+        <v>47</v>
+      </c>
+      <c r="D668" t="s">
+        <v>18</v>
+      </c>
+      <c r="E668" t="s">
+        <v>25</v>
+      </c>
+      <c r="F668" t="s">
+        <v>25</v>
+      </c>
+      <c r="G668" t="s">
+        <v>25</v>
+      </c>
+      <c r="H668" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>2016</v>
+      </c>
+      <c r="B669" t="s">
+        <v>10</v>
+      </c>
+      <c r="C669" t="s">
+        <v>47</v>
+      </c>
+      <c r="D669" t="s">
+        <v>19</v>
+      </c>
+      <c r="E669" t="s">
+        <v>25</v>
+      </c>
+      <c r="F669" t="s">
+        <v>25</v>
+      </c>
+      <c r="G669" t="s">
+        <v>25</v>
+      </c>
+      <c r="H669" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>2016</v>
+      </c>
+      <c r="B670" t="s">
+        <v>10</v>
+      </c>
+      <c r="C670" t="s">
+        <v>47</v>
+      </c>
+      <c r="D670" t="s">
+        <v>20</v>
+      </c>
+      <c r="E670" t="s">
+        <v>25</v>
+      </c>
+      <c r="F670" t="s">
+        <v>25</v>
+      </c>
+      <c r="G670" t="s">
+        <v>25</v>
+      </c>
+      <c r="H670" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>2016</v>
+      </c>
+      <c r="B671" t="s">
+        <v>10</v>
+      </c>
+      <c r="C671" t="s">
+        <v>47</v>
+      </c>
+      <c r="D671" t="s">
+        <v>21</v>
+      </c>
+      <c r="E671" t="s">
+        <v>25</v>
+      </c>
+      <c r="F671" t="s">
+        <v>25</v>
+      </c>
+      <c r="G671" t="s">
+        <v>25</v>
+      </c>
+      <c r="H671" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>2016</v>
+      </c>
+      <c r="B672" t="s">
+        <v>10</v>
+      </c>
+      <c r="C672" t="s">
+        <v>47</v>
+      </c>
+      <c r="D672" t="s">
+        <v>22</v>
+      </c>
+      <c r="E672" t="s">
+        <v>25</v>
+      </c>
+      <c r="F672" t="s">
+        <v>25</v>
+      </c>
+      <c r="G672" t="s">
+        <v>25</v>
+      </c>
+      <c r="H672" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>2016</v>
+      </c>
+      <c r="B673" t="s">
+        <v>10</v>
+      </c>
+      <c r="C673" t="s">
+        <v>47</v>
+      </c>
+      <c r="D673" t="s">
+        <v>26</v>
+      </c>
+      <c r="E673">
+        <v>47.466999999999999</v>
+      </c>
+      <c r="F673">
+        <v>64.335249652777776</v>
+      </c>
+      <c r="G673">
+        <v>77.378</v>
+      </c>
+      <c r="H673" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>2016</v>
+      </c>
+      <c r="B674" t="s">
+        <v>10</v>
+      </c>
+      <c r="C674" t="s">
+        <v>47</v>
+      </c>
+      <c r="D674" t="s">
+        <v>11</v>
+      </c>
+      <c r="E674">
+        <v>52.817</v>
+      </c>
+      <c r="F674">
+        <v>66.481988575268915</v>
+      </c>
+      <c r="G674">
+        <v>80.051000000000002</v>
+      </c>
+      <c r="H674" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>2016</v>
+      </c>
+      <c r="B675" t="s">
+        <v>10</v>
+      </c>
+      <c r="C675" t="s">
+        <v>47</v>
+      </c>
+      <c r="D675" t="s">
+        <v>13</v>
+      </c>
+      <c r="E675">
+        <v>50.488</v>
+      </c>
+      <c r="F675">
+        <v>63.979963373655863</v>
+      </c>
+      <c r="G675">
+        <v>77.858999999999995</v>
+      </c>
+      <c r="H675" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>2016</v>
+      </c>
+      <c r="B676" t="s">
+        <v>10</v>
+      </c>
+      <c r="C676" t="s">
+        <v>47</v>
+      </c>
+      <c r="D676" t="s">
+        <v>14</v>
+      </c>
+      <c r="E676">
+        <v>47.512</v>
+      </c>
+      <c r="F676">
+        <v>58.094304742684258</v>
+      </c>
+      <c r="G676">
+        <v>70.543000000000006</v>
+      </c>
+      <c r="H676" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>2016</v>
+      </c>
+      <c r="B677" t="s">
+        <v>10</v>
+      </c>
+      <c r="C677" t="s">
+        <v>47</v>
+      </c>
+      <c r="D677" t="s">
+        <v>15</v>
+      </c>
+      <c r="E677">
+        <v>40.438000000000002</v>
+      </c>
+      <c r="F677">
+        <v>49.373764112903146</v>
+      </c>
+      <c r="G677">
+        <v>61.418999999999997</v>
+      </c>
+      <c r="H677" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>2016</v>
+      </c>
+      <c r="B678" t="s">
+        <v>10</v>
+      </c>
+      <c r="C678" t="s">
+        <v>47</v>
+      </c>
+      <c r="D678" t="s">
+        <v>16</v>
+      </c>
+      <c r="E678">
+        <v>34.222999999999999</v>
+      </c>
+      <c r="F678">
+        <v>42.228834722222516</v>
+      </c>
+      <c r="G678">
+        <v>51.281999999999996</v>
+      </c>
+      <c r="H678" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>2016</v>
+      </c>
+      <c r="B679" t="s">
+        <v>10</v>
+      </c>
+      <c r="C679" t="s">
+        <v>47</v>
+      </c>
+      <c r="D679" t="s">
+        <v>17</v>
+      </c>
+      <c r="E679">
+        <v>32.591999999999999</v>
+      </c>
+      <c r="F679">
+        <v>35.794909274193692</v>
+      </c>
+      <c r="G679">
+        <v>40.484999999999999</v>
+      </c>
+      <c r="H679" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>2017</v>
+      </c>
+      <c r="B680" t="s">
+        <v>10</v>
+      </c>
+      <c r="C680" t="s">
+        <v>47</v>
+      </c>
+      <c r="D680" t="s">
+        <v>18</v>
+      </c>
+      <c r="E680">
+        <v>32.442999999999998</v>
+      </c>
+      <c r="F680">
+        <v>36.646576276882023</v>
+      </c>
+      <c r="G680">
+        <v>43.488</v>
+      </c>
+      <c r="H680" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>2017</v>
+      </c>
+      <c r="B681" t="s">
+        <v>10</v>
+      </c>
+      <c r="C681" t="s">
+        <v>47</v>
+      </c>
+      <c r="D681" t="s">
+        <v>19</v>
+      </c>
+      <c r="E681">
+        <v>32.542000000000002</v>
+      </c>
+      <c r="F681">
+        <v>39.177769345238097</v>
+      </c>
+      <c r="G681">
+        <v>47.198999999999998</v>
+      </c>
+      <c r="H681" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>2017</v>
+      </c>
+      <c r="B682" t="s">
+        <v>10</v>
+      </c>
+      <c r="C682" t="s">
+        <v>47</v>
+      </c>
+      <c r="D682" t="s">
+        <v>20</v>
+      </c>
+      <c r="E682">
+        <v>35.540999999999997</v>
+      </c>
+      <c r="F682">
+        <v>43.650420026881555</v>
+      </c>
+      <c r="G682">
+        <v>54.43</v>
+      </c>
+      <c r="H682" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>2017</v>
+      </c>
+      <c r="B683" t="s">
+        <v>10</v>
+      </c>
+      <c r="C683" t="s">
+        <v>47</v>
+      </c>
+      <c r="D683" t="s">
+        <v>21</v>
+      </c>
+      <c r="E683">
+        <v>37.034999999999997</v>
+      </c>
+      <c r="F683">
+        <v>48.495362499999828</v>
+      </c>
+      <c r="G683">
+        <v>62.49</v>
+      </c>
+      <c r="H683" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>2017</v>
+      </c>
+      <c r="B684" t="s">
+        <v>10</v>
+      </c>
+      <c r="C684" t="s">
+        <v>47</v>
+      </c>
+      <c r="D684" t="s">
+        <v>22</v>
+      </c>
+      <c r="E684">
+        <v>41.648000000000003</v>
+      </c>
+      <c r="F684">
+        <v>53.236358870967543</v>
+      </c>
+      <c r="G684">
+        <v>67.757000000000005</v>
+      </c>
+      <c r="H684" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>2017</v>
+      </c>
+      <c r="B685" t="s">
+        <v>10</v>
+      </c>
+      <c r="C685" t="s">
+        <v>47</v>
+      </c>
+      <c r="D685" t="s">
+        <v>26</v>
+      </c>
+      <c r="E685">
+        <v>51.851999999999997</v>
+      </c>
+      <c r="F685">
+        <v>60.82597708333342</v>
+      </c>
+      <c r="G685">
+        <v>70.930000000000007</v>
+      </c>
+      <c r="H685" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>2017</v>
+      </c>
+      <c r="B686" t="s">
+        <v>10</v>
+      </c>
+      <c r="C686" t="s">
+        <v>47</v>
+      </c>
+      <c r="D686" t="s">
+        <v>11</v>
+      </c>
+      <c r="E686">
+        <v>53.908000000000001</v>
+      </c>
+      <c r="F686">
+        <v>66.917411962365506</v>
+      </c>
+      <c r="G686">
+        <v>76.203000000000003</v>
+      </c>
+      <c r="H686" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>2017</v>
+      </c>
+      <c r="B687" t="s">
+        <v>10</v>
+      </c>
+      <c r="C687" t="s">
+        <v>47</v>
+      </c>
+      <c r="D687" t="s">
+        <v>13</v>
+      </c>
+      <c r="E687">
+        <v>54.212000000000003</v>
+      </c>
+      <c r="F687">
+        <v>62.480127352150362</v>
+      </c>
+      <c r="G687">
+        <v>71.316999999999993</v>
+      </c>
+      <c r="H687" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>2017</v>
+      </c>
+      <c r="B688" t="s">
+        <v>10</v>
+      </c>
+      <c r="C688" t="s">
+        <v>47</v>
+      </c>
+      <c r="D688" t="s">
+        <v>14</v>
+      </c>
+      <c r="E688">
+        <v>43.853000000000002</v>
+      </c>
+      <c r="F688">
+        <v>56.033633680555575</v>
+      </c>
+      <c r="G688">
+        <v>67.671000000000006</v>
+      </c>
+      <c r="H688" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>2017</v>
+      </c>
+      <c r="B689" t="s">
+        <v>10</v>
+      </c>
+      <c r="C689" t="s">
+        <v>47</v>
+      </c>
+      <c r="D689" t="s">
+        <v>15</v>
+      </c>
+      <c r="E689">
+        <v>35.442999999999998</v>
+      </c>
+      <c r="F689">
+        <v>46.511967741935251</v>
+      </c>
+      <c r="G689">
+        <v>56.469000000000001</v>
+      </c>
+      <c r="H689" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>2017</v>
+      </c>
+      <c r="B690" t="s">
+        <v>10</v>
+      </c>
+      <c r="C690" t="s">
+        <v>47</v>
+      </c>
+      <c r="D690" t="s">
+        <v>16</v>
+      </c>
+      <c r="E690">
+        <v>35.055</v>
+      </c>
+      <c r="F690">
+        <v>40.90491855524067</v>
+      </c>
+      <c r="G690">
+        <v>46.165999999999997</v>
+      </c>
+      <c r="H690" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>2017</v>
+      </c>
+      <c r="B691" t="s">
+        <v>10</v>
+      </c>
+      <c r="C691" t="s">
+        <v>47</v>
+      </c>
+      <c r="D691" t="s">
+        <v>17</v>
+      </c>
+      <c r="E691" t="s">
+        <v>25</v>
+      </c>
+      <c r="F691" t="s">
+        <v>25</v>
+      </c>
+      <c r="G691" t="s">
+        <v>25</v>
+      </c>
+      <c r="H691" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>2018</v>
+      </c>
+      <c r="B692" t="s">
+        <v>10</v>
+      </c>
+      <c r="C692" t="s">
+        <v>47</v>
+      </c>
+      <c r="D692" t="s">
+        <v>18</v>
+      </c>
+      <c r="E692" t="s">
+        <v>25</v>
+      </c>
+      <c r="F692" t="s">
+        <v>25</v>
+      </c>
+      <c r="G692" t="s">
+        <v>25</v>
+      </c>
+      <c r="H692" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>2018</v>
+      </c>
+      <c r="B693" t="s">
+        <v>10</v>
+      </c>
+      <c r="C693" t="s">
+        <v>47</v>
+      </c>
+      <c r="D693" t="s">
+        <v>19</v>
+      </c>
+      <c r="E693" t="s">
+        <v>25</v>
+      </c>
+      <c r="F693" t="s">
+        <v>25</v>
+      </c>
+      <c r="G693" t="s">
+        <v>25</v>
+      </c>
+      <c r="H693" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>2018</v>
+      </c>
+      <c r="B694" t="s">
+        <v>10</v>
+      </c>
+      <c r="C694" t="s">
+        <v>47</v>
+      </c>
+      <c r="D694" t="s">
+        <v>20</v>
+      </c>
+      <c r="E694" t="s">
+        <v>25</v>
+      </c>
+      <c r="F694" t="s">
+        <v>25</v>
+      </c>
+      <c r="G694" t="s">
+        <v>25</v>
+      </c>
+      <c r="H694" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>2018</v>
+      </c>
+      <c r="B695" t="s">
+        <v>10</v>
+      </c>
+      <c r="C695" t="s">
+        <v>47</v>
+      </c>
+      <c r="D695" t="s">
+        <v>21</v>
+      </c>
+      <c r="E695" t="s">
+        <v>25</v>
+      </c>
+      <c r="F695" t="s">
+        <v>25</v>
+      </c>
+      <c r="G695" t="s">
+        <v>25</v>
+      </c>
+      <c r="H695" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>2018</v>
+      </c>
+      <c r="B696" t="s">
+        <v>10</v>
+      </c>
+      <c r="C696" t="s">
+        <v>47</v>
+      </c>
+      <c r="D696" t="s">
+        <v>22</v>
+      </c>
+      <c r="E696" t="s">
+        <v>25</v>
+      </c>
+      <c r="F696" t="s">
+        <v>25</v>
+      </c>
+      <c r="G696" t="s">
+        <v>25</v>
+      </c>
+      <c r="H696" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>2018</v>
+      </c>
+      <c r="B697" t="s">
+        <v>10</v>
+      </c>
+      <c r="C697" t="s">
+        <v>47</v>
+      </c>
+      <c r="D697" t="s">
+        <v>26</v>
+      </c>
+      <c r="E697" t="s">
+        <v>25</v>
+      </c>
+      <c r="F697" t="s">
+        <v>25</v>
+      </c>
+      <c r="G697" t="s">
+        <v>25</v>
+      </c>
+      <c r="H697" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>2018</v>
+      </c>
+      <c r="B698" t="s">
+        <v>10</v>
+      </c>
+      <c r="C698" t="s">
+        <v>47</v>
+      </c>
+      <c r="D698" t="s">
+        <v>11</v>
+      </c>
+      <c r="E698" t="s">
+        <v>25</v>
+      </c>
+      <c r="F698" t="s">
+        <v>25</v>
+      </c>
+      <c r="G698" t="s">
+        <v>25</v>
+      </c>
+      <c r="H698" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>2018</v>
+      </c>
+      <c r="B699" t="s">
+        <v>10</v>
+      </c>
+      <c r="C699" t="s">
+        <v>47</v>
+      </c>
+      <c r="D699" t="s">
+        <v>13</v>
+      </c>
+      <c r="E699" t="s">
+        <v>25</v>
+      </c>
+      <c r="F699" t="s">
+        <v>25</v>
+      </c>
+      <c r="G699" t="s">
+        <v>25</v>
+      </c>
+      <c r="H699" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>2018</v>
+      </c>
+      <c r="B700" t="s">
+        <v>10</v>
+      </c>
+      <c r="C700" t="s">
+        <v>47</v>
+      </c>
+      <c r="D700" t="s">
+        <v>14</v>
+      </c>
+      <c r="E700" t="s">
+        <v>25</v>
+      </c>
+      <c r="F700" t="s">
+        <v>25</v>
+      </c>
+      <c r="G700" t="s">
+        <v>25</v>
+      </c>
+      <c r="H700" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>2018</v>
+      </c>
+      <c r="B701" t="s">
+        <v>10</v>
+      </c>
+      <c r="C701" t="s">
+        <v>47</v>
+      </c>
+      <c r="D701" t="s">
+        <v>15</v>
+      </c>
+      <c r="E701" t="s">
+        <v>25</v>
+      </c>
+      <c r="F701" t="s">
+        <v>25</v>
+      </c>
+      <c r="G701" t="s">
+        <v>25</v>
+      </c>
+      <c r="H701" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>2018</v>
+      </c>
+      <c r="B702" t="s">
+        <v>10</v>
+      </c>
+      <c r="C702" t="s">
+        <v>47</v>
+      </c>
+      <c r="D702" t="s">
+        <v>16</v>
+      </c>
+      <c r="E702" t="s">
+        <v>25</v>
+      </c>
+      <c r="F702" t="s">
+        <v>25</v>
+      </c>
+      <c r="G702" t="s">
+        <v>25</v>
+      </c>
+      <c r="H702" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>2018</v>
+      </c>
+      <c r="B703" t="s">
+        <v>10</v>
+      </c>
+      <c r="C703" t="s">
+        <v>47</v>
+      </c>
+      <c r="D703" t="s">
+        <v>17</v>
+      </c>
+      <c r="E703" t="s">
+        <v>25</v>
+      </c>
+      <c r="F703" t="s">
+        <v>25</v>
+      </c>
+      <c r="G703" t="s">
+        <v>25</v>
+      </c>
+      <c r="H703" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>2019</v>
+      </c>
+      <c r="B704" t="s">
+        <v>10</v>
+      </c>
+      <c r="C704" t="s">
+        <v>47</v>
+      </c>
+      <c r="D704" t="s">
+        <v>18</v>
+      </c>
+      <c r="E704" t="s">
+        <v>25</v>
+      </c>
+      <c r="F704" t="s">
+        <v>25</v>
+      </c>
+      <c r="G704" t="s">
+        <v>25</v>
+      </c>
+      <c r="H704" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>2019</v>
+      </c>
+      <c r="B705" t="s">
+        <v>10</v>
+      </c>
+      <c r="C705" t="s">
+        <v>47</v>
+      </c>
+      <c r="D705" t="s">
+        <v>19</v>
+      </c>
+      <c r="E705" t="s">
+        <v>25</v>
+      </c>
+      <c r="F705" t="s">
+        <v>25</v>
+      </c>
+      <c r="G705" t="s">
+        <v>25</v>
+      </c>
+      <c r="H705" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>2019</v>
+      </c>
+      <c r="B706" t="s">
+        <v>10</v>
+      </c>
+      <c r="C706" t="s">
+        <v>47</v>
+      </c>
+      <c r="D706" t="s">
+        <v>20</v>
+      </c>
+      <c r="E706" t="s">
+        <v>25</v>
+      </c>
+      <c r="F706" t="s">
+        <v>25</v>
+      </c>
+      <c r="G706" t="s">
+        <v>25</v>
+      </c>
+      <c r="H706" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>2019</v>
+      </c>
+      <c r="B707" t="s">
+        <v>10</v>
+      </c>
+      <c r="C707" t="s">
+        <v>47</v>
+      </c>
+      <c r="D707" t="s">
+        <v>21</v>
+      </c>
+      <c r="E707" t="s">
+        <v>25</v>
+      </c>
+      <c r="F707" t="s">
+        <v>25</v>
+      </c>
+      <c r="G707" t="s">
+        <v>25</v>
+      </c>
+      <c r="H707" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>2019</v>
+      </c>
+      <c r="B708" t="s">
+        <v>10</v>
+      </c>
+      <c r="C708" t="s">
+        <v>47</v>
+      </c>
+      <c r="D708" t="s">
+        <v>22</v>
+      </c>
+      <c r="E708" t="s">
+        <v>25</v>
+      </c>
+      <c r="F708" t="s">
+        <v>25</v>
+      </c>
+      <c r="G708" t="s">
+        <v>25</v>
+      </c>
+      <c r="H708" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>2019</v>
+      </c>
+      <c r="B709" t="s">
+        <v>10</v>
+      </c>
+      <c r="C709" t="s">
+        <v>47</v>
+      </c>
+      <c r="D709" t="s">
+        <v>26</v>
+      </c>
+      <c r="E709" t="s">
+        <v>25</v>
+      </c>
+      <c r="F709" t="s">
+        <v>25</v>
+      </c>
+      <c r="G709" t="s">
+        <v>25</v>
+      </c>
+      <c r="H709" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>2019</v>
+      </c>
+      <c r="B710" t="s">
+        <v>10</v>
+      </c>
+      <c r="C710" t="s">
+        <v>47</v>
+      </c>
+      <c r="D710" t="s">
+        <v>11</v>
+      </c>
+      <c r="E710" t="s">
+        <v>25</v>
+      </c>
+      <c r="F710" t="s">
+        <v>25</v>
+      </c>
+      <c r="G710" t="s">
+        <v>25</v>
+      </c>
+      <c r="H710" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>2019</v>
+      </c>
+      <c r="B711" t="s">
+        <v>10</v>
+      </c>
+      <c r="C711" t="s">
+        <v>47</v>
+      </c>
+      <c r="D711" t="s">
+        <v>13</v>
+      </c>
+      <c r="E711" t="s">
+        <v>25</v>
+      </c>
+      <c r="F711" t="s">
+        <v>25</v>
+      </c>
+      <c r="G711" t="s">
+        <v>25</v>
+      </c>
+      <c r="H711" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>2019</v>
+      </c>
+      <c r="B712" t="s">
+        <v>10</v>
+      </c>
+      <c r="C712" t="s">
+        <v>47</v>
+      </c>
+      <c r="D712" t="s">
+        <v>14</v>
+      </c>
+      <c r="E712" t="s">
+        <v>25</v>
+      </c>
+      <c r="F712" t="s">
+        <v>25</v>
+      </c>
+      <c r="G712" t="s">
+        <v>25</v>
+      </c>
+      <c r="H712" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>2019</v>
+      </c>
+      <c r="B713" t="s">
+        <v>10</v>
+      </c>
+      <c r="C713" t="s">
+        <v>47</v>
+      </c>
+      <c r="D713" t="s">
+        <v>15</v>
+      </c>
+      <c r="E713" t="s">
+        <v>25</v>
+      </c>
+      <c r="F713" t="s">
+        <v>25</v>
+      </c>
+      <c r="G713" t="s">
+        <v>25</v>
+      </c>
+      <c r="H713" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>2019</v>
+      </c>
+      <c r="B714" t="s">
+        <v>10</v>
+      </c>
+      <c r="C714" t="s">
+        <v>47</v>
+      </c>
+      <c r="D714" t="s">
+        <v>16</v>
+      </c>
+      <c r="E714" t="s">
+        <v>25</v>
+      </c>
+      <c r="F714" t="s">
+        <v>25</v>
+      </c>
+      <c r="G714" t="s">
+        <v>25</v>
+      </c>
+      <c r="H714" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>2019</v>
+      </c>
+      <c r="B715" t="s">
+        <v>10</v>
+      </c>
+      <c r="C715" t="s">
+        <v>47</v>
+      </c>
+      <c r="D715" t="s">
+        <v>17</v>
+      </c>
+      <c r="E715" t="s">
+        <v>25</v>
+      </c>
+      <c r="F715" t="s">
+        <v>25</v>
+      </c>
+      <c r="G715" t="s">
+        <v>25</v>
+      </c>
+      <c r="H715" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>2020</v>
+      </c>
+      <c r="B716" t="s">
+        <v>10</v>
+      </c>
+      <c r="C716" t="s">
+        <v>47</v>
+      </c>
+      <c r="D716" t="s">
+        <v>18</v>
+      </c>
+      <c r="E716" t="s">
+        <v>25</v>
+      </c>
+      <c r="F716" t="s">
+        <v>25</v>
+      </c>
+      <c r="G716" t="s">
+        <v>25</v>
+      </c>
+      <c r="H716" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>2020</v>
+      </c>
+      <c r="B717" t="s">
+        <v>10</v>
+      </c>
+      <c r="C717" t="s">
+        <v>47</v>
+      </c>
+      <c r="D717" t="s">
+        <v>19</v>
+      </c>
+      <c r="E717" t="s">
+        <v>25</v>
+      </c>
+      <c r="F717" t="s">
+        <v>25</v>
+      </c>
+      <c r="G717" t="s">
+        <v>25</v>
+      </c>
+      <c r="H717" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>2020</v>
+      </c>
+      <c r="B718" t="s">
+        <v>10</v>
+      </c>
+      <c r="C718" t="s">
+        <v>47</v>
+      </c>
+      <c r="D718" t="s">
+        <v>20</v>
+      </c>
+      <c r="E718" t="s">
+        <v>25</v>
+      </c>
+      <c r="F718" t="s">
+        <v>25</v>
+      </c>
+      <c r="G718" t="s">
+        <v>25</v>
+      </c>
+      <c r="H718" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>2020</v>
+      </c>
+      <c r="B719" t="s">
+        <v>10</v>
+      </c>
+      <c r="C719" t="s">
+        <v>47</v>
+      </c>
+      <c r="D719" t="s">
+        <v>21</v>
+      </c>
+      <c r="E719" t="s">
+        <v>25</v>
+      </c>
+      <c r="F719" t="s">
+        <v>25</v>
+      </c>
+      <c r="G719" t="s">
+        <v>25</v>
+      </c>
+      <c r="H719" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>2020</v>
+      </c>
+      <c r="B720" t="s">
+        <v>10</v>
+      </c>
+      <c r="C720" t="s">
+        <v>47</v>
+      </c>
+      <c r="D720" t="s">
+        <v>22</v>
+      </c>
+      <c r="E720" t="s">
+        <v>25</v>
+      </c>
+      <c r="F720" t="s">
+        <v>25</v>
+      </c>
+      <c r="G720" t="s">
+        <v>25</v>
+      </c>
+      <c r="H720" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>2020</v>
+      </c>
+      <c r="B721" t="s">
+        <v>10</v>
+      </c>
+      <c r="C721" t="s">
+        <v>47</v>
+      </c>
+      <c r="D721" t="s">
+        <v>26</v>
+      </c>
+      <c r="E721" t="s">
+        <v>25</v>
+      </c>
+      <c r="F721" t="s">
+        <v>25</v>
+      </c>
+      <c r="G721" t="s">
+        <v>25</v>
+      </c>
+      <c r="H721" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>2020</v>
+      </c>
+      <c r="B722" t="s">
+        <v>10</v>
+      </c>
+      <c r="C722" t="s">
+        <v>47</v>
+      </c>
+      <c r="D722" t="s">
+        <v>11</v>
+      </c>
+      <c r="E722" t="s">
+        <v>25</v>
+      </c>
+      <c r="F722" t="s">
+        <v>25</v>
+      </c>
+      <c r="G722" t="s">
+        <v>25</v>
+      </c>
+      <c r="H722" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>2020</v>
+      </c>
+      <c r="B723" t="s">
+        <v>10</v>
+      </c>
+      <c r="C723" t="s">
+        <v>47</v>
+      </c>
+      <c r="D723" t="s">
+        <v>13</v>
+      </c>
+      <c r="E723" t="s">
+        <v>25</v>
+      </c>
+      <c r="F723" t="s">
+        <v>25</v>
+      </c>
+      <c r="G723" t="s">
+        <v>25</v>
+      </c>
+      <c r="H723" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>2020</v>
+      </c>
+      <c r="B724" t="s">
+        <v>10</v>
+      </c>
+      <c r="C724" t="s">
+        <v>47</v>
+      </c>
+      <c r="D724" t="s">
+        <v>14</v>
+      </c>
+      <c r="E724" t="s">
+        <v>25</v>
+      </c>
+      <c r="F724" t="s">
+        <v>25</v>
+      </c>
+      <c r="G724" t="s">
+        <v>25</v>
+      </c>
+      <c r="H724" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>2020</v>
+      </c>
+      <c r="B725" t="s">
+        <v>10</v>
+      </c>
+      <c r="C725" t="s">
+        <v>47</v>
+      </c>
+      <c r="D725" t="s">
+        <v>15</v>
+      </c>
+      <c r="E725" t="s">
+        <v>25</v>
+      </c>
+      <c r="F725" t="s">
+        <v>25</v>
+      </c>
+      <c r="G725" t="s">
+        <v>25</v>
+      </c>
+      <c r="H725" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>2020</v>
+      </c>
+      <c r="B726" t="s">
+        <v>10</v>
+      </c>
+      <c r="C726" t="s">
+        <v>47</v>
+      </c>
+      <c r="D726" t="s">
+        <v>16</v>
+      </c>
+      <c r="E726" t="s">
+        <v>25</v>
+      </c>
+      <c r="F726" t="s">
+        <v>25</v>
+      </c>
+      <c r="G726" t="s">
+        <v>25</v>
+      </c>
+      <c r="H726" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>2020</v>
+      </c>
+      <c r="B727" t="s">
+        <v>10</v>
+      </c>
+      <c r="C727" t="s">
+        <v>47</v>
+      </c>
+      <c r="D727" t="s">
+        <v>17</v>
+      </c>
+      <c r="E727" t="s">
+        <v>25</v>
+      </c>
+      <c r="F727" t="s">
+        <v>25</v>
+      </c>
+      <c r="G727" t="s">
+        <v>25</v>
+      </c>
+      <c r="H727" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>2015</v>
+      </c>
+      <c r="B728" t="s">
+        <v>10</v>
+      </c>
+      <c r="C728" t="s">
+        <v>49</v>
+      </c>
+      <c r="D728" t="s">
+        <v>11</v>
+      </c>
+      <c r="E728">
+        <v>57.6</v>
+      </c>
+      <c r="F728">
+        <v>64.5</v>
+      </c>
+      <c r="G728">
+        <v>71.2</v>
+      </c>
+      <c r="H728" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>2015</v>
+      </c>
+      <c r="B729" t="s">
+        <v>10</v>
+      </c>
+      <c r="C729" t="s">
+        <v>49</v>
+      </c>
+      <c r="D729" t="s">
+        <v>13</v>
+      </c>
+      <c r="E729">
+        <v>52.2</v>
+      </c>
+      <c r="F729">
+        <v>63.8</v>
+      </c>
+      <c r="G729">
+        <v>72.5</v>
+      </c>
+      <c r="H729" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>2015</v>
+      </c>
+      <c r="B730" t="s">
+        <v>10</v>
+      </c>
+      <c r="C730" t="s">
+        <v>49</v>
+      </c>
+      <c r="D730" t="s">
+        <v>14</v>
+      </c>
+      <c r="E730">
+        <v>51.5</v>
+      </c>
+      <c r="F730">
+        <v>59.6</v>
+      </c>
+      <c r="G730">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H730" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>2015</v>
+      </c>
+      <c r="B731" t="s">
+        <v>10</v>
+      </c>
+      <c r="C731" t="s">
+        <v>49</v>
+      </c>
+      <c r="D731" t="s">
+        <v>15</v>
+      </c>
+      <c r="E731">
+        <v>41.3</v>
+      </c>
+      <c r="F731">
+        <v>52</v>
+      </c>
+      <c r="G731">
+        <v>60.5</v>
+      </c>
+      <c r="H731" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>2015</v>
+      </c>
+      <c r="B732" t="s">
+        <v>10</v>
+      </c>
+      <c r="C732" t="s">
+        <v>49</v>
+      </c>
+      <c r="D732" t="s">
+        <v>16</v>
+      </c>
+      <c r="E732">
+        <v>33.6</v>
+      </c>
+      <c r="F732">
+        <v>42.7</v>
+      </c>
+      <c r="G732">
+        <v>53.4</v>
+      </c>
+      <c r="H732" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>2015</v>
+      </c>
+      <c r="B733" t="s">
+        <v>10</v>
+      </c>
+      <c r="C733" t="s">
+        <v>49</v>
+      </c>
+      <c r="D733" t="s">
+        <v>17</v>
+      </c>
+      <c r="E733" t="s">
+        <v>25</v>
+      </c>
+      <c r="F733" t="s">
+        <v>25</v>
+      </c>
+      <c r="G733" t="s">
+        <v>25</v>
+      </c>
+      <c r="H733" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>2016</v>
+      </c>
+      <c r="B734" t="s">
+        <v>10</v>
+      </c>
+      <c r="C734" t="s">
+        <v>49</v>
+      </c>
+      <c r="D734" t="s">
+        <v>18</v>
+      </c>
+      <c r="E734">
+        <v>32.6</v>
+      </c>
+      <c r="F734">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="G734">
+        <v>45.1</v>
+      </c>
+      <c r="H734" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>2016</v>
+      </c>
+      <c r="B735" t="s">
+        <v>10</v>
+      </c>
+      <c r="C735" t="s">
+        <v>49</v>
+      </c>
+      <c r="D735" t="s">
+        <v>19</v>
+      </c>
+      <c r="E735">
+        <v>34.6</v>
+      </c>
+      <c r="F735">
+        <v>45.6</v>
+      </c>
+      <c r="G735">
+        <v>52.2</v>
+      </c>
+      <c r="H735" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>2016</v>
+      </c>
+      <c r="B736" t="s">
+        <v>10</v>
+      </c>
+      <c r="C736" t="s">
+        <v>49</v>
+      </c>
+      <c r="D736" t="s">
+        <v>20</v>
+      </c>
+      <c r="E736">
+        <v>37</v>
+      </c>
+      <c r="F736">
+        <v>46.7</v>
+      </c>
+      <c r="G736">
+        <v>56.3</v>
+      </c>
+      <c r="H736" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>2016</v>
+      </c>
+      <c r="B737" t="s">
+        <v>10</v>
+      </c>
+      <c r="C737" t="s">
+        <v>49</v>
+      </c>
+      <c r="D737" t="s">
+        <v>21</v>
+      </c>
+      <c r="E737">
+        <v>39.6</v>
+      </c>
+      <c r="F737">
+        <v>51</v>
+      </c>
+      <c r="G737">
+        <v>63.7</v>
+      </c>
+      <c r="H737" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>2016</v>
+      </c>
+      <c r="B738" t="s">
+        <v>10</v>
+      </c>
+      <c r="C738" t="s">
+        <v>49</v>
+      </c>
+      <c r="D738" t="s">
+        <v>22</v>
+      </c>
+      <c r="E738">
+        <v>44.3</v>
+      </c>
+      <c r="F738">
+        <v>55.3</v>
+      </c>
+      <c r="G738">
+        <v>67.8</v>
+      </c>
+      <c r="H738" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>2016</v>
+      </c>
+      <c r="B739" t="s">
+        <v>10</v>
+      </c>
+      <c r="C739" t="s">
+        <v>49</v>
+      </c>
+      <c r="D739" t="s">
+        <v>26</v>
+      </c>
+      <c r="E739">
+        <v>52.728999999999999</v>
+      </c>
+      <c r="F739">
+        <v>64.668117013888562</v>
+      </c>
+      <c r="G739">
+        <v>72.783000000000001</v>
+      </c>
+      <c r="H739" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>2016</v>
+      </c>
+      <c r="B740" t="s">
+        <v>10</v>
+      </c>
+      <c r="C740" t="s">
+        <v>49</v>
+      </c>
+      <c r="D740" t="s">
+        <v>11</v>
+      </c>
+      <c r="E740">
+        <v>57.978999999999999</v>
+      </c>
+      <c r="F740">
+        <v>66.333554099462361</v>
+      </c>
+      <c r="G740">
+        <v>74.813000000000002</v>
+      </c>
+      <c r="H740" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>2016</v>
+      </c>
+      <c r="B741" t="s">
+        <v>10</v>
+      </c>
+      <c r="C741" t="s">
+        <v>49</v>
+      </c>
+      <c r="D741" t="s">
+        <v>13</v>
+      </c>
+      <c r="E741">
+        <v>53.472000000000001</v>
+      </c>
+      <c r="F741">
+        <v>64.012918010752713</v>
+      </c>
+      <c r="G741">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="H741" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>2016</v>
+      </c>
+      <c r="B742" t="s">
+        <v>10</v>
+      </c>
+      <c r="C742" t="s">
+        <v>49</v>
+      </c>
+      <c r="D742" t="s">
+        <v>14</v>
+      </c>
+      <c r="E742">
+        <v>50.046999999999997</v>
+      </c>
+      <c r="F742">
+        <v>59.082903846153933</v>
+      </c>
+      <c r="G742">
+        <v>68.055999999999997</v>
+      </c>
+      <c r="H742" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>2016</v>
+      </c>
+      <c r="B743" t="s">
+        <v>10</v>
+      </c>
+      <c r="C743" t="s">
+        <v>49</v>
+      </c>
+      <c r="D743" t="s">
+        <v>15</v>
+      </c>
+      <c r="E743">
+        <v>44.082000000000001</v>
+      </c>
+      <c r="F743">
+        <v>52.185661290322429</v>
+      </c>
+      <c r="G743">
+        <v>62.790999999999997</v>
+      </c>
+      <c r="H743" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>2016</v>
+      </c>
+      <c r="B744" t="s">
+        <v>10</v>
+      </c>
+      <c r="C744" t="s">
+        <v>49</v>
+      </c>
+      <c r="D744" t="s">
+        <v>16</v>
+      </c>
+      <c r="E744">
+        <v>35.491999999999997</v>
+      </c>
+      <c r="F744">
+        <v>45.037106944444446</v>
+      </c>
+      <c r="G744">
+        <v>53.732999999999997</v>
+      </c>
+      <c r="H744" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>2016</v>
+      </c>
+      <c r="B745" t="s">
+        <v>10</v>
+      </c>
+      <c r="C745" t="s">
+        <v>49</v>
+      </c>
+      <c r="D745" t="s">
+        <v>17</v>
+      </c>
+      <c r="E745">
+        <v>32.042999999999999</v>
+      </c>
+      <c r="F745">
+        <v>35.52761659946264</v>
+      </c>
+      <c r="G745">
+        <v>42.524999999999999</v>
+      </c>
+      <c r="H745" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>2017</v>
+      </c>
+      <c r="B746" t="s">
+        <v>10</v>
+      </c>
+      <c r="C746" t="s">
+        <v>49</v>
+      </c>
+      <c r="D746" t="s">
+        <v>18</v>
+      </c>
+      <c r="E746">
+        <v>32.042999999999999</v>
+      </c>
+      <c r="F746">
+        <v>36.987669690860436</v>
+      </c>
+      <c r="G746">
+        <v>44.4</v>
+      </c>
+      <c r="H746" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>2017</v>
+      </c>
+      <c r="B747" t="s">
+        <v>10</v>
+      </c>
+      <c r="C747" t="s">
+        <v>49</v>
+      </c>
+      <c r="D747" t="s">
+        <v>19</v>
+      </c>
+      <c r="E747">
+        <v>32.091999999999999</v>
+      </c>
+      <c r="F747">
+        <v>41.568220610118971</v>
+      </c>
+      <c r="G747">
+        <v>53.69</v>
+      </c>
+      <c r="H747" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>2017</v>
+      </c>
+      <c r="B748" t="s">
+        <v>10</v>
+      </c>
+      <c r="C748" t="s">
+        <v>49</v>
+      </c>
+      <c r="D748" t="s">
+        <v>20</v>
+      </c>
+      <c r="E748">
+        <v>35.395000000000003</v>
+      </c>
+      <c r="F748">
+        <v>46.971123655913857</v>
+      </c>
+      <c r="G748">
+        <v>60.69</v>
+      </c>
+      <c r="H748" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>2017</v>
+      </c>
+      <c r="B749" t="s">
+        <v>10</v>
+      </c>
+      <c r="C749" t="s">
+        <v>49</v>
+      </c>
+      <c r="D749" t="s">
+        <v>21</v>
+      </c>
+      <c r="E749">
+        <v>40.531999999999996</v>
+      </c>
+      <c r="F749">
+        <v>51.724931597222294</v>
+      </c>
+      <c r="G749">
+        <v>65.403000000000006</v>
+      </c>
+      <c r="H749" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>2017</v>
+      </c>
+      <c r="B750" t="s">
+        <v>10</v>
+      </c>
+      <c r="C750" t="s">
+        <v>49</v>
+      </c>
+      <c r="D750" t="s">
+        <v>22</v>
+      </c>
+      <c r="E750">
+        <v>45.941000000000003</v>
+      </c>
+      <c r="F750">
+        <v>56.288931451612946</v>
+      </c>
+      <c r="G750">
+        <v>68.784999999999997</v>
+      </c>
+      <c r="H750" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>2017</v>
+      </c>
+      <c r="B751" t="s">
+        <v>10</v>
+      </c>
+      <c r="C751" t="s">
+        <v>49</v>
+      </c>
+      <c r="D751" t="s">
+        <v>26</v>
+      </c>
+      <c r="E751">
+        <v>55.081000000000003</v>
+      </c>
+      <c r="F751">
+        <v>63.349746874999909</v>
+      </c>
+      <c r="G751">
+        <v>72.05</v>
+      </c>
+      <c r="H751" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>2017</v>
+      </c>
+      <c r="B752" t="s">
+        <v>10</v>
+      </c>
+      <c r="C752" t="s">
+        <v>49</v>
+      </c>
+      <c r="D752" t="s">
+        <v>11</v>
+      </c>
+      <c r="E752">
+        <v>57.073999999999998</v>
+      </c>
+      <c r="F752">
+        <v>68.105180443548321</v>
+      </c>
+      <c r="G752">
+        <v>75.117000000000004</v>
+      </c>
+      <c r="H752" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>2017</v>
+      </c>
+      <c r="B753" t="s">
+        <v>10</v>
+      </c>
+      <c r="C753" t="s">
+        <v>49</v>
+      </c>
+      <c r="D753" t="s">
+        <v>13</v>
+      </c>
+      <c r="E753">
+        <v>57.204000000000001</v>
+      </c>
+      <c r="F753">
+        <v>63.656966733870831</v>
+      </c>
+      <c r="G753">
+        <v>70.459000000000003</v>
+      </c>
+      <c r="H753" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>2017</v>
+      </c>
+      <c r="B754" t="s">
+        <v>10</v>
+      </c>
+      <c r="C754" t="s">
+        <v>49</v>
+      </c>
+      <c r="D754" t="s">
+        <v>14</v>
+      </c>
+      <c r="E754">
+        <v>48.314999999999998</v>
+      </c>
+      <c r="F754">
+        <v>57.716976736111178</v>
+      </c>
+      <c r="G754">
+        <v>67.585999999999999</v>
+      </c>
+      <c r="H754" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>2017</v>
+      </c>
+      <c r="B755" t="s">
+        <v>10</v>
+      </c>
+      <c r="C755" t="s">
+        <v>49</v>
+      </c>
+      <c r="D755" t="s">
+        <v>15</v>
+      </c>
+      <c r="E755">
+        <v>36.313000000000002</v>
+      </c>
+      <c r="F755">
+        <v>48.986888440860177</v>
+      </c>
+      <c r="G755">
+        <v>58.497999999999998</v>
+      </c>
+      <c r="H755" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>2017</v>
+      </c>
+      <c r="B756" t="s">
+        <v>10</v>
+      </c>
+      <c r="C756" t="s">
+        <v>49</v>
+      </c>
+      <c r="D756" t="s">
+        <v>16</v>
+      </c>
+      <c r="E756">
+        <v>36.072000000000003</v>
+      </c>
+      <c r="F756">
+        <v>43</v>
+      </c>
+      <c r="G756">
+        <v>50.576000000000001</v>
+      </c>
+      <c r="H756" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>2017</v>
+      </c>
+      <c r="B757" t="s">
+        <v>10</v>
+      </c>
+      <c r="C757" t="s">
+        <v>49</v>
+      </c>
+      <c r="D757" t="s">
+        <v>17</v>
+      </c>
+      <c r="E757">
+        <v>31.841999999999999</v>
+      </c>
+      <c r="F757">
+        <v>36.789527890000002</v>
+      </c>
+      <c r="G757">
+        <v>47.018999999999998</v>
+      </c>
+      <c r="H757" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>2018</v>
+      </c>
+      <c r="B758" t="s">
+        <v>10</v>
+      </c>
+      <c r="C758" t="s">
+        <v>49</v>
+      </c>
+      <c r="D758" t="s">
+        <v>18</v>
+      </c>
+      <c r="E758">
+        <v>31.841999999999999</v>
+      </c>
+      <c r="F758">
+        <v>37.156152550000002</v>
+      </c>
+      <c r="G758">
+        <v>44.627000000000002</v>
+      </c>
+      <c r="H758" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>2018</v>
+      </c>
+      <c r="B759" t="s">
+        <v>10</v>
+      </c>
+      <c r="C759" t="s">
+        <v>49</v>
+      </c>
+      <c r="D759" t="s">
+        <v>19</v>
+      </c>
+      <c r="E759">
+        <v>31.891999999999999</v>
+      </c>
+      <c r="F759">
+        <v>36.309136530000004</v>
+      </c>
+      <c r="G759">
+        <v>45.082000000000001</v>
+      </c>
+      <c r="H759" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>2018</v>
+      </c>
+      <c r="B760" t="s">
+        <v>10</v>
+      </c>
+      <c r="C760" t="s">
+        <v>49</v>
+      </c>
+      <c r="D760" t="s">
+        <v>20</v>
+      </c>
+      <c r="E760">
+        <v>31.942</v>
+      </c>
+      <c r="F760">
+        <v>44.057107860000002</v>
+      </c>
+      <c r="G760">
+        <v>55.298999999999999</v>
+      </c>
+      <c r="H760" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>2018</v>
+      </c>
+      <c r="B761" t="s">
+        <v>10</v>
+      </c>
+      <c r="C761" t="s">
+        <v>49</v>
+      </c>
+      <c r="D761" t="s">
+        <v>21</v>
+      </c>
+      <c r="E761">
+        <v>34.468000000000004</v>
+      </c>
+      <c r="F761">
+        <v>48.10791562</v>
+      </c>
+      <c r="G761">
+        <v>64.503</v>
+      </c>
+      <c r="H761" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>2018</v>
+      </c>
+      <c r="B762" t="s">
+        <v>10</v>
+      </c>
+      <c r="C762" t="s">
+        <v>49</v>
+      </c>
+      <c r="D762" t="s">
+        <v>22</v>
+      </c>
+      <c r="E762">
+        <v>46.750999999999998</v>
+      </c>
+      <c r="F762">
+        <v>58.56253091</v>
+      </c>
+      <c r="G762">
+        <v>71.834000000000003</v>
+      </c>
+      <c r="H762" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>2018</v>
+      </c>
+      <c r="B763" t="s">
+        <v>10</v>
+      </c>
+      <c r="C763" t="s">
+        <v>49</v>
+      </c>
+      <c r="D763" t="s">
+        <v>26</v>
+      </c>
+      <c r="E763">
+        <v>53.121000000000002</v>
+      </c>
+      <c r="F763">
+        <v>63.784956600000001</v>
+      </c>
+      <c r="G763">
+        <v>75.028999999999996</v>
+      </c>
+      <c r="H763" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>2018</v>
+      </c>
+      <c r="B764" t="s">
+        <v>10</v>
+      </c>
+      <c r="C764" t="s">
+        <v>49</v>
+      </c>
+      <c r="D764" t="s">
+        <v>11</v>
+      </c>
+      <c r="E764">
+        <v>55.905999999999999</v>
+      </c>
+      <c r="F764">
+        <v>66.420575270000001</v>
+      </c>
+      <c r="G764">
+        <v>75.376000000000005</v>
+      </c>
+      <c r="H764" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>2018</v>
+      </c>
+      <c r="B765" t="s">
+        <v>10</v>
+      </c>
+      <c r="C765" t="s">
+        <v>49</v>
+      </c>
+      <c r="D765" t="s">
+        <v>13</v>
+      </c>
+      <c r="E765">
+        <v>53.558999999999997</v>
+      </c>
+      <c r="F765">
+        <v>62.804079969999997</v>
+      </c>
+      <c r="G765">
+        <v>71.576999999999998</v>
+      </c>
+      <c r="H765" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>2018</v>
+      </c>
+      <c r="B766" t="s">
+        <v>10</v>
+      </c>
+      <c r="C766" t="s">
+        <v>49</v>
+      </c>
+      <c r="D766" t="s">
+        <v>14</v>
+      </c>
+      <c r="E766">
+        <v>49.161000000000001</v>
+      </c>
+      <c r="F766">
+        <v>59.130412149999998</v>
+      </c>
+      <c r="G766">
+        <v>66.343999999999994</v>
+      </c>
+      <c r="H766" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>2018</v>
+      </c>
+      <c r="B767" t="s">
+        <v>10</v>
+      </c>
+      <c r="C767" t="s">
+        <v>49</v>
+      </c>
+      <c r="D767" t="s">
+        <v>15</v>
+      </c>
+      <c r="E767">
+        <v>39.502000000000002</v>
+      </c>
+      <c r="F767">
+        <v>48.569569889999997</v>
+      </c>
+      <c r="G767">
+        <v>57.591999999999999</v>
+      </c>
+      <c r="H767" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>2018</v>
+      </c>
+      <c r="B768" t="s">
+        <v>10</v>
+      </c>
+      <c r="C768" t="s">
+        <v>49</v>
+      </c>
+      <c r="D768" t="s">
+        <v>16</v>
+      </c>
+      <c r="E768">
+        <v>35.540999999999997</v>
+      </c>
+      <c r="F768">
+        <v>41.790882289999999</v>
+      </c>
+      <c r="G768">
+        <v>47.334000000000003</v>
+      </c>
+      <c r="H768" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>2018</v>
+      </c>
+      <c r="B769" t="s">
+        <v>10</v>
+      </c>
+      <c r="C769" t="s">
+        <v>49</v>
+      </c>
+      <c r="D769" t="s">
+        <v>17</v>
+      </c>
+      <c r="E769">
+        <v>33.680999999999997</v>
+      </c>
+      <c r="F769">
+        <v>38.399453970000003</v>
+      </c>
+      <c r="G769">
+        <v>43.488</v>
+      </c>
+      <c r="H769" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>2019</v>
+      </c>
+      <c r="B770" t="s">
+        <v>10</v>
+      </c>
+      <c r="C770" t="s">
+        <v>49</v>
+      </c>
+      <c r="D770" t="s">
+        <v>18</v>
+      </c>
+      <c r="E770">
+        <v>33.088999999999999</v>
+      </c>
+      <c r="F770">
+        <v>37.89860685</v>
+      </c>
+      <c r="G770">
+        <v>41.600999999999999</v>
+      </c>
+      <c r="H770" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>2019</v>
+      </c>
+      <c r="B771" t="s">
+        <v>10</v>
+      </c>
+      <c r="C771" t="s">
+        <v>49</v>
+      </c>
+      <c r="D771" t="s">
+        <v>19</v>
+      </c>
+      <c r="E771">
+        <v>32.542000000000002</v>
+      </c>
+      <c r="F771">
+        <v>35.899302140000003</v>
+      </c>
+      <c r="G771">
+        <v>42.155999999999999</v>
+      </c>
+      <c r="H771" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>2019</v>
+      </c>
+      <c r="B772" t="s">
+        <v>10</v>
+      </c>
+      <c r="C772" t="s">
+        <v>49</v>
+      </c>
+      <c r="D772" t="s">
+        <v>20</v>
+      </c>
+      <c r="E772" t="s">
+        <v>25</v>
+      </c>
+      <c r="F772" t="s">
+        <v>25</v>
+      </c>
+      <c r="G772" t="s">
+        <v>25</v>
+      </c>
+      <c r="H772" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>2019</v>
+      </c>
+      <c r="B773" t="s">
+        <v>10</v>
+      </c>
+      <c r="C773" t="s">
+        <v>49</v>
+      </c>
+      <c r="D773" t="s">
+        <v>21</v>
+      </c>
+      <c r="E773" t="s">
+        <v>25</v>
+      </c>
+      <c r="F773" t="s">
+        <v>25</v>
+      </c>
+      <c r="G773" t="s">
+        <v>25</v>
+      </c>
+      <c r="H773" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>2019</v>
+      </c>
+      <c r="B774" t="s">
+        <v>10</v>
+      </c>
+      <c r="C774" t="s">
+        <v>49</v>
+      </c>
+      <c r="D774" t="s">
+        <v>22</v>
+      </c>
+      <c r="E774" t="s">
+        <v>25</v>
+      </c>
+      <c r="F774" t="s">
+        <v>25</v>
+      </c>
+      <c r="G774" t="s">
+        <v>25</v>
+      </c>
+      <c r="H774" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>2019</v>
+      </c>
+      <c r="B775" t="s">
+        <v>10</v>
+      </c>
+      <c r="C775" t="s">
+        <v>49</v>
+      </c>
+      <c r="D775" t="s">
+        <v>26</v>
+      </c>
+      <c r="E775" t="s">
+        <v>25</v>
+      </c>
+      <c r="F775" t="s">
+        <v>25</v>
+      </c>
+      <c r="G775" t="s">
+        <v>25</v>
+      </c>
+      <c r="H775" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>2019</v>
+      </c>
+      <c r="B776" t="s">
+        <v>10</v>
+      </c>
+      <c r="C776" t="s">
+        <v>49</v>
+      </c>
+      <c r="D776" t="s">
+        <v>11</v>
+      </c>
+      <c r="E776" t="s">
+        <v>25</v>
+      </c>
+      <c r="F776" t="s">
+        <v>25</v>
+      </c>
+      <c r="G776" t="s">
+        <v>25</v>
+      </c>
+      <c r="H776" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>2019</v>
+      </c>
+      <c r="B777" t="s">
+        <v>10</v>
+      </c>
+      <c r="C777" t="s">
+        <v>49</v>
+      </c>
+      <c r="D777" t="s">
+        <v>13</v>
+      </c>
+      <c r="E777" t="s">
+        <v>25</v>
+      </c>
+      <c r="F777" t="s">
+        <v>25</v>
+      </c>
+      <c r="G777" t="s">
+        <v>25</v>
+      </c>
+      <c r="H777" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>2019</v>
+      </c>
+      <c r="B778" t="s">
+        <v>10</v>
+      </c>
+      <c r="C778" t="s">
+        <v>49</v>
+      </c>
+      <c r="D778" t="s">
+        <v>14</v>
+      </c>
+      <c r="E778" t="s">
+        <v>25</v>
+      </c>
+      <c r="F778" t="s">
+        <v>25</v>
+      </c>
+      <c r="G778" t="s">
+        <v>25</v>
+      </c>
+      <c r="H778" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>2019</v>
+      </c>
+      <c r="B779" t="s">
+        <v>10</v>
+      </c>
+      <c r="C779" t="s">
+        <v>49</v>
+      </c>
+      <c r="D779" t="s">
+        <v>15</v>
+      </c>
+      <c r="E779" t="s">
+        <v>25</v>
+      </c>
+      <c r="F779" t="s">
+        <v>25</v>
+      </c>
+      <c r="G779" t="s">
+        <v>25</v>
+      </c>
+      <c r="H779" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>2019</v>
+      </c>
+      <c r="B780" t="s">
+        <v>10</v>
+      </c>
+      <c r="C780" t="s">
+        <v>49</v>
+      </c>
+      <c r="D780" t="s">
+        <v>16</v>
+      </c>
+      <c r="E780" t="s">
+        <v>25</v>
+      </c>
+      <c r="F780" t="s">
+        <v>25</v>
+      </c>
+      <c r="G780" t="s">
+        <v>25</v>
+      </c>
+      <c r="H780" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>2019</v>
+      </c>
+      <c r="B781" t="s">
+        <v>10</v>
+      </c>
+      <c r="C781" t="s">
+        <v>49</v>
+      </c>
+      <c r="D781" t="s">
+        <v>17</v>
+      </c>
+      <c r="E781" t="s">
+        <v>25</v>
+      </c>
+      <c r="F781" t="s">
+        <v>25</v>
+      </c>
+      <c r="G781" t="s">
+        <v>25</v>
+      </c>
+      <c r="H781" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>2020</v>
+      </c>
+      <c r="B782" t="s">
+        <v>10</v>
+      </c>
+      <c r="C782" t="s">
+        <v>49</v>
+      </c>
+      <c r="D782" t="s">
+        <v>18</v>
+      </c>
+      <c r="E782" t="s">
+        <v>25</v>
+      </c>
+      <c r="F782" t="s">
+        <v>25</v>
+      </c>
+      <c r="G782" t="s">
+        <v>25</v>
+      </c>
+      <c r="H782" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>2020</v>
+      </c>
+      <c r="B783" t="s">
+        <v>10</v>
+      </c>
+      <c r="C783" t="s">
+        <v>49</v>
+      </c>
+      <c r="D783" t="s">
+        <v>19</v>
+      </c>
+      <c r="E783" t="s">
+        <v>25</v>
+      </c>
+      <c r="F783" t="s">
+        <v>25</v>
+      </c>
+      <c r="G783" t="s">
+        <v>25</v>
+      </c>
+      <c r="H783" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>2020</v>
+      </c>
+      <c r="B784" t="s">
+        <v>10</v>
+      </c>
+      <c r="C784" t="s">
+        <v>49</v>
+      </c>
+      <c r="D784" t="s">
+        <v>20</v>
+      </c>
+      <c r="E784" t="s">
+        <v>25</v>
+      </c>
+      <c r="F784" t="s">
+        <v>25</v>
+      </c>
+      <c r="G784" t="s">
+        <v>25</v>
+      </c>
+      <c r="H784" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>2020</v>
+      </c>
+      <c r="B785" t="s">
+        <v>10</v>
+      </c>
+      <c r="C785" t="s">
+        <v>49</v>
+      </c>
+      <c r="D785" t="s">
+        <v>21</v>
+      </c>
+      <c r="E785" t="s">
+        <v>25</v>
+      </c>
+      <c r="F785" t="s">
+        <v>25</v>
+      </c>
+      <c r="G785" t="s">
+        <v>25</v>
+      </c>
+      <c r="H785" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>2020</v>
+      </c>
+      <c r="B786" t="s">
+        <v>10</v>
+      </c>
+      <c r="C786" t="s">
+        <v>49</v>
+      </c>
+      <c r="D786" t="s">
+        <v>22</v>
+      </c>
+      <c r="E786" t="s">
+        <v>25</v>
+      </c>
+      <c r="F786" t="s">
+        <v>25</v>
+      </c>
+      <c r="G786" t="s">
+        <v>25</v>
+      </c>
+      <c r="H786" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>2020</v>
+      </c>
+      <c r="B787" t="s">
+        <v>10</v>
+      </c>
+      <c r="C787" t="s">
+        <v>49</v>
+      </c>
+      <c r="D787" t="s">
+        <v>26</v>
+      </c>
+      <c r="E787" t="s">
+        <v>25</v>
+      </c>
+      <c r="F787" t="s">
+        <v>25</v>
+      </c>
+      <c r="G787" t="s">
+        <v>25</v>
+      </c>
+      <c r="H787" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>2020</v>
+      </c>
+      <c r="B788" t="s">
+        <v>10</v>
+      </c>
+      <c r="C788" t="s">
+        <v>49</v>
+      </c>
+      <c r="D788" t="s">
+        <v>11</v>
+      </c>
+      <c r="E788" t="s">
+        <v>25</v>
+      </c>
+      <c r="F788" t="s">
+        <v>25</v>
+      </c>
+      <c r="G788" t="s">
+        <v>25</v>
+      </c>
+      <c r="H788" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>2020</v>
+      </c>
+      <c r="B789" t="s">
+        <v>10</v>
+      </c>
+      <c r="C789" t="s">
+        <v>49</v>
+      </c>
+      <c r="D789" t="s">
+        <v>13</v>
+      </c>
+      <c r="E789" t="s">
+        <v>25</v>
+      </c>
+      <c r="F789" t="s">
+        <v>25</v>
+      </c>
+      <c r="G789" t="s">
+        <v>25</v>
+      </c>
+      <c r="H789" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>2020</v>
+      </c>
+      <c r="B790" t="s">
+        <v>10</v>
+      </c>
+      <c r="C790" t="s">
+        <v>49</v>
+      </c>
+      <c r="D790" t="s">
+        <v>14</v>
+      </c>
+      <c r="E790" t="s">
+        <v>25</v>
+      </c>
+      <c r="F790" t="s">
+        <v>25</v>
+      </c>
+      <c r="G790" t="s">
+        <v>25</v>
+      </c>
+      <c r="H790" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>2020</v>
+      </c>
+      <c r="B791" t="s">
+        <v>10</v>
+      </c>
+      <c r="C791" t="s">
+        <v>49</v>
+      </c>
+      <c r="D791" t="s">
+        <v>15</v>
+      </c>
+      <c r="E791" t="s">
+        <v>25</v>
+      </c>
+      <c r="F791" t="s">
+        <v>25</v>
+      </c>
+      <c r="G791" t="s">
+        <v>25</v>
+      </c>
+      <c r="H791" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>2020</v>
+      </c>
+      <c r="B792" t="s">
+        <v>10</v>
+      </c>
+      <c r="C792" t="s">
+        <v>49</v>
+      </c>
+      <c r="D792" t="s">
+        <v>16</v>
+      </c>
+      <c r="E792" t="s">
+        <v>25</v>
+      </c>
+      <c r="F792" t="s">
+        <v>25</v>
+      </c>
+      <c r="G792" t="s">
+        <v>25</v>
+      </c>
+      <c r="H792" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>2020</v>
+      </c>
+      <c r="B793" t="s">
+        <v>10</v>
+      </c>
+      <c r="C793" t="s">
+        <v>49</v>
+      </c>
+      <c r="D793" t="s">
+        <v>17</v>
+      </c>
+      <c r="E793" t="s">
+        <v>25</v>
+      </c>
+      <c r="F793" t="s">
+        <v>25</v>
+      </c>
+      <c r="G793" t="s">
+        <v>25</v>
+      </c>
+      <c r="H793" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>2015</v>
+      </c>
+      <c r="B794" t="s">
+        <v>10</v>
+      </c>
+      <c r="C794" t="s">
+        <v>50</v>
+      </c>
+      <c r="D794" t="s">
+        <v>11</v>
+      </c>
+      <c r="H794" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>2015</v>
+      </c>
+      <c r="B795" t="s">
+        <v>10</v>
+      </c>
+      <c r="C795" t="s">
+        <v>50</v>
+      </c>
+      <c r="D795" t="s">
+        <v>13</v>
+      </c>
+      <c r="H795" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>2015</v>
+      </c>
+      <c r="B796" t="s">
+        <v>10</v>
+      </c>
+      <c r="C796" t="s">
+        <v>50</v>
+      </c>
+      <c r="D796" t="s">
+        <v>14</v>
+      </c>
+      <c r="H796" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>2015</v>
+      </c>
+      <c r="B797" t="s">
+        <v>10</v>
+      </c>
+      <c r="C797" t="s">
+        <v>50</v>
+      </c>
+      <c r="D797" t="s">
+        <v>15</v>
+      </c>
+      <c r="H797" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>2015</v>
+      </c>
+      <c r="B798" t="s">
+        <v>10</v>
+      </c>
+      <c r="C798" t="s">
+        <v>50</v>
+      </c>
+      <c r="D798" t="s">
+        <v>16</v>
+      </c>
+      <c r="H798" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>2015</v>
+      </c>
+      <c r="B799" t="s">
+        <v>10</v>
+      </c>
+      <c r="C799" t="s">
+        <v>50</v>
+      </c>
+      <c r="D799" t="s">
+        <v>17</v>
+      </c>
+      <c r="H799" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>2016</v>
+      </c>
+      <c r="B800" t="s">
+        <v>10</v>
+      </c>
+      <c r="C800" t="s">
+        <v>50</v>
+      </c>
+      <c r="D800" t="s">
+        <v>18</v>
+      </c>
+      <c r="H800" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>2016</v>
+      </c>
+      <c r="B801" t="s">
+        <v>10</v>
+      </c>
+      <c r="C801" t="s">
+        <v>50</v>
+      </c>
+      <c r="D801" t="s">
+        <v>19</v>
+      </c>
+      <c r="H801" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>2016</v>
+      </c>
+      <c r="B802" t="s">
+        <v>10</v>
+      </c>
+      <c r="C802" t="s">
+        <v>50</v>
+      </c>
+      <c r="D802" t="s">
+        <v>20</v>
+      </c>
+      <c r="H802" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>2016</v>
+      </c>
+      <c r="B803" t="s">
+        <v>10</v>
+      </c>
+      <c r="C803" t="s">
+        <v>50</v>
+      </c>
+      <c r="D803" t="s">
+        <v>21</v>
+      </c>
+      <c r="H803" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>2016</v>
+      </c>
+      <c r="B804" t="s">
+        <v>10</v>
+      </c>
+      <c r="C804" t="s">
+        <v>50</v>
+      </c>
+      <c r="D804" t="s">
+        <v>22</v>
+      </c>
+      <c r="H804" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>2016</v>
+      </c>
+      <c r="B805" t="s">
+        <v>10</v>
+      </c>
+      <c r="C805" t="s">
+        <v>50</v>
+      </c>
+      <c r="D805" t="s">
+        <v>26</v>
+      </c>
+      <c r="H805" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>2016</v>
+      </c>
+      <c r="B806" t="s">
+        <v>10</v>
+      </c>
+      <c r="C806" t="s">
+        <v>50</v>
+      </c>
+      <c r="D806" t="s">
+        <v>11</v>
+      </c>
+      <c r="H806" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>2016</v>
+      </c>
+      <c r="B807" t="s">
+        <v>10</v>
+      </c>
+      <c r="C807" t="s">
+        <v>50</v>
+      </c>
+      <c r="D807" t="s">
+        <v>13</v>
+      </c>
+      <c r="H807" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>2016</v>
+      </c>
+      <c r="B808" t="s">
+        <v>10</v>
+      </c>
+      <c r="C808" t="s">
+        <v>50</v>
+      </c>
+      <c r="D808" t="s">
+        <v>14</v>
+      </c>
+      <c r="H808" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>2016</v>
+      </c>
+      <c r="B809" t="s">
+        <v>10</v>
+      </c>
+      <c r="C809" t="s">
+        <v>50</v>
+      </c>
+      <c r="D809" t="s">
+        <v>15</v>
+      </c>
+      <c r="H809" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>2016</v>
+      </c>
+      <c r="B810" t="s">
+        <v>10</v>
+      </c>
+      <c r="C810" t="s">
+        <v>50</v>
+      </c>
+      <c r="D810" t="s">
+        <v>16</v>
+      </c>
+      <c r="H810" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>2016</v>
+      </c>
+      <c r="B811" t="s">
+        <v>10</v>
+      </c>
+      <c r="C811" t="s">
+        <v>50</v>
+      </c>
+      <c r="D811" t="s">
+        <v>17</v>
+      </c>
+      <c r="H811" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>2017</v>
+      </c>
+      <c r="B812" t="s">
+        <v>10</v>
+      </c>
+      <c r="C812" t="s">
+        <v>50</v>
+      </c>
+      <c r="D812" t="s">
+        <v>18</v>
+      </c>
+      <c r="H812" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>2017</v>
+      </c>
+      <c r="B813" t="s">
+        <v>10</v>
+      </c>
+      <c r="C813" t="s">
+        <v>50</v>
+      </c>
+      <c r="D813" t="s">
+        <v>19</v>
+      </c>
+      <c r="H813" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>2017</v>
+      </c>
+      <c r="B814" t="s">
+        <v>10</v>
+      </c>
+      <c r="C814" t="s">
+        <v>50</v>
+      </c>
+      <c r="D814" t="s">
+        <v>20</v>
+      </c>
+      <c r="H814" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>2017</v>
+      </c>
+      <c r="B815" t="s">
+        <v>10</v>
+      </c>
+      <c r="C815" t="s">
+        <v>50</v>
+      </c>
+      <c r="D815" t="s">
+        <v>21</v>
+      </c>
+      <c r="H815" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>2017</v>
+      </c>
+      <c r="B816" t="s">
+        <v>10</v>
+      </c>
+      <c r="C816" t="s">
+        <v>50</v>
+      </c>
+      <c r="D816" t="s">
+        <v>22</v>
+      </c>
+      <c r="H816" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>2017</v>
+      </c>
+      <c r="B817" t="s">
+        <v>10</v>
+      </c>
+      <c r="C817" t="s">
+        <v>50</v>
+      </c>
+      <c r="D817" t="s">
+        <v>26</v>
+      </c>
+      <c r="H817" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>2017</v>
+      </c>
+      <c r="B818" t="s">
+        <v>10</v>
+      </c>
+      <c r="C818" t="s">
+        <v>50</v>
+      </c>
+      <c r="D818" t="s">
+        <v>11</v>
+      </c>
+      <c r="H818" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>2017</v>
+      </c>
+      <c r="B819" t="s">
+        <v>10</v>
+      </c>
+      <c r="C819" t="s">
+        <v>50</v>
+      </c>
+      <c r="D819" t="s">
+        <v>13</v>
+      </c>
+      <c r="H819" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>2017</v>
+      </c>
+      <c r="B820" t="s">
+        <v>10</v>
+      </c>
+      <c r="C820" t="s">
+        <v>50</v>
+      </c>
+      <c r="D820" t="s">
+        <v>14</v>
+      </c>
+      <c r="H820" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>2017</v>
+      </c>
+      <c r="B821" t="s">
+        <v>10</v>
+      </c>
+      <c r="C821" t="s">
+        <v>50</v>
+      </c>
+      <c r="D821" t="s">
+        <v>15</v>
+      </c>
+      <c r="H821" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>2017</v>
+      </c>
+      <c r="B822" t="s">
+        <v>10</v>
+      </c>
+      <c r="C822" t="s">
+        <v>50</v>
+      </c>
+      <c r="D822" t="s">
+        <v>16</v>
+      </c>
+      <c r="H822" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>2017</v>
+      </c>
+      <c r="B823" t="s">
+        <v>10</v>
+      </c>
+      <c r="C823" t="s">
+        <v>50</v>
+      </c>
+      <c r="D823" t="s">
+        <v>17</v>
+      </c>
+      <c r="H823" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>2018</v>
+      </c>
+      <c r="B824" t="s">
+        <v>10</v>
+      </c>
+      <c r="C824" t="s">
+        <v>50</v>
+      </c>
+      <c r="D824" t="s">
+        <v>18</v>
+      </c>
+      <c r="H824" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>2018</v>
+      </c>
+      <c r="B825" t="s">
+        <v>10</v>
+      </c>
+      <c r="C825" t="s">
+        <v>50</v>
+      </c>
+      <c r="D825" t="s">
+        <v>19</v>
+      </c>
+      <c r="H825" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>2018</v>
+      </c>
+      <c r="B826" t="s">
+        <v>10</v>
+      </c>
+      <c r="C826" t="s">
+        <v>50</v>
+      </c>
+      <c r="D826" t="s">
+        <v>20</v>
+      </c>
+      <c r="H826" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>2018</v>
+      </c>
+      <c r="B827" t="s">
+        <v>10</v>
+      </c>
+      <c r="C827" t="s">
+        <v>50</v>
+      </c>
+      <c r="D827" t="s">
+        <v>21</v>
+      </c>
+      <c r="H827" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>2018</v>
+      </c>
+      <c r="B828" t="s">
+        <v>10</v>
+      </c>
+      <c r="C828" t="s">
+        <v>50</v>
+      </c>
+      <c r="D828" t="s">
+        <v>22</v>
+      </c>
+      <c r="H828" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>2018</v>
+      </c>
+      <c r="B829" t="s">
+        <v>10</v>
+      </c>
+      <c r="C829" t="s">
+        <v>50</v>
+      </c>
+      <c r="D829" t="s">
+        <v>26</v>
+      </c>
+      <c r="H829" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>2018</v>
+      </c>
+      <c r="B830" t="s">
+        <v>10</v>
+      </c>
+      <c r="C830" t="s">
+        <v>50</v>
+      </c>
+      <c r="D830" t="s">
+        <v>11</v>
+      </c>
+      <c r="H830" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>2018</v>
+      </c>
+      <c r="B831" t="s">
+        <v>10</v>
+      </c>
+      <c r="C831" t="s">
+        <v>50</v>
+      </c>
+      <c r="D831" t="s">
+        <v>13</v>
+      </c>
+      <c r="H831" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>2018</v>
+      </c>
+      <c r="B832" t="s">
+        <v>10</v>
+      </c>
+      <c r="C832" t="s">
+        <v>50</v>
+      </c>
+      <c r="D832" t="s">
+        <v>14</v>
+      </c>
+      <c r="H832" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>2018</v>
+      </c>
+      <c r="B833" t="s">
+        <v>10</v>
+      </c>
+      <c r="C833" t="s">
+        <v>50</v>
+      </c>
+      <c r="D833" t="s">
+        <v>15</v>
+      </c>
+      <c r="H833" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>2018</v>
+      </c>
+      <c r="B834" t="s">
+        <v>10</v>
+      </c>
+      <c r="C834" t="s">
+        <v>50</v>
+      </c>
+      <c r="D834" t="s">
+        <v>16</v>
+      </c>
+      <c r="H834" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>2018</v>
+      </c>
+      <c r="B835" t="s">
+        <v>10</v>
+      </c>
+      <c r="C835" t="s">
+        <v>50</v>
+      </c>
+      <c r="D835" t="s">
+        <v>17</v>
+      </c>
+      <c r="H835" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>2019</v>
+      </c>
+      <c r="B836" t="s">
+        <v>10</v>
+      </c>
+      <c r="C836" t="s">
+        <v>50</v>
+      </c>
+      <c r="D836" t="s">
+        <v>18</v>
+      </c>
+      <c r="H836" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>2019</v>
+      </c>
+      <c r="B837" t="s">
+        <v>10</v>
+      </c>
+      <c r="C837" t="s">
+        <v>50</v>
+      </c>
+      <c r="D837" t="s">
+        <v>19</v>
+      </c>
+      <c r="H837" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>2019</v>
+      </c>
+      <c r="B838" t="s">
+        <v>10</v>
+      </c>
+      <c r="C838" t="s">
+        <v>50</v>
+      </c>
+      <c r="D838" t="s">
+        <v>20</v>
+      </c>
+      <c r="H838" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>2019</v>
+      </c>
+      <c r="B839" t="s">
+        <v>10</v>
+      </c>
+      <c r="C839" t="s">
+        <v>50</v>
+      </c>
+      <c r="D839" t="s">
+        <v>21</v>
+      </c>
+      <c r="H839" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>2019</v>
+      </c>
+      <c r="B840" t="s">
+        <v>10</v>
+      </c>
+      <c r="C840" t="s">
+        <v>50</v>
+      </c>
+      <c r="D840" t="s">
+        <v>22</v>
+      </c>
+      <c r="H840" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>2019</v>
+      </c>
+      <c r="B841" t="s">
+        <v>10</v>
+      </c>
+      <c r="C841" t="s">
+        <v>50</v>
+      </c>
+      <c r="D841" t="s">
+        <v>26</v>
+      </c>
+      <c r="H841" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>2019</v>
+      </c>
+      <c r="B842" t="s">
+        <v>10</v>
+      </c>
+      <c r="C842" t="s">
+        <v>50</v>
+      </c>
+      <c r="D842" t="s">
+        <v>11</v>
+      </c>
+      <c r="H842" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>2019</v>
+      </c>
+      <c r="B843" t="s">
+        <v>10</v>
+      </c>
+      <c r="C843" t="s">
+        <v>50</v>
+      </c>
+      <c r="D843" t="s">
+        <v>13</v>
+      </c>
+      <c r="H843" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>2019</v>
+      </c>
+      <c r="B844" t="s">
+        <v>10</v>
+      </c>
+      <c r="C844" t="s">
+        <v>50</v>
+      </c>
+      <c r="D844" t="s">
+        <v>14</v>
+      </c>
+      <c r="H844" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>2019</v>
+      </c>
+      <c r="B845" t="s">
+        <v>10</v>
+      </c>
+      <c r="C845" t="s">
+        <v>50</v>
+      </c>
+      <c r="D845" t="s">
+        <v>15</v>
+      </c>
+      <c r="H845" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>2019</v>
+      </c>
+      <c r="B846" t="s">
+        <v>10</v>
+      </c>
+      <c r="C846" t="s">
+        <v>50</v>
+      </c>
+      <c r="D846" t="s">
+        <v>16</v>
+      </c>
+      <c r="H846" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>2019</v>
+      </c>
+      <c r="B847" t="s">
+        <v>10</v>
+      </c>
+      <c r="C847" t="s">
+        <v>50</v>
+      </c>
+      <c r="D847" t="s">
+        <v>17</v>
+      </c>
+      <c r="H847" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>2020</v>
+      </c>
+      <c r="B848" t="s">
+        <v>10</v>
+      </c>
+      <c r="C848" t="s">
+        <v>50</v>
+      </c>
+      <c r="D848" t="s">
+        <v>18</v>
+      </c>
+      <c r="H848" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>2020</v>
+      </c>
+      <c r="B849" t="s">
+        <v>10</v>
+      </c>
+      <c r="C849" t="s">
+        <v>50</v>
+      </c>
+      <c r="D849" t="s">
+        <v>19</v>
+      </c>
+      <c r="H849" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>2020</v>
+      </c>
+      <c r="B850" t="s">
+        <v>10</v>
+      </c>
+      <c r="C850" t="s">
+        <v>50</v>
+      </c>
+      <c r="D850" t="s">
+        <v>20</v>
+      </c>
+      <c r="H850" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>2020</v>
+      </c>
+      <c r="B851" t="s">
+        <v>10</v>
+      </c>
+      <c r="C851" t="s">
+        <v>50</v>
+      </c>
+      <c r="D851" t="s">
+        <v>21</v>
+      </c>
+      <c r="H851" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>2020</v>
+      </c>
+      <c r="B852" t="s">
+        <v>10</v>
+      </c>
+      <c r="C852" t="s">
+        <v>50</v>
+      </c>
+      <c r="D852" t="s">
+        <v>22</v>
+      </c>
+      <c r="H852" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>2020</v>
+      </c>
+      <c r="B853" t="s">
+        <v>10</v>
+      </c>
+      <c r="C853" t="s">
+        <v>50</v>
+      </c>
+      <c r="D853" t="s">
+        <v>26</v>
+      </c>
+      <c r="H853" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>2020</v>
+      </c>
+      <c r="B854" t="s">
+        <v>10</v>
+      </c>
+      <c r="C854" t="s">
+        <v>50</v>
+      </c>
+      <c r="D854" t="s">
+        <v>11</v>
+      </c>
+      <c r="H854" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>2020</v>
+      </c>
+      <c r="B855" t="s">
+        <v>10</v>
+      </c>
+      <c r="C855" t="s">
+        <v>50</v>
+      </c>
+      <c r="D855" t="s">
+        <v>13</v>
+      </c>
+      <c r="H855" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>2020</v>
+      </c>
+      <c r="B856" t="s">
+        <v>10</v>
+      </c>
+      <c r="C856" t="s">
+        <v>50</v>
+      </c>
+      <c r="D856" t="s">
+        <v>14</v>
+      </c>
+      <c r="H856" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>2020</v>
+      </c>
+      <c r="B857" t="s">
+        <v>10</v>
+      </c>
+      <c r="C857" t="s">
+        <v>50</v>
+      </c>
+      <c r="D857" t="s">
+        <v>15</v>
+      </c>
+      <c r="H857" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>2020</v>
+      </c>
+      <c r="B858" t="s">
+        <v>10</v>
+      </c>
+      <c r="C858" t="s">
+        <v>50</v>
+      </c>
+      <c r="D858" t="s">
+        <v>16</v>
+      </c>
+      <c r="H858" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>2020</v>
+      </c>
+      <c r="B859" t="s">
+        <v>10</v>
+      </c>
+      <c r="C859" t="s">
+        <v>50</v>
+      </c>
+      <c r="D859" t="s">
+        <v>17</v>
+      </c>
+      <c r="H859" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
